--- a/codebook_combined.xlsx
+++ b/codebook_combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill.sharepoint.com/sites/PROSPERED_Group/Shared Documents/General/CIHR RSBY India/data/Linking code and CSVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1454" documentId="8_{54C3D132-FD60-E343-8A70-19C775275FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F4BC94A-A304-864D-A816-8518F9C038B7}"/>
+  <xr:revisionPtr revIDLastSave="1487" documentId="8_{54C3D132-FD60-E343-8A70-19C775275FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C0A6994-45B3-514C-BB0C-1D8894E67497}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="500" windowWidth="35640" windowHeight="19380" xr2:uid="{73DF8F02-1432-4841-ABC8-0F245F1B77ED}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="35640" windowHeight="19380" xr2:uid="{73DF8F02-1432-4841-ABC8-0F245F1B77ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="646">
   <si>
     <t>Variable</t>
   </si>
@@ -1502,9 +1502,6 @@
   </si>
   <si>
     <t>7 no one</t>
-  </si>
-  <si>
-    <t>NFHS uses an "endorse all" method, so participants can report using a doctor AND an untrained dai. This was recoded to be medical if endorsed any doctor/anm/nurse/midwife/lhv/other health professional, non-medical if dai/TBA/friend/relative/other person, and no one if reported none</t>
   </si>
   <si>
     <t>1 Medical</t>
@@ -1958,6 +1955,33 @@
   </si>
   <si>
     <t xml:space="preserve">14 public tap/standpipe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3  tubewell-or-borehole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4   protected-dugwell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5   unprotected-dug-well</t>
+  </si>
+  <si>
+    <t>6 tanker/truck/cart</t>
+  </si>
+  <si>
+    <t>7other source</t>
+  </si>
+  <si>
+    <t>8 service latrine /dry toilet</t>
+  </si>
+  <si>
+    <t>0 Non-medical</t>
+  </si>
+  <si>
+    <t>Trained dai was recorded as medical, untraine dai as non-medical. For DLHS3 which did not differentiate all dais were recorded as non-medical.</t>
+  </si>
+  <si>
+    <t>not using variable</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +2012,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2017,6 +2041,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2173,7 +2203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2373,6 +2403,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2691,10 +2739,10 @@
   <dimension ref="A1:K198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I77" sqref="I77"/>
+      <selection pane="bottomRight" activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2736,7 +2784,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -2759,7 +2807,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2782,7 +2830,7 @@
         <v>420</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2803,10 +2851,10 @@
         <v>421</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -2816,7 +2864,7 @@
         <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>366</v>
@@ -2825,10 +2873,10 @@
         <v>422</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2847,10 +2895,10 @@
         <v>423</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2869,10 +2917,10 @@
         <v>424</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2891,10 +2939,10 @@
         <v>425</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2913,10 +2961,10 @@
         <v>426</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2935,10 +2983,10 @@
         <v>427</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2957,10 +3005,10 @@
         <v>428</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2979,7 +3027,7 @@
         <v>429</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2998,7 +3046,7 @@
         <v>430</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3017,7 +3065,7 @@
         <v>431</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3036,7 +3084,7 @@
         <v>432</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3055,7 +3103,7 @@
         <v>433</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3074,7 +3122,7 @@
         <v>434</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3093,7 +3141,7 @@
         <v>435</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3112,7 +3160,7 @@
         <v>436</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3131,7 +3179,7 @@
         <v>437</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3150,7 +3198,7 @@
         <v>438</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3169,7 +3217,7 @@
         <v>439</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3188,7 +3236,7 @@
         <v>440</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3204,7 +3252,7 @@
         <v>441</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3220,7 +3268,7 @@
         <v>442</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3236,7 +3284,7 @@
         <v>443</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -3252,7 +3300,7 @@
         <v>444</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3268,7 +3316,7 @@
         <v>445</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3284,7 +3332,7 @@
         <v>446</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3300,7 +3348,7 @@
         <v>447</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3316,7 +3364,7 @@
         <v>448</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3332,7 +3380,7 @@
         <v>449</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3348,7 +3396,7 @@
         <v>450</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3364,7 +3412,7 @@
         <v>451</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3380,7 +3428,7 @@
         <v>452</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3396,7 +3444,7 @@
         <v>453</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3409,7 +3457,7 @@
         <v>399</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3445,143 +3493,143 @@
         <v>455</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="D40" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>563</v>
-      </c>
       <c r="I40" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="53" t="s">
+        <v>618</v>
+      </c>
+      <c r="B41" s="55" t="s">
         <v>619</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="C41" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>621</v>
-      </c>
       <c r="D41" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H41" s="50"/>
       <c r="I41" s="39" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="59"/>
       <c r="B42" s="63"/>
       <c r="C42" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H42" s="51"/>
       <c r="I42" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="59"/>
       <c r="B43" s="63"/>
       <c r="C43" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H43" s="51"/>
       <c r="I43" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="54"/>
       <c r="B44" s="56"/>
       <c r="C44" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H44" s="52"/>
       <c r="I44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="B45" s="26" t="s">
         <v>622</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>623</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="48"/>
@@ -3590,15 +3638,15 @@
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
       <c r="I45" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="53" t="s">
+        <v>624</v>
+      </c>
+      <c r="B46" s="55" t="s">
         <v>625</v>
-      </c>
-      <c r="B46" s="55" t="s">
-        <v>626</v>
       </c>
       <c r="C46" s="57"/>
       <c r="D46" s="50"/>
@@ -3637,16 +3685,16 @@
         <v>18</v>
       </c>
       <c r="E48" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>629</v>
-      </c>
       <c r="G48" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I48" s="49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3672,7 +3720,7 @@
         <v>21</v>
       </c>
       <c r="I49" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3698,7 +3746,7 @@
         <v>24</v>
       </c>
       <c r="I50" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3724,7 +3772,7 @@
         <v>25</v>
       </c>
       <c r="I51" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3750,7 +3798,7 @@
         <v>29</v>
       </c>
       <c r="I52" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3776,7 +3824,7 @@
         <v>32</v>
       </c>
       <c r="I53" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3798,7 +3846,7 @@
         <v>33</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3953,10 +4001,10 @@
         <v>129</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I61" s="35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3975,10 +4023,10 @@
         <v>130</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I62" s="35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3997,7 +4045,7 @@
         <v>131</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4037,7 +4085,7 @@
         <v>259</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4057,7 +4105,7 @@
       </c>
       <c r="G66"/>
       <c r="I66" s="41" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4114,13 +4162,13 @@
         <v>70</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I69" s="31" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4139,10 +4187,10 @@
         <v>136</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4161,10 +4209,10 @@
         <v>263</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I71" s="35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4201,7 +4249,7 @@
         <v>41</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>71</v>
@@ -4216,10 +4264,10 @@
         <v>266</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I74" s="75" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -4293,8 +4341,8 @@
         <v>199</v>
       </c>
       <c r="H77" s="70"/>
-      <c r="I77" s="41" t="s">
-        <v>199</v>
+      <c r="I77" s="38" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4310,14 +4358,14 @@
         <v>313</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>200</v>
       </c>
       <c r="H78" s="70"/>
       <c r="I78" s="38" t="s">
-        <v>200</v>
+        <v>638</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4340,7 +4388,7 @@
       </c>
       <c r="H79" s="70"/>
       <c r="I79" s="38" t="s">
-        <v>201</v>
+        <v>639</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4363,7 +4411,7 @@
       </c>
       <c r="H80" s="70"/>
       <c r="I80" s="38" t="s">
-        <v>202</v>
+        <v>640</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4382,11 +4430,11 @@
         <v>315</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H81" s="70"/>
-      <c r="I81" s="38" t="s">
-        <v>510</v>
+      <c r="I81" s="35" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4405,12 +4453,9 @@
         <v>316</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H82" s="70"/>
-      <c r="I82" s="38" t="s">
-        <v>511</v>
-      </c>
     </row>
     <row r="83" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="59"/>
@@ -4428,12 +4473,9 @@
         <v>317</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H83" s="70"/>
-      <c r="I83" s="35" t="s">
-        <v>512</v>
-      </c>
     </row>
     <row r="84" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="59"/>
@@ -4451,6 +4493,7 @@
         <v>318</v>
       </c>
       <c r="H84" s="70"/>
+      <c r="I84" s="76"/>
     </row>
     <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="59"/>
@@ -4468,6 +4511,7 @@
         <v>319</v>
       </c>
       <c r="H85" s="70"/>
+      <c r="I85" s="77"/>
     </row>
     <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="59"/>
@@ -4573,10 +4617,10 @@
         <v>325</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I92" s="39" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4595,10 +4639,10 @@
         <v>326</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I93" s="35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4617,10 +4661,10 @@
         <v>327</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I94" s="35" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4639,10 +4683,10 @@
         <v>328</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I95" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4661,10 +4705,10 @@
         <v>329</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I96" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4683,10 +4727,10 @@
         <v>330</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I97" s="35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4705,10 +4749,10 @@
         <v>331</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I98" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4727,10 +4771,10 @@
         <v>332</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I99" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4749,10 +4793,10 @@
         <v>333</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I100" s="35" t="s">
-        <v>521</v>
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4771,10 +4815,10 @@
         <v>334</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I101" s="35" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4842,10 +4886,10 @@
         <v>83</v>
       </c>
       <c r="G105" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I105" s="40" t="s">
         <v>574</v>
-      </c>
-      <c r="I105" s="40" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5181,7 +5225,7 @@
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="73" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I121" s="39" t="s">
         <v>83</v>
@@ -5229,7 +5273,7 @@
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="69" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I123" s="39" t="s">
         <v>83</v>
@@ -5277,7 +5321,7 @@
       </c>
       <c r="G125" s="12"/>
       <c r="I125" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -5328,7 +5372,7 @@
         <v>181</v>
       </c>
       <c r="I127" s="41" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -5353,7 +5397,7 @@
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
       <c r="I128" s="42" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="15" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -5401,7 +5445,7 @@
       </c>
       <c r="G130" s="5"/>
       <c r="I130" s="31" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5447,7 +5491,7 @@
         <v>269</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H132" s="70"/>
       <c r="I132" s="35" t="s">
@@ -5466,7 +5510,7 @@
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H133" s="71"/>
     </row>
@@ -5490,11 +5534,11 @@
         <v>339</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H134" s="6"/>
       <c r="I134" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5513,10 +5557,10 @@
         <v>340</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I135" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5535,7 +5579,7 @@
         <v>337</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I136" s="1"/>
     </row>
@@ -5555,7 +5599,7 @@
         <v>338</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5574,7 +5618,7 @@
         <v>341</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5593,7 +5637,7 @@
         <v>342</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5612,7 +5656,7 @@
         <v>343</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5631,7 +5675,7 @@
         <v>344</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5650,7 +5694,7 @@
         <v>345</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5669,7 +5713,7 @@
         <v>346</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5688,7 +5732,7 @@
         <v>347</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5707,7 +5751,7 @@
         <v>348</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5726,7 +5770,7 @@
         <v>349</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5781,19 +5825,19 @@
         <v>477</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H150" s="64" t="s">
-        <v>489</v>
+        <v>644</v>
       </c>
       <c r="I150" s="35" t="s">
-        <v>490</v>
+        <v>643</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5806,17 +5850,17 @@
         <v>478</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H151" s="72"/>
-      <c r="I151" s="35" t="s">
-        <v>491</v>
+      <c r="I151" s="79" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5829,18 +5873,16 @@
         <v>479</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H152" s="72"/>
-      <c r="I152" s="35" t="s">
-        <v>492</v>
-      </c>
+      <c r="I152" s="78"/>
     </row>
     <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="59"/>
@@ -5852,7 +5894,7 @@
         <v>480</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H153" s="72"/>
     </row>
@@ -5866,7 +5908,7 @@
         <v>481</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H154" s="72"/>
     </row>
@@ -5880,7 +5922,7 @@
         <v>482</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H155" s="72"/>
     </row>
@@ -5978,7 +6020,7 @@
       <c r="G160" s="5"/>
       <c r="H160" s="6"/>
       <c r="I160" s="40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6021,7 +6063,7 @@
       </c>
       <c r="G162" s="12"/>
       <c r="I162" s="40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -6045,7 +6087,7 @@
       </c>
       <c r="G163" s="5"/>
       <c r="I163" s="40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -6072,7 +6114,7 @@
         <v>4</v>
       </c>
       <c r="I164" s="25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6117,7 +6159,7 @@
       </c>
       <c r="H166" s="71"/>
       <c r="I166" s="41" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6158,7 +6200,7 @@
         <v>273</v>
       </c>
       <c r="I168" s="41" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6200,8 +6242,8 @@
       </c>
       <c r="G170" s="5"/>
       <c r="H170" s="6"/>
-      <c r="I170" s="39" t="s">
-        <v>83</v>
+      <c r="I170" s="80" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6221,9 +6263,7 @@
       </c>
       <c r="G171" s="7"/>
       <c r="H171" s="8"/>
-      <c r="I171" s="43" t="s">
-        <v>84</v>
-      </c>
+      <c r="I171" s="81"/>
     </row>
     <row r="172" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="53" t="s">
@@ -6245,7 +6285,7 @@
         <v>350</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6264,7 +6304,7 @@
         <v>351</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I173" s="44"/>
     </row>
@@ -6284,10 +6324,10 @@
         <v>352</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I174" s="45" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6306,7 +6346,7 @@
         <v>353</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I175" s="44"/>
     </row>
@@ -6326,7 +6366,7 @@
         <v>354</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I176" s="44"/>
     </row>
@@ -6346,7 +6386,7 @@
         <v>355</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I177" s="44"/>
     </row>
@@ -6366,7 +6406,7 @@
         <v>356</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I178" s="44"/>
     </row>
@@ -6386,7 +6426,7 @@
         <v>357</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6405,7 +6445,7 @@
         <v>472</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6424,7 +6464,7 @@
         <v>359</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6443,7 +6483,7 @@
         <v>469</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6459,7 +6499,7 @@
         <v>360</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6472,7 +6512,7 @@
         <v>361</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6485,7 +6525,7 @@
         <v>362</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6548,7 +6588,7 @@
         <v>276</v>
       </c>
       <c r="I190" s="41" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="17" x14ac:dyDescent="0.2">

--- a/codebook_combined.xlsx
+++ b/codebook_combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill.sharepoint.com/sites/PROSPERED_Group/Shared Documents/General/CIHR RSBY India/data/Linking code and CSVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1557" documentId="8_{54C3D132-FD60-E343-8A70-19C775275FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A121BB37-D6F6-B44F-9F2B-5CC25D9FF23F}"/>
+  <xr:revisionPtr revIDLastSave="1740" documentId="8_{54C3D132-FD60-E343-8A70-19C775275FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A99FE2C-D21B-A149-99E3-28081AA24F20}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="500" windowWidth="35640" windowHeight="19380" xr2:uid="{73DF8F02-1432-4841-ABC8-0F245F1B77ED}"/>
+    <workbookView xWindow="10320" yWindow="500" windowWidth="35640" windowHeight="19380" xr2:uid="{73DF8F02-1432-4841-ABC8-0F245F1B77ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="631">
   <si>
     <t>Variable</t>
   </si>
@@ -1696,15 +1696,6 @@
     <t xml:space="preserve">           4   protected-dugwell</t>
   </si>
   <si>
-    <t xml:space="preserve">           5   unprotected-dug-well</t>
-  </si>
-  <si>
-    <t>6 tanker/truck/cart</t>
-  </si>
-  <si>
-    <t>7other source</t>
-  </si>
-  <si>
     <t>8 service latrine /dry toilet</t>
   </si>
   <si>
@@ -1766,6 +1757,177 @@
   </si>
   <si>
     <t>for values and labels see districts_harmonized.csv in district harmonization folder</t>
+  </si>
+  <si>
+    <t>water_treat</t>
+  </si>
+  <si>
+    <t>Do you treat your water in any way to make it safe to drink?</t>
+  </si>
+  <si>
+    <t>0 NO</t>
+  </si>
+  <si>
+    <t>1 YES</t>
+  </si>
+  <si>
+    <t>type_water_filter</t>
+  </si>
+  <si>
+    <t>What is usually done to make water safer to drink?</t>
+  </si>
+  <si>
+    <t>1 Boil water</t>
+  </si>
+  <si>
+    <t>2 Bleach the water</t>
+  </si>
+  <si>
+    <t>3 Use alum</t>
+  </si>
+  <si>
+    <t>4 Strain water through a cloth</t>
+  </si>
+  <si>
+    <t>5 Use water filter (ceramic, sand, composite)</t>
+  </si>
+  <si>
+    <t>6 Use an electronic water purifier</t>
+  </si>
+  <si>
+    <t>7 Let it stand and settle</t>
+  </si>
+  <si>
+    <t>8 Other method</t>
+  </si>
+  <si>
+    <t>toilet_share</t>
+  </si>
+  <si>
+    <t>Is the toilet shared with other households?</t>
+  </si>
+  <si>
+    <t>0 No</t>
+  </si>
+  <si>
+    <t>cooking_fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What type of fuel does your household mainly use for cooking? </t>
+  </si>
+  <si>
+    <t>1 Electricity</t>
+  </si>
+  <si>
+    <t>2 LPG/ Natural Gas</t>
+  </si>
+  <si>
+    <t>3 Biogas</t>
+  </si>
+  <si>
+    <t>4 Kerosene</t>
+  </si>
+  <si>
+    <t>5 Coal / Ignite / Charcoal</t>
+  </si>
+  <si>
+    <t>6 Wood</t>
+  </si>
+  <si>
+    <t>7 Straw / Shrubs / Grass / Agricultural Crop Waste</t>
+  </si>
+  <si>
+    <t>8 Dung Cakes</t>
+  </si>
+  <si>
+    <t>96 Other</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>Does the household own a radio?</t>
+  </si>
+  <si>
+    <t>1 Yes</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>Does the household own a computer?</t>
+  </si>
+  <si>
+    <t>fridge</t>
+  </si>
+  <si>
+    <t>Does the household own a refrigerator?</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>Does the household own a bicycle</t>
+  </si>
+  <si>
+    <t>motorcycle</t>
+  </si>
+  <si>
+    <t>Does the household own a motorcycle or scooter?</t>
+  </si>
+  <si>
+    <t>animal_cart</t>
+  </si>
+  <si>
+    <t>Does the household own a cart drawn by animals?</t>
+  </si>
+  <si>
+    <t>Does the household own a car?</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>own_agric_land</t>
+  </si>
+  <si>
+    <t>Does the household own land that can be used for agriculture or irrigation?</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>Does the household own a television?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92 community or plant </t>
+  </si>
+  <si>
+    <t>improved_water</t>
+  </si>
+  <si>
+    <t>Is water source an improved according to JMP WASH standards?</t>
+  </si>
+  <si>
+    <t>0 No facilities (surface water)</t>
+  </si>
+  <si>
+    <t>1 Unimproved Facilities (Unprotected wells and springs)</t>
+  </si>
+  <si>
+    <t>2 Improved Facilities (i.e. piped, protected well, delivered water)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5   tanker/truck/bard</t>
+  </si>
+  <si>
+    <t>6 unprotected-dug-well</t>
+  </si>
+  <si>
+    <t>7 surface water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 other </t>
   </si>
 </sst>
 </file>
@@ -1975,7 +2137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2095,6 +2257,53 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2119,12 +2328,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2132,9 +2335,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2146,14 +2346,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2169,18 +2366,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2500,13 +2685,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4750E3-F7BA-154D-B91A-8F67FE959370}">
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I170" sqref="I170"/>
+      <selection pane="bottomRight" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2575,10 +2760,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="72" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2600,8 +2785,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
@@ -2622,8 +2807,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="2" t="s">
         <v>66</v>
       </c>
@@ -2644,8 +2829,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
@@ -2666,8 +2851,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
@@ -2688,8 +2873,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
@@ -2710,8 +2895,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
@@ -2732,8 +2917,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="2" t="s">
         <v>71</v>
       </c>
@@ -2754,8 +2939,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="2" t="s">
         <v>72</v>
       </c>
@@ -2776,8 +2961,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2795,8 +2980,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
@@ -2814,8 +2999,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="2" t="s">
         <v>75</v>
       </c>
@@ -2833,8 +3018,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="2" t="s">
         <v>76</v>
       </c>
@@ -2852,8 +3037,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="2" t="s">
         <v>77</v>
       </c>
@@ -2871,8 +3056,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="2" t="s">
         <v>78</v>
       </c>
@@ -2890,8 +3075,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="2" t="s">
         <v>79</v>
       </c>
@@ -2909,8 +3094,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
@@ -2928,8 +3113,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="2" t="s">
         <v>81</v>
       </c>
@@ -2947,8 +3132,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="2" t="s">
         <v>82</v>
       </c>
@@ -2966,8 +3151,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="2" t="s">
         <v>83</v>
       </c>
@@ -2985,8 +3170,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="2" t="s">
         <v>84</v>
       </c>
@@ -3004,8 +3189,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="2" t="s">
         <v>85</v>
       </c>
@@ -3020,8 +3205,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="2" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3221,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="2" t="s">
         <v>87</v>
       </c>
@@ -3052,8 +3237,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="2" t="s">
         <v>88</v>
       </c>
@@ -3068,8 +3253,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="2" t="s">
         <v>89</v>
       </c>
@@ -3084,8 +3269,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
@@ -3100,8 +3285,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="2" t="s">
         <v>91</v>
       </c>
@@ -3116,8 +3301,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="2" t="s">
         <v>92</v>
       </c>
@@ -3132,8 +3317,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="2" t="s">
         <v>93</v>
       </c>
@@ -3148,8 +3333,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="2" t="s">
         <v>94</v>
       </c>
@@ -3164,8 +3349,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="74"/>
       <c r="C34" s="2" t="s">
         <v>95</v>
       </c>
@@ -3180,8 +3365,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="2" t="s">
         <v>96</v>
       </c>
@@ -3196,8 +3381,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="2" t="s">
         <v>97</v>
       </c>
@@ -3212,8 +3397,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="74"/>
       <c r="E37" s="1" t="s">
         <v>325</v>
       </c>
@@ -3225,8 +3410,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="16"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
@@ -3245,25 +3430,25 @@
         <v>16</v>
       </c>
       <c r="C39" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="E39" s="12" t="s">
+      <c r="H39" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="I39" s="12" t="s">
         <v>561</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>563</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -3296,10 +3481,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="54" t="s">
         <v>534</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="56" t="s">
         <v>535</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -3317,14 +3502,14 @@
       <c r="G41" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="H41" s="67"/>
+      <c r="H41" s="80"/>
       <c r="I41" s="38" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="60"/>
-      <c r="B42" s="65"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="1" t="s">
         <v>544</v>
       </c>
@@ -3340,14 +3525,14 @@
       <c r="G42" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H42" s="68"/>
+      <c r="H42" s="81"/>
       <c r="I42" s="34" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="60"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="1" t="s">
         <v>545</v>
       </c>
@@ -3363,14 +3548,14 @@
       <c r="G43" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="H43" s="68"/>
+      <c r="H43" s="81"/>
       <c r="I43" s="34" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="66"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="7" t="s">
         <v>546</v>
       </c>
@@ -3386,7 +3571,7 @@
       <c r="G44" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H44" s="69"/>
+      <c r="H44" s="82"/>
       <c r="I44" s="39" t="s">
         <v>546</v>
       </c>
@@ -3409,31 +3594,31 @@
       </c>
     </row>
     <row r="46" spans="1:9" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="54" t="s">
         <v>540</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="56" t="s">
         <v>541</v>
       </c>
-      <c r="C46" s="70"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
       <c r="I46" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
       <c r="I47" s="31" t="s">
         <v>60</v>
       </c>
@@ -3466,10 +3651,10 @@
     </row>
     <row r="49" spans="1:9" s="15" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>22</v>
@@ -3487,13 +3672,13 @@
         <v>22</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I49" s="31"/>
     </row>
     <row r="50" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>19</v>
@@ -3544,10 +3729,10 @@
       </c>
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3570,8 +3755,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
-      <c r="B53" s="58"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="16" t="s">
         <v>26</v>
       </c>
@@ -3592,10 +3777,10 @@
       </c>
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="72" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -3618,8 +3803,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
-      <c r="B55" s="59"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="74"/>
       <c r="C55" s="2" t="s">
         <v>98</v>
       </c>
@@ -3640,8 +3825,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="60"/>
-      <c r="B56" s="59"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="74"/>
       <c r="C56" s="2" t="s">
         <v>99</v>
       </c>
@@ -3662,8 +3847,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="60"/>
-      <c r="B57" s="59"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="2" t="s">
         <v>100</v>
       </c>
@@ -3684,8 +3869,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="60"/>
-      <c r="B58" s="59"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="74"/>
       <c r="C58" s="2" t="s">
         <v>101</v>
       </c>
@@ -3706,8 +3891,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="60"/>
-      <c r="B59" s="59"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="74"/>
       <c r="C59" s="2" t="s">
         <v>102</v>
       </c>
@@ -3728,8 +3913,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="60"/>
-      <c r="B60" s="59"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="74"/>
       <c r="C60" s="2" t="s">
         <v>103</v>
       </c>
@@ -3750,8 +3935,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="60"/>
-      <c r="B61" s="59"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="74"/>
       <c r="C61" s="2" t="s">
         <v>104</v>
       </c>
@@ -3772,8 +3957,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="60"/>
-      <c r="B62" s="59"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="74"/>
       <c r="C62" s="2" t="s">
         <v>105</v>
       </c>
@@ -3791,8 +3976,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="56"/>
-      <c r="B63" s="58"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="73"/>
       <c r="C63" s="16" t="s">
         <v>106</v>
       </c>
@@ -3808,10 +3993,10 @@
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="72" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="9" t="s">
@@ -3837,8 +4022,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="60"/>
-      <c r="B65" s="59"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="74"/>
       <c r="C65" s="2" t="s">
         <v>108</v>
       </c>
@@ -3859,8 +4044,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="60"/>
-      <c r="B66" s="59"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="74"/>
       <c r="C66" s="2" t="s">
         <v>107</v>
       </c>
@@ -3881,8 +4066,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="60"/>
-      <c r="B67" s="59"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="74"/>
       <c r="C67" s="2" t="s">
         <v>109</v>
       </c>
@@ -3897,8 +4082,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="56"/>
-      <c r="B68" s="58"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="73"/>
       <c r="C68" s="16"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
@@ -3911,38 +4096,38 @@
     </row>
     <row r="69" spans="1:9" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C69" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="D69" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="F69" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="G69" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="H69" s="15" t="s">
         <v>569</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="C69" s="72" t="s">
-        <v>571</v>
-      </c>
-      <c r="D69" s="72" t="s">
-        <v>571</v>
-      </c>
-      <c r="E69" s="72" t="s">
-        <v>571</v>
-      </c>
-      <c r="F69" s="72" t="s">
-        <v>571</v>
-      </c>
-      <c r="G69" s="72" t="s">
-        <v>571</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>572</v>
       </c>
       <c r="I69" s="45" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="72" t="s">
         <v>50</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -3960,7 +4145,7 @@
       <c r="G70" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H70" s="49" t="s">
+      <c r="H70" s="66" t="s">
         <v>236</v>
       </c>
       <c r="I70" s="36" t="s">
@@ -3968,8 +4153,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="60"/>
-      <c r="B71" s="59"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="74"/>
       <c r="C71" s="2" t="s">
         <v>157</v>
       </c>
@@ -3985,14 +4170,14 @@
       <c r="G71" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H71" s="50"/>
+      <c r="H71" s="67"/>
       <c r="I71" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="60"/>
-      <c r="B72" s="59"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="74"/>
       <c r="C72" s="2" t="s">
         <v>158</v>
       </c>
@@ -4008,14 +4193,14 @@
       <c r="G72" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H72" s="50"/>
+      <c r="H72" s="67"/>
       <c r="I72" s="37" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="60"/>
-      <c r="B73" s="59"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="74"/>
       <c r="C73" s="2" t="s">
         <v>159</v>
       </c>
@@ -4031,14 +4216,14 @@
       <c r="G73" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H73" s="50"/>
+      <c r="H73" s="67"/>
       <c r="I73" s="37" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="60"/>
-      <c r="B74" s="59"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="74"/>
       <c r="C74" s="2" t="s">
         <v>160</v>
       </c>
@@ -4054,14 +4239,14 @@
       <c r="G74" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H74" s="50"/>
+      <c r="H74" s="67"/>
       <c r="I74" s="37" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="60"/>
-      <c r="B75" s="59"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="74"/>
       <c r="C75" s="2" t="s">
         <v>161</v>
       </c>
@@ -4077,14 +4262,14 @@
       <c r="G75" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H75" s="50"/>
+      <c r="H75" s="67"/>
       <c r="I75" s="37" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="60"/>
-      <c r="B76" s="59"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="74"/>
       <c r="C76" s="2" t="s">
         <v>162</v>
       </c>
@@ -4100,14 +4285,14 @@
       <c r="G76" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="H76" s="50"/>
+      <c r="H76" s="67"/>
       <c r="I76" s="34" t="s">
-        <v>555</v>
+        <v>629</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="60"/>
-      <c r="B77" s="59"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="74"/>
       <c r="C77" s="2" t="s">
         <v>163</v>
       </c>
@@ -4123,11 +4308,14 @@
       <c r="G77" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="H77" s="50"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="37" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="60"/>
-      <c r="B78" s="59"/>
+      <c r="A78" s="62"/>
+      <c r="B78" s="74"/>
       <c r="C78" s="2" t="s">
         <v>164</v>
       </c>
@@ -4143,11 +4331,11 @@
       <c r="G78" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H78" s="50"/>
+      <c r="H78" s="67"/>
     </row>
     <row r="79" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="60"/>
-      <c r="B79" s="59"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="74"/>
       <c r="C79" s="2" t="s">
         <v>165</v>
       </c>
@@ -4160,12 +4348,12 @@
       <c r="F79" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H79" s="50"/>
+      <c r="H79" s="67"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="60"/>
-      <c r="B80" s="59"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="74"/>
       <c r="C80" s="2" t="s">
         <v>166</v>
       </c>
@@ -4178,12 +4366,12 @@
       <c r="F80" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H80" s="50"/>
+      <c r="H80" s="67"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="60"/>
-      <c r="B81" s="59"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="74"/>
       <c r="C81" s="2" t="s">
         <v>167</v>
       </c>
@@ -4196,11 +4384,11 @@
       <c r="F81" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H81" s="50"/>
+      <c r="H81" s="67"/>
     </row>
     <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="60"/>
-      <c r="B82" s="59"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="74"/>
       <c r="C82" s="2" t="s">
         <v>168</v>
       </c>
@@ -4213,11 +4401,11 @@
       <c r="F82" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H82" s="50"/>
+      <c r="H82" s="67"/>
     </row>
     <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="60"/>
-      <c r="B83" s="59"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="74"/>
       <c r="C83" s="2" t="s">
         <v>155</v>
       </c>
@@ -4230,1738 +4418,2308 @@
       <c r="F83" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H83" s="50"/>
+      <c r="H83" s="67"/>
     </row>
     <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="60"/>
-      <c r="B84" s="59"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="74"/>
       <c r="E84" s="3" t="s">
         <v>250</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="H84" s="50"/>
+        <v>621</v>
+      </c>
+      <c r="H84" s="67"/>
     </row>
     <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="60"/>
-      <c r="B85" s="59"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="74"/>
       <c r="E85" s="1" t="s">
         <v>251</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H85" s="50"/>
+      <c r="H85" s="67"/>
     </row>
     <row r="86" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="56"/>
-      <c r="B86" s="58"/>
+      <c r="A86" s="55"/>
+      <c r="B86" s="73"/>
       <c r="C86" s="16"/>
       <c r="D86" s="7"/>
       <c r="F86" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G86" s="7"/>
-      <c r="H86" s="51"/>
-    </row>
-    <row r="87" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="55" t="s">
-        <v>573</v>
-      </c>
-      <c r="B87" s="57" t="s">
+      <c r="H86" s="68"/>
+    </row>
+    <row r="87" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="54" t="s">
+        <v>622</v>
+      </c>
+      <c r="B87" s="56" t="s">
+        <v>623</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="50"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="53" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="62"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="50"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="53" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="55"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="31" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="B90" s="56" t="s">
+        <v>575</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="53" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="55"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="31" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="54" t="s">
+        <v>578</v>
+      </c>
+      <c r="B92" s="56" t="s">
+        <v>579</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="53" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="62"/>
+      <c r="B93" s="63"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="53" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="62"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="53" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="62"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="53" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="62"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="53" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="62"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="50"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="53" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="62"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="50"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="53" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="62"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="50"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="53" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="55"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="31"/>
+    </row>
+    <row r="101" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="B101" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C101" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F101" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G101" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="I87" s="38" t="s">
+      <c r="I101" s="38" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="60"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="2" t="s">
+    <row r="102" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="62"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I88" s="34" t="s">
+      <c r="I102" s="34" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="60"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="2" t="s">
+    <row r="103" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="62"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I89" s="34" t="s">
+      <c r="I103" s="34" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="60"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="2" t="s">
+    <row r="104" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="62"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I90" s="34" t="s">
+      <c r="I104" s="34" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="60"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="2" t="s">
+    <row r="105" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="62"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I91" s="34" t="s">
+      <c r="I105" s="34" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A92" s="60"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="2" t="s">
+    <row r="106" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="62"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I92" s="34" t="s">
+      <c r="I106" s="34" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="60"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="2" t="s">
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="62"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I93" s="34" t="s">
+      <c r="I107" s="34" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="60"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="2" t="s">
+    <row r="108" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="62"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I94" s="34" t="s">
+      <c r="I108" s="34" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="60"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="2" t="s">
+    <row r="109" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="62"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I95" s="34" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="60"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="2" t="s">
+      <c r="I109" s="34" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="62"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I96" s="34" t="s">
+      <c r="I110" s="34" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="60"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="2" t="s">
+    <row r="111" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="62"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="60"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="2" t="s">
+    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="62"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="56"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7" t="s">
+    <row r="113" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="55"/>
+      <c r="B113" s="73"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F113" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G99" s="7"/>
-    </row>
-    <row r="100" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G100" s="5"/>
-      <c r="I100" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="56"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I101" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B102" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-    </row>
-    <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="56"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B104" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="I104" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="J104" s="6"/>
-    </row>
-    <row r="105" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="56"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G105" s="7"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="J105" s="8"/>
-    </row>
-    <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B106" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="J106" s="6"/>
-    </row>
-    <row r="107" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="56"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I107" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B108" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="56"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I109" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="B110" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="53" t="s">
-        <v>494</v>
-      </c>
-      <c r="I110" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="56"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B112" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G112" s="5"/>
-      <c r="H112" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="I112" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="56"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G113" s="7"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="G114" s="12"/>
-      <c r="I114" s="29" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="5"/>
-      <c r="I115" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="15" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A116" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="G116" s="12"/>
-      <c r="I116" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A117" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G117" s="5"/>
-      <c r="I117" s="30" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B118" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H118" s="49"/>
-      <c r="I118" s="38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="60"/>
-      <c r="B119" s="59"/>
-      <c r="C119" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D119" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H119" s="50"/>
-      <c r="I119" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="56"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D120" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="H120" s="51"/>
-    </row>
-    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B121" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="H121" s="6"/>
-      <c r="I121" s="34" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="60"/>
-      <c r="B122" s="59"/>
-      <c r="C122" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="I122" s="34" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="60"/>
-      <c r="B123" s="59"/>
-      <c r="C123" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="60"/>
-      <c r="B124" s="59"/>
-      <c r="C124" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="60"/>
-      <c r="B125" s="59"/>
-      <c r="C125" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="60"/>
-      <c r="B126" s="59"/>
-      <c r="C126" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="60"/>
-      <c r="B127" s="59"/>
-      <c r="C127" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="60"/>
-      <c r="B128" s="59"/>
-      <c r="C128" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="60"/>
-      <c r="B129" s="59"/>
-      <c r="C129" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="60"/>
-      <c r="B130" s="59"/>
-      <c r="C130" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A131" s="60"/>
-      <c r="B131" s="59"/>
-      <c r="C131" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="60"/>
-      <c r="B132" s="59"/>
-      <c r="C132" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="60"/>
-      <c r="B133" s="59"/>
-      <c r="C133" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="60"/>
-      <c r="B134" s="59"/>
-      <c r="C134" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="60"/>
-      <c r="B135" s="59"/>
-      <c r="C135" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="56"/>
-      <c r="B136" s="58"/>
+    </row>
+    <row r="114" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="B114" s="60" t="s">
+        <v>589</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="50"/>
+      <c r="I114" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="59"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="I115" s="31" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="54" t="s">
+        <v>591</v>
+      </c>
+      <c r="B116" s="56" t="s">
+        <v>592</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="50"/>
+      <c r="F116" s="50"/>
+      <c r="G116" s="50"/>
+      <c r="I116" s="53" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="62"/>
+      <c r="B117" s="63"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="50"/>
+      <c r="E117" s="50"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="50"/>
+      <c r="I117" s="53" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="62"/>
+      <c r="B118" s="63"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="50"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="50"/>
+      <c r="I118" s="53" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="62"/>
+      <c r="B119" s="63"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="50"/>
+      <c r="I119" s="53" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="62"/>
+      <c r="B120" s="63"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="50"/>
+      <c r="I120" s="53" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="62"/>
+      <c r="B121" s="63"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="50"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="I121" s="53" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="62"/>
+      <c r="B122" s="63"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
+      <c r="I122" s="53" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="62"/>
+      <c r="B123" s="63"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="I123" s="53" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="55"/>
+      <c r="B124" s="57"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="I124" s="31" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="54" t="s">
+        <v>602</v>
+      </c>
+      <c r="B125" s="56" t="s">
+        <v>603</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="I125" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="55"/>
+      <c r="B126" s="57"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="I126" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="B127" s="56" t="s">
+        <v>606</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
+      <c r="I127" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="55"/>
+      <c r="B128" s="57"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="I128" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="54" t="s">
+        <v>607</v>
+      </c>
+      <c r="B129" s="56" t="s">
+        <v>608</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="50"/>
+      <c r="I129" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="55"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="I130" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="54" t="s">
+        <v>609</v>
+      </c>
+      <c r="B131" s="56" t="s">
+        <v>610</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="50"/>
+      <c r="F131" s="50"/>
+      <c r="G131" s="50"/>
+      <c r="I131" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="55"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="I132" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="54" t="s">
+        <v>611</v>
+      </c>
+      <c r="B133" s="56" t="s">
+        <v>612</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
+      <c r="I133" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="55"/>
+      <c r="B134" s="57"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="I134" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="54" t="s">
+        <v>613</v>
+      </c>
+      <c r="B135" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="50"/>
+      <c r="G135" s="50"/>
+      <c r="I135" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="55"/>
+      <c r="B136" s="57"/>
       <c r="C136" s="16"/>
-      <c r="D136" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
-      <c r="H136" s="8"/>
-    </row>
-    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="55" t="s">
+      <c r="I136" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="54" t="s">
+        <v>616</v>
+      </c>
+      <c r="B137" s="56" t="s">
+        <v>615</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="50"/>
+      <c r="I137" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="55"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="I138" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="B139" s="56" t="s">
+        <v>618</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="50"/>
+      <c r="F139" s="50"/>
+      <c r="G139" s="50"/>
+      <c r="I139" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="55"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="I140" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="B141" s="56" t="s">
+        <v>620</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="50"/>
+      <c r="I141" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="55"/>
+      <c r="B142" s="57"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="I142" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G143" s="5"/>
+      <c r="I143" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="55"/>
+      <c r="B144" s="73"/>
+      <c r="C144" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I144" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B145" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G145" s="5"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+    </row>
+    <row r="146" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="55"/>
+      <c r="B146" s="73"/>
+      <c r="C146" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B147" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G147" s="5"/>
+      <c r="H147" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="I147" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J147" s="6"/>
+    </row>
+    <row r="148" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="55"/>
+      <c r="B148" s="73"/>
+      <c r="C148" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G148" s="7"/>
+      <c r="H148" s="65"/>
+      <c r="I148" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J148" s="8"/>
+    </row>
+    <row r="149" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B149" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G149" s="5"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J149" s="6"/>
+    </row>
+    <row r="150" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" s="55"/>
+      <c r="B150" s="73"/>
+      <c r="C150" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I150" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B151" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G151" s="5"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" s="55"/>
+      <c r="B152" s="73"/>
+      <c r="C152" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I152" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B153" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G153" s="5"/>
+      <c r="H153" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="I153" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" s="55"/>
+      <c r="B154" s="73"/>
+      <c r="C154" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G154" s="7"/>
+      <c r="H154" s="71"/>
+      <c r="I154" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B155" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G155" s="5"/>
+      <c r="H155" s="66" t="s">
+        <v>445</v>
+      </c>
+      <c r="I155" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="55"/>
+      <c r="B156" s="73"/>
+      <c r="C156" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G156" s="7"/>
+      <c r="H156" s="68"/>
+      <c r="I156" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G157" s="12"/>
+      <c r="I157" s="29" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A158" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158" s="5"/>
+      <c r="I158" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" s="15" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A159" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G159" s="12"/>
+      <c r="I159" s="35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A160" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G160" s="5"/>
+      <c r="I160" s="30" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B161" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H161" s="66"/>
+      <c r="I161" s="38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="62"/>
+      <c r="B162" s="74"/>
+      <c r="C162" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D162" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H162" s="67"/>
+      <c r="I162" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="55"/>
+      <c r="B163" s="73"/>
+      <c r="C163" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D163" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H163" s="68"/>
+    </row>
+    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="H164" s="6"/>
+      <c r="I164" s="34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" s="62"/>
+      <c r="B165" s="74"/>
+      <c r="C165" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I165" s="34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="62"/>
+      <c r="B166" s="74"/>
+      <c r="C166" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="62"/>
+      <c r="B167" s="74"/>
+      <c r="C167" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="62"/>
+      <c r="B168" s="74"/>
+      <c r="C168" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="62"/>
+      <c r="B169" s="74"/>
+      <c r="C169" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A170" s="62"/>
+      <c r="B170" s="74"/>
+      <c r="C170" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="62"/>
+      <c r="B171" s="74"/>
+      <c r="C171" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" s="62"/>
+      <c r="B172" s="74"/>
+      <c r="C172" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A173" s="62"/>
+      <c r="B173" s="74"/>
+      <c r="C173" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A174" s="62"/>
+      <c r="B174" s="74"/>
+      <c r="C174" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A175" s="62"/>
+      <c r="B175" s="74"/>
+      <c r="C175" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A176" s="62"/>
+      <c r="B176" s="74"/>
+      <c r="C176" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="62"/>
+      <c r="B177" s="74"/>
+      <c r="C177" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178" s="62"/>
+      <c r="B178" s="74"/>
+      <c r="C178" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" s="55"/>
+      <c r="B179" s="73"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="8"/>
+    </row>
+    <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="B137" s="64" t="s">
+      <c r="B180" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F180" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G180" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H137" s="47" t="s">
-        <v>558</v>
-      </c>
-      <c r="I137" s="34" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="60"/>
-      <c r="B138" s="65"/>
-      <c r="C138" s="2" t="s">
+      <c r="H180" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="I180" s="34" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="62"/>
+      <c r="B181" s="63"/>
+      <c r="C181" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G181" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H138" s="52"/>
-      <c r="I138" s="46" t="s">
+      <c r="H181" s="69"/>
+      <c r="I181" s="46" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="60"/>
-      <c r="B139" s="65"/>
-      <c r="C139" s="2" t="s">
+    <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A182" s="62"/>
+      <c r="B182" s="63"/>
+      <c r="C182" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F182" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H139" s="52"/>
-      <c r="I139" s="7"/>
-    </row>
-    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="60"/>
-      <c r="B140" s="65"/>
-      <c r="C140" s="2" t="s">
+      <c r="H182" s="69"/>
+      <c r="I182" s="7"/>
+    </row>
+    <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" s="62"/>
+      <c r="B183" s="63"/>
+      <c r="C183" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G183" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H140" s="52"/>
-    </row>
-    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="60"/>
-      <c r="B141" s="65"/>
-      <c r="C141" s="2" t="s">
+      <c r="H183" s="69"/>
+    </row>
+    <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A184" s="62"/>
+      <c r="B184" s="63"/>
+      <c r="C184" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G184" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H141" s="52"/>
-    </row>
-    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="60"/>
-      <c r="B142" s="65"/>
-      <c r="C142" s="2" t="s">
+      <c r="H184" s="69"/>
+    </row>
+    <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A185" s="62"/>
+      <c r="B185" s="63"/>
+      <c r="C185" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G185" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="H142" s="52"/>
-    </row>
-    <row r="143" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="56"/>
-      <c r="B143" s="66"/>
-      <c r="C143" s="2" t="s">
+      <c r="H185" s="69"/>
+    </row>
+    <row r="186" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="55"/>
+      <c r="B186" s="57"/>
+      <c r="C186" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H143" s="48"/>
-    </row>
-    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="55" t="s">
+      <c r="H186" s="65"/>
+    </row>
+    <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A187" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B144" s="57" t="s">
+      <c r="B187" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C187" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D187" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="E187" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F187" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G144" s="5" t="s">
+      <c r="G187" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H144" s="49" t="s">
+      <c r="H187" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="I144" s="38" t="s">
+      <c r="I187" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="60"/>
-      <c r="B145" s="59"/>
-      <c r="C145" s="2" t="s">
+    <row r="188" spans="1:9" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="62"/>
+      <c r="B188" s="74"/>
+      <c r="C188" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F188" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G188" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H145" s="50"/>
-      <c r="I145" s="34" t="s">
+      <c r="H188" s="67"/>
+      <c r="I188" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="56"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="16" t="s">
+    <row r="189" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A189" s="55"/>
+      <c r="B189" s="73"/>
+      <c r="C189" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="51"/>
-    </row>
-    <row r="147" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A147" s="10" t="s">
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="68"/>
+    </row>
+    <row r="190" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A190" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B190" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C190" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D190" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E147" s="12" t="s">
+      <c r="E190" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F147" s="12" t="s">
+      <c r="F190" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12" t="s">
+      <c r="G190" s="12"/>
+      <c r="H190" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I147" s="25" t="s">
+      <c r="I190" s="25" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="55" t="s">
+    <row r="191" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B148" s="57" t="s">
+      <c r="B191" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C191" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D191" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E191" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F191" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G148" s="5" t="s">
+      <c r="G191" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="60"/>
-      <c r="B149" s="59"/>
-      <c r="C149" s="2" t="s">
+    <row r="192" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192" s="62"/>
+      <c r="B192" s="74"/>
+      <c r="C192" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F192" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I149" s="40"/>
-    </row>
-    <row r="150" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A150" s="60"/>
-      <c r="B150" s="59"/>
-      <c r="C150" s="2" t="s">
+      <c r="I192" s="40"/>
+    </row>
+    <row r="193" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A193" s="62"/>
+      <c r="B193" s="74"/>
+      <c r="C193" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G193" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="I150" s="41" t="s">
+      <c r="I193" s="41" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="60"/>
-      <c r="B151" s="59"/>
-      <c r="C151" s="2" t="s">
+    <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="62"/>
+      <c r="B194" s="74"/>
+      <c r="C194" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F194" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G194" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I151" s="40"/>
-    </row>
-    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="60"/>
-      <c r="B152" s="59"/>
-      <c r="C152" s="2" t="s">
+      <c r="I194" s="40"/>
+    </row>
+    <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="62"/>
+      <c r="B195" s="74"/>
+      <c r="C195" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F195" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G195" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="I152" s="40"/>
-    </row>
-    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="60"/>
-      <c r="B153" s="59"/>
-      <c r="C153" s="2" t="s">
+      <c r="I195" s="40"/>
+    </row>
+    <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A196" s="62"/>
+      <c r="B196" s="74"/>
+      <c r="C196" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F196" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G196" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I153" s="40"/>
-    </row>
-    <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="60"/>
-      <c r="B154" s="59"/>
-      <c r="C154" s="2" t="s">
+      <c r="I196" s="40"/>
+    </row>
+    <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A197" s="62"/>
+      <c r="B197" s="74"/>
+      <c r="C197" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F197" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G197" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="I154" s="40"/>
-    </row>
-    <row r="155" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A155" s="60"/>
-      <c r="B155" s="59"/>
-      <c r="C155" s="2" t="s">
+      <c r="I197" s="40"/>
+    </row>
+    <row r="198" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A198" s="62"/>
+      <c r="B198" s="74"/>
+      <c r="C198" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F198" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G198" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="60"/>
-      <c r="B156" s="59"/>
-      <c r="C156" s="2" t="s">
+    <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A199" s="62"/>
+      <c r="B199" s="74"/>
+      <c r="C199" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F199" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G199" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A157" s="60"/>
-      <c r="B157" s="59"/>
-      <c r="C157" s="2" t="s">
+    <row r="200" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A200" s="62"/>
+      <c r="B200" s="74"/>
+      <c r="C200" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F200" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G200" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="60"/>
-      <c r="B158" s="59"/>
-      <c r="C158" s="2" t="s">
+    <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="62"/>
+      <c r="B201" s="74"/>
+      <c r="C201" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F201" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A159" s="60"/>
-      <c r="B159" s="59"/>
-      <c r="D159" s="1" t="s">
+    <row r="202" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A202" s="62"/>
+      <c r="B202" s="74"/>
+      <c r="D202" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F202" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G202" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="60"/>
-      <c r="B160" s="59"/>
-      <c r="E160" s="1" t="s">
+    <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A203" s="62"/>
+      <c r="B203" s="74"/>
+      <c r="E203" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F203" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G203" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="60"/>
-      <c r="B161" s="59"/>
-      <c r="E161" s="1" t="s">
+    <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204" s="62"/>
+      <c r="B204" s="74"/>
+      <c r="E204" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F204" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G204" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="60"/>
-      <c r="B162" s="59"/>
-      <c r="F162" s="1" t="s">
+    <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A205" s="62"/>
+      <c r="B205" s="74"/>
+      <c r="F205" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="60"/>
-      <c r="B163" s="59"/>
-      <c r="F163" s="1" t="s">
+    <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A206" s="62"/>
+      <c r="B206" s="74"/>
+      <c r="F206" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="56"/>
-      <c r="B164" s="58"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="7"/>
-      <c r="F164" s="8" t="s">
+    <row r="207" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="55"/>
+      <c r="B207" s="73"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="7"/>
+      <c r="F207" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="G164" s="7"/>
-    </row>
-    <row r="165" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="55" t="s">
+      <c r="G207" s="7"/>
+    </row>
+    <row r="208" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B165" s="64" t="s">
+      <c r="B208" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C208" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D208" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E208" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F208" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G165" s="5" t="s">
+      <c r="G208" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H165" s="73"/>
-      <c r="I165" s="38" t="s">
+      <c r="H208" s="78"/>
+      <c r="I208" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="60"/>
-      <c r="B166" s="65"/>
-      <c r="C166" s="2" t="s">
+    <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A209" s="62"/>
+      <c r="B209" s="63"/>
+      <c r="C209" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F209" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="G209" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H166" s="74"/>
-      <c r="I166" s="34" t="s">
+      <c r="H209" s="79"/>
+      <c r="I209" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="60"/>
-      <c r="B167" s="65"/>
-      <c r="C167" s="2" t="s">
+    <row r="210" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A210" s="62"/>
+      <c r="B210" s="63"/>
+      <c r="C210" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F210" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G210" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H167" s="74"/>
-      <c r="I167" s="34" t="s">
+      <c r="H210" s="79"/>
+      <c r="I210" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="60"/>
-      <c r="B168" s="65"/>
-      <c r="C168" s="2" t="s">
+    <row r="211" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A211" s="62"/>
+      <c r="B211" s="63"/>
+      <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F211" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G211" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H168" s="74"/>
-      <c r="I168" s="34" t="s">
+      <c r="H211" s="79"/>
+      <c r="I211" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="60"/>
-      <c r="B169" s="65"/>
-      <c r="C169" s="2" t="s">
+    <row r="212" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A212" s="62"/>
+      <c r="B212" s="63"/>
+      <c r="C212" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H169" s="74"/>
-      <c r="I169" s="34" t="s">
+      <c r="H212" s="79"/>
+      <c r="I212" s="34" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="C170" s="2" t="s">
+    <row r="213" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F213" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G213" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H170" s="75" t="s">
-        <v>576</v>
-      </c>
-      <c r="I170" s="25"/>
+      <c r="H213" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I213" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="H165:H169"/>
+  <mergeCells count="85">
+    <mergeCell ref="H208:H212"/>
     <mergeCell ref="H41:H44"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
@@ -5971,24 +6729,30 @@
     <mergeCell ref="F46:F47"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="H46:H47"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="A148:A164"/>
-    <mergeCell ref="B148:B164"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="A121:A136"/>
-    <mergeCell ref="B121:B136"/>
-    <mergeCell ref="A137:A143"/>
-    <mergeCell ref="B137:B143"/>
-    <mergeCell ref="A87:A99"/>
-    <mergeCell ref="B87:B99"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="B208:B212"/>
+    <mergeCell ref="A191:A207"/>
+    <mergeCell ref="B191:B207"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="A164:A179"/>
+    <mergeCell ref="B164:B179"/>
+    <mergeCell ref="A180:A186"/>
+    <mergeCell ref="B180:B186"/>
+    <mergeCell ref="A101:A113"/>
+    <mergeCell ref="B101:B113"/>
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="A70:A86"/>
     <mergeCell ref="B70:B86"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B63"/>
@@ -5997,27 +6761,49 @@
     <mergeCell ref="B3:B38"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="H161:H163"/>
+    <mergeCell ref="H155:H156"/>
     <mergeCell ref="H70:H86"/>
-    <mergeCell ref="H144:H146"/>
-    <mergeCell ref="H137:H143"/>
-    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="H187:H189"/>
+    <mergeCell ref="H180:H186"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A116:A124"/>
+    <mergeCell ref="B116:B124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6285,16 +7071,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA35EFD-202A-4224-80EE-635D00C9954C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="d391a701-1e72-4a9c-8e27-32ae852ac85b"/>
     <ds:schemaRef ds:uri="748de206-7911-403a-93a2-ff3feb5ad88e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/codebook_combined.xlsx
+++ b/codebook_combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill.sharepoint.com/sites/PROSPERED_Group/Shared Documents/General/CIHR RSBY India/data/Linking code and CSVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1740" documentId="8_{54C3D132-FD60-E343-8A70-19C775275FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A99FE2C-D21B-A149-99E3-28081AA24F20}"/>
+  <xr:revisionPtr revIDLastSave="1557" documentId="8_{54C3D132-FD60-E343-8A70-19C775275FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A121BB37-D6F6-B44F-9F2B-5CC25D9FF23F}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="500" windowWidth="35640" windowHeight="19380" xr2:uid="{73DF8F02-1432-4841-ABC8-0F245F1B77ED}"/>
+    <workbookView xWindow="4280" yWindow="500" windowWidth="35640" windowHeight="19380" xr2:uid="{73DF8F02-1432-4841-ABC8-0F245F1B77ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="577">
   <si>
     <t>Variable</t>
   </si>
@@ -1696,6 +1696,15 @@
     <t xml:space="preserve">           4   protected-dugwell</t>
   </si>
   <si>
+    <t xml:space="preserve">           5   unprotected-dug-well</t>
+  </si>
+  <si>
+    <t>6 tanker/truck/cart</t>
+  </si>
+  <si>
+    <t>7other source</t>
+  </si>
+  <si>
     <t>8 service latrine /dry toilet</t>
   </si>
   <si>
@@ -1757,177 +1766,6 @@
   </si>
   <si>
     <t>for values and labels see districts_harmonized.csv in district harmonization folder</t>
-  </si>
-  <si>
-    <t>water_treat</t>
-  </si>
-  <si>
-    <t>Do you treat your water in any way to make it safe to drink?</t>
-  </si>
-  <si>
-    <t>0 NO</t>
-  </si>
-  <si>
-    <t>1 YES</t>
-  </si>
-  <si>
-    <t>type_water_filter</t>
-  </si>
-  <si>
-    <t>What is usually done to make water safer to drink?</t>
-  </si>
-  <si>
-    <t>1 Boil water</t>
-  </si>
-  <si>
-    <t>2 Bleach the water</t>
-  </si>
-  <si>
-    <t>3 Use alum</t>
-  </si>
-  <si>
-    <t>4 Strain water through a cloth</t>
-  </si>
-  <si>
-    <t>5 Use water filter (ceramic, sand, composite)</t>
-  </si>
-  <si>
-    <t>6 Use an electronic water purifier</t>
-  </si>
-  <si>
-    <t>7 Let it stand and settle</t>
-  </si>
-  <si>
-    <t>8 Other method</t>
-  </si>
-  <si>
-    <t>toilet_share</t>
-  </si>
-  <si>
-    <t>Is the toilet shared with other households?</t>
-  </si>
-  <si>
-    <t>0 No</t>
-  </si>
-  <si>
-    <t>cooking_fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What type of fuel does your household mainly use for cooking? </t>
-  </si>
-  <si>
-    <t>1 Electricity</t>
-  </si>
-  <si>
-    <t>2 LPG/ Natural Gas</t>
-  </si>
-  <si>
-    <t>3 Biogas</t>
-  </si>
-  <si>
-    <t>4 Kerosene</t>
-  </si>
-  <si>
-    <t>5 Coal / Ignite / Charcoal</t>
-  </si>
-  <si>
-    <t>6 Wood</t>
-  </si>
-  <si>
-    <t>7 Straw / Shrubs / Grass / Agricultural Crop Waste</t>
-  </si>
-  <si>
-    <t>8 Dung Cakes</t>
-  </si>
-  <si>
-    <t>96 Other</t>
-  </si>
-  <si>
-    <t>radio</t>
-  </si>
-  <si>
-    <t>Does the household own a radio?</t>
-  </si>
-  <si>
-    <t>1 Yes</t>
-  </si>
-  <si>
-    <t>computer</t>
-  </si>
-  <si>
-    <t>Does the household own a computer?</t>
-  </si>
-  <si>
-    <t>fridge</t>
-  </si>
-  <si>
-    <t>Does the household own a refrigerator?</t>
-  </si>
-  <si>
-    <t>bike</t>
-  </si>
-  <si>
-    <t>Does the household own a bicycle</t>
-  </si>
-  <si>
-    <t>motorcycle</t>
-  </si>
-  <si>
-    <t>Does the household own a motorcycle or scooter?</t>
-  </si>
-  <si>
-    <t>animal_cart</t>
-  </si>
-  <si>
-    <t>Does the household own a cart drawn by animals?</t>
-  </si>
-  <si>
-    <t>Does the household own a car?</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>own_agric_land</t>
-  </si>
-  <si>
-    <t>Does the household own land that can be used for agriculture or irrigation?</t>
-  </si>
-  <si>
-    <t>tv</t>
-  </si>
-  <si>
-    <t>Does the household own a television?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92 community or plant </t>
-  </si>
-  <si>
-    <t>improved_water</t>
-  </si>
-  <si>
-    <t>Is water source an improved according to JMP WASH standards?</t>
-  </si>
-  <si>
-    <t>0 No facilities (surface water)</t>
-  </si>
-  <si>
-    <t>1 Unimproved Facilities (Unprotected wells and springs)</t>
-  </si>
-  <si>
-    <t>2 Improved Facilities (i.e. piped, protected well, delivered water)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           5   tanker/truck/bard</t>
-  </si>
-  <si>
-    <t>6 unprotected-dug-well</t>
-  </si>
-  <si>
-    <t>7 surface water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 other </t>
   </si>
 </sst>
 </file>
@@ -2137,7 +1975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2257,115 +2095,92 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2685,13 +2500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4750E3-F7BA-154D-B91A-8F67FE959370}">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I78" sqref="I78"/>
+      <selection pane="bottomRight" activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2760,10 +2575,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2785,8 +2600,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
-      <c r="B4" s="74"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
@@ -2807,8 +2622,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="74"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="2" t="s">
         <v>66</v>
       </c>
@@ -2829,8 +2644,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
@@ -2851,8 +2666,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="76"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
@@ -2873,8 +2688,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="76"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
@@ -2895,8 +2710,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
@@ -2917,8 +2732,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="2" t="s">
         <v>71</v>
       </c>
@@ -2939,8 +2754,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="76"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="2" t="s">
         <v>72</v>
       </c>
@@ -2961,8 +2776,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="76"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2980,8 +2795,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="76"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
@@ -2999,8 +2814,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="76"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="2" t="s">
         <v>75</v>
       </c>
@@ -3018,8 +2833,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="76"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="2" t="s">
         <v>76</v>
       </c>
@@ -3037,8 +2852,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="76"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="2" t="s">
         <v>77</v>
       </c>
@@ -3056,8 +2871,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="76"/>
-      <c r="B17" s="74"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="2" t="s">
         <v>78</v>
       </c>
@@ -3075,8 +2890,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="76"/>
-      <c r="B18" s="74"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="2" t="s">
         <v>79</v>
       </c>
@@ -3094,8 +2909,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="76"/>
-      <c r="B19" s="74"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
@@ -3113,8 +2928,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="2" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +2947,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="76"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="2" t="s">
         <v>82</v>
       </c>
@@ -3151,8 +2966,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="76"/>
-      <c r="B22" s="74"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="2" t="s">
         <v>83</v>
       </c>
@@ -3170,8 +2985,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="76"/>
-      <c r="B23" s="74"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="2" t="s">
         <v>84</v>
       </c>
@@ -3189,8 +3004,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="76"/>
-      <c r="B24" s="74"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="2" t="s">
         <v>85</v>
       </c>
@@ -3205,8 +3020,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="76"/>
-      <c r="B25" s="74"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="2" t="s">
         <v>86</v>
       </c>
@@ -3221,8 +3036,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="76"/>
-      <c r="B26" s="74"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="2" t="s">
         <v>87</v>
       </c>
@@ -3237,8 +3052,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="76"/>
-      <c r="B27" s="74"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="2" t="s">
         <v>88</v>
       </c>
@@ -3253,8 +3068,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="76"/>
-      <c r="B28" s="74"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="2" t="s">
         <v>89</v>
       </c>
@@ -3269,8 +3084,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="76"/>
-      <c r="B29" s="74"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
@@ -3285,8 +3100,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="76"/>
-      <c r="B30" s="74"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="2" t="s">
         <v>91</v>
       </c>
@@ -3301,8 +3116,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="76"/>
-      <c r="B31" s="74"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="2" t="s">
         <v>92</v>
       </c>
@@ -3317,8 +3132,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="76"/>
-      <c r="B32" s="74"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="2" t="s">
         <v>93</v>
       </c>
@@ -3333,8 +3148,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
-      <c r="B33" s="74"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="2" t="s">
         <v>94</v>
       </c>
@@ -3349,8 +3164,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="76"/>
-      <c r="B34" s="74"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="2" t="s">
         <v>95</v>
       </c>
@@ -3365,8 +3180,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="76"/>
-      <c r="B35" s="74"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="2" t="s">
         <v>96</v>
       </c>
@@ -3381,8 +3196,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="76"/>
-      <c r="B36" s="74"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="2" t="s">
         <v>97</v>
       </c>
@@ -3397,8 +3212,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="76"/>
-      <c r="B37" s="74"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="59"/>
       <c r="E37" s="1" t="s">
         <v>325</v>
       </c>
@@ -3410,8 +3225,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="77"/>
-      <c r="B38" s="73"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="16"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
@@ -3430,25 +3245,25 @@
         <v>16</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -3481,10 +3296,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="55" t="s">
         <v>534</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="64" t="s">
         <v>535</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -3502,14 +3317,14 @@
       <c r="G41" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="H41" s="80"/>
+      <c r="H41" s="67"/>
       <c r="I41" s="38" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="1" t="s">
         <v>544</v>
       </c>
@@ -3525,14 +3340,14 @@
       <c r="G42" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H42" s="81"/>
+      <c r="H42" s="68"/>
       <c r="I42" s="34" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="1" t="s">
         <v>545</v>
       </c>
@@ -3548,14 +3363,14 @@
       <c r="G43" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="H43" s="81"/>
+      <c r="H43" s="68"/>
       <c r="I43" s="34" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
-      <c r="B44" s="57"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="7" t="s">
         <v>546</v>
       </c>
@@ -3571,7 +3386,7 @@
       <c r="G44" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H44" s="82"/>
+      <c r="H44" s="69"/>
       <c r="I44" s="39" t="s">
         <v>546</v>
       </c>
@@ -3594,31 +3409,31 @@
       </c>
     </row>
     <row r="46" spans="1:9" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="55" t="s">
         <v>540</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
       <c r="I46" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
       <c r="I47" s="31" t="s">
         <v>60</v>
       </c>
@@ -3651,10 +3466,10 @@
     </row>
     <row r="49" spans="1:9" s="15" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>22</v>
@@ -3672,13 +3487,13 @@
         <v>22</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="I49" s="31"/>
     </row>
     <row r="50" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>19</v>
@@ -3729,10 +3544,10 @@
       </c>
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="57" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3755,8 +3570,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="65"/>
-      <c r="B53" s="73"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="16" t="s">
         <v>26</v>
       </c>
@@ -3777,10 +3592,10 @@
       </c>
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="57" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -3803,8 +3618,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
-      <c r="B55" s="74"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="2" t="s">
         <v>98</v>
       </c>
@@ -3825,8 +3640,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
-      <c r="B56" s="74"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="2" t="s">
         <v>99</v>
       </c>
@@ -3847,8 +3662,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
-      <c r="B57" s="74"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="2" t="s">
         <v>100</v>
       </c>
@@ -3869,8 +3684,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
-      <c r="B58" s="74"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="2" t="s">
         <v>101</v>
       </c>
@@ -3891,8 +3706,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
-      <c r="B59" s="74"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="2" t="s">
         <v>102</v>
       </c>
@@ -3913,8 +3728,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="62"/>
-      <c r="B60" s="74"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="2" t="s">
         <v>103</v>
       </c>
@@ -3935,8 +3750,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="62"/>
-      <c r="B61" s="74"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="2" t="s">
         <v>104</v>
       </c>
@@ -3957,8 +3772,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="62"/>
-      <c r="B62" s="74"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="2" t="s">
         <v>105</v>
       </c>
@@ -3976,8 +3791,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="55"/>
-      <c r="B63" s="73"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="58"/>
       <c r="C63" s="16" t="s">
         <v>106</v>
       </c>
@@ -3993,10 +3808,10 @@
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="9" t="s">
@@ -4022,8 +3837,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="62"/>
-      <c r="B65" s="74"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="2" t="s">
         <v>108</v>
       </c>
@@ -4044,8 +3859,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
-      <c r="B66" s="74"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="2" t="s">
         <v>107</v>
       </c>
@@ -4066,8 +3881,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="62"/>
-      <c r="B67" s="74"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="2" t="s">
         <v>109</v>
       </c>
@@ -4082,8 +3897,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="55"/>
-      <c r="B68" s="73"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="16"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
@@ -4096,38 +3911,38 @@
     </row>
     <row r="69" spans="1:9" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>568</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>568</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>568</v>
-      </c>
-      <c r="F69" s="48" t="s">
-        <v>568</v>
-      </c>
-      <c r="G69" s="48" t="s">
-        <v>568</v>
+        <v>570</v>
+      </c>
+      <c r="C69" s="72" t="s">
+        <v>571</v>
+      </c>
+      <c r="D69" s="72" t="s">
+        <v>571</v>
+      </c>
+      <c r="E69" s="72" t="s">
+        <v>571</v>
+      </c>
+      <c r="F69" s="72" t="s">
+        <v>571</v>
+      </c>
+      <c r="G69" s="72" t="s">
+        <v>571</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="I69" s="45" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -4145,7 +3960,7 @@
       <c r="G70" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H70" s="66" t="s">
+      <c r="H70" s="49" t="s">
         <v>236</v>
       </c>
       <c r="I70" s="36" t="s">
@@ -4153,8 +3968,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="62"/>
-      <c r="B71" s="74"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="2" t="s">
         <v>157</v>
       </c>
@@ -4170,14 +3985,14 @@
       <c r="G71" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H71" s="67"/>
+      <c r="H71" s="50"/>
       <c r="I71" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="62"/>
-      <c r="B72" s="74"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="59"/>
       <c r="C72" s="2" t="s">
         <v>158</v>
       </c>
@@ -4193,14 +4008,14 @@
       <c r="G72" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H72" s="67"/>
+      <c r="H72" s="50"/>
       <c r="I72" s="37" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="62"/>
-      <c r="B73" s="74"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="59"/>
       <c r="C73" s="2" t="s">
         <v>159</v>
       </c>
@@ -4216,14 +4031,14 @@
       <c r="G73" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H73" s="67"/>
+      <c r="H73" s="50"/>
       <c r="I73" s="37" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="62"/>
-      <c r="B74" s="74"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="2" t="s">
         <v>160</v>
       </c>
@@ -4239,14 +4054,14 @@
       <c r="G74" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H74" s="67"/>
+      <c r="H74" s="50"/>
       <c r="I74" s="37" t="s">
-        <v>627</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="62"/>
-      <c r="B75" s="74"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="59"/>
       <c r="C75" s="2" t="s">
         <v>161</v>
       </c>
@@ -4262,14 +4077,14 @@
       <c r="G75" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H75" s="67"/>
+      <c r="H75" s="50"/>
       <c r="I75" s="37" t="s">
-        <v>628</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="62"/>
-      <c r="B76" s="74"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="2" t="s">
         <v>162</v>
       </c>
@@ -4285,14 +4100,14 @@
       <c r="G76" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="H76" s="67"/>
+      <c r="H76" s="50"/>
       <c r="I76" s="34" t="s">
-        <v>629</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="62"/>
-      <c r="B77" s="74"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="59"/>
       <c r="C77" s="2" t="s">
         <v>163</v>
       </c>
@@ -4308,14 +4123,11 @@
       <c r="G77" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="H77" s="67"/>
-      <c r="I77" s="37" t="s">
-        <v>630</v>
-      </c>
+      <c r="H77" s="50"/>
     </row>
     <row r="78" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="62"/>
-      <c r="B78" s="74"/>
+      <c r="A78" s="60"/>
+      <c r="B78" s="59"/>
       <c r="C78" s="2" t="s">
         <v>164</v>
       </c>
@@ -4331,11 +4143,11 @@
       <c r="G78" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H78" s="67"/>
+      <c r="H78" s="50"/>
     </row>
     <row r="79" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="62"/>
-      <c r="B79" s="74"/>
+      <c r="A79" s="60"/>
+      <c r="B79" s="59"/>
       <c r="C79" s="2" t="s">
         <v>165</v>
       </c>
@@ -4348,12 +4160,12 @@
       <c r="F79" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H79" s="67"/>
+      <c r="H79" s="50"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="62"/>
-      <c r="B80" s="74"/>
+      <c r="A80" s="60"/>
+      <c r="B80" s="59"/>
       <c r="C80" s="2" t="s">
         <v>166</v>
       </c>
@@ -4366,12 +4178,12 @@
       <c r="F80" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H80" s="67"/>
+      <c r="H80" s="50"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="62"/>
-      <c r="B81" s="74"/>
+      <c r="A81" s="60"/>
+      <c r="B81" s="59"/>
       <c r="C81" s="2" t="s">
         <v>167</v>
       </c>
@@ -4384,11 +4196,11 @@
       <c r="F81" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H81" s="67"/>
+      <c r="H81" s="50"/>
     </row>
     <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="62"/>
-      <c r="B82" s="74"/>
+      <c r="A82" s="60"/>
+      <c r="B82" s="59"/>
       <c r="C82" s="2" t="s">
         <v>168</v>
       </c>
@@ -4401,11 +4213,11 @@
       <c r="F82" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H82" s="67"/>
+      <c r="H82" s="50"/>
     </row>
     <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="62"/>
-      <c r="B83" s="74"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="59"/>
       <c r="C83" s="2" t="s">
         <v>155</v>
       </c>
@@ -4418,2308 +4230,1738 @@
       <c r="F83" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H83" s="67"/>
+      <c r="H83" s="50"/>
     </row>
     <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="62"/>
-      <c r="B84" s="74"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="59"/>
       <c r="E84" s="3" t="s">
         <v>250</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="H84" s="67"/>
+        <v>391</v>
+      </c>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="62"/>
-      <c r="B85" s="74"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="59"/>
       <c r="E85" s="1" t="s">
         <v>251</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H85" s="67"/>
+      <c r="H85" s="50"/>
     </row>
     <row r="86" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
-      <c r="B86" s="73"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="16"/>
       <c r="D86" s="7"/>
       <c r="F86" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G86" s="7"/>
-      <c r="H86" s="68"/>
-    </row>
-    <row r="87" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="54" t="s">
-        <v>622</v>
-      </c>
-      <c r="B87" s="56" t="s">
-        <v>623</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="50"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="53" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="62"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="50"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="53" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="55"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="31" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="54" t="s">
-        <v>574</v>
-      </c>
-      <c r="B90" s="56" t="s">
-        <v>575</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="53" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="55"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="31" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="54" t="s">
-        <v>578</v>
-      </c>
-      <c r="B92" s="56" t="s">
-        <v>579</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="53" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="62"/>
-      <c r="B93" s="63"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="53" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="62"/>
-      <c r="B94" s="63"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="53" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="62"/>
-      <c r="B95" s="63"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="50"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="53" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="62"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="50"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="53" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="62"/>
-      <c r="B97" s="63"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="50"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="53" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="62"/>
-      <c r="B98" s="63"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="50"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="53" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="62"/>
-      <c r="B99" s="63"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="50"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="53" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="55"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="31"/>
-    </row>
-    <row r="101" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="54" t="s">
-        <v>570</v>
-      </c>
-      <c r="B101" s="72" t="s">
+      <c r="H86" s="51"/>
+    </row>
+    <row r="87" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="55" t="s">
+        <v>573</v>
+      </c>
+      <c r="B87" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F87" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="G87" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="I101" s="38" t="s">
+      <c r="I87" s="38" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="62"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="2" t="s">
+    <row r="88" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="60"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I102" s="34" t="s">
+      <c r="I88" s="34" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="62"/>
-      <c r="B103" s="74"/>
+    <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="60"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I89" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="60"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I90" s="34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="60"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I91" s="34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="60"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I92" s="34" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="60"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I93" s="34" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="60"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I94" s="34" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="60"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I95" s="34" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="60"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I96" s="34" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="60"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="60"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="56"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="I100" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="56"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I101" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="56"/>
+      <c r="B103" s="58"/>
       <c r="C103" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="I103" s="34" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="62"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I104" s="34" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="62"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>439</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="I104" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J104" s="6"/>
+    </row>
+    <row r="105" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="56"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="48"/>
       <c r="I105" s="34" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="62"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="I106" s="34" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="62"/>
-      <c r="B107" s="74"/>
+        <v>60</v>
+      </c>
+      <c r="J105" s="8"/>
+    </row>
+    <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B106" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J106" s="6"/>
+    </row>
+    <row r="107" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="56"/>
+      <c r="B107" s="58"/>
       <c r="C107" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>258</v>
+        <v>60</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>441</v>
+        <v>60</v>
       </c>
       <c r="I107" s="34" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="62"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="I108" s="34" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="62"/>
-      <c r="B109" s="74"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="56"/>
+      <c r="B109" s="58"/>
       <c r="C109" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>443</v>
+        <v>60</v>
       </c>
       <c r="I109" s="34" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="62"/>
-      <c r="B110" s="74"/>
-      <c r="C110" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="I110" s="34" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="62"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="62"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G110" s="5"/>
+      <c r="H110" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="I110" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="56"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B112" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G112" s="5"/>
+      <c r="H112" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="I112" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="56"/>
+      <c r="B113" s="58"/>
+      <c r="C113" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G114" s="12"/>
+      <c r="I114" s="29" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="5"/>
+      <c r="I115" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="15" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G116" s="12"/>
+      <c r="I116" s="35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A117" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G117" s="5"/>
+      <c r="I117" s="30" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H118" s="49"/>
+      <c r="I118" s="38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="60"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H119" s="50"/>
+      <c r="I119" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="56"/>
+      <c r="B120" s="58"/>
+      <c r="C120" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H120" s="51"/>
+    </row>
+    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="H121" s="6"/>
+      <c r="I121" s="34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="60"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I122" s="34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="60"/>
+      <c r="B123" s="59"/>
+      <c r="C123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="60"/>
+      <c r="B124" s="59"/>
+      <c r="C124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="60"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="60"/>
+      <c r="B126" s="59"/>
+      <c r="C126" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="60"/>
+      <c r="B127" s="59"/>
+      <c r="C127" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="60"/>
+      <c r="B128" s="59"/>
+      <c r="C128" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="60"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A130" s="60"/>
+      <c r="B130" s="59"/>
+      <c r="C130" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A131" s="60"/>
+      <c r="B131" s="59"/>
+      <c r="C131" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" s="60"/>
+      <c r="B132" s="59"/>
+      <c r="C132" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="60"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="60"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="60"/>
+      <c r="B135" s="59"/>
+      <c r="C135" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D135" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="56"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="55"/>
-      <c r="B113" s="73"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G113" s="7"/>
-    </row>
-    <row r="114" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="58" t="s">
-        <v>588</v>
-      </c>
-      <c r="B114" s="60" t="s">
-        <v>589</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="50"/>
-      <c r="G114" s="50"/>
-      <c r="I114" s="53" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="59"/>
-      <c r="B115" s="61"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="I115" s="31" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="54" t="s">
-        <v>591</v>
-      </c>
-      <c r="B116" s="56" t="s">
-        <v>592</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="50"/>
-      <c r="F116" s="50"/>
-      <c r="G116" s="50"/>
-      <c r="I116" s="53" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="62"/>
-      <c r="B117" s="63"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="50"/>
-      <c r="E117" s="50"/>
-      <c r="F117" s="50"/>
-      <c r="G117" s="50"/>
-      <c r="I117" s="53" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="62"/>
-      <c r="B118" s="63"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
-      <c r="I118" s="53" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="62"/>
-      <c r="B119" s="63"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="50"/>
-      <c r="I119" s="53" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="62"/>
-      <c r="B120" s="63"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="50"/>
-      <c r="E120" s="50"/>
-      <c r="F120" s="50"/>
-      <c r="G120" s="50"/>
-      <c r="I120" s="53" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="62"/>
-      <c r="B121" s="63"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="50"/>
-      <c r="E121" s="50"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
-      <c r="I121" s="53" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="62"/>
-      <c r="B122" s="63"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="50"/>
-      <c r="E122" s="50"/>
-      <c r="F122" s="50"/>
-      <c r="G122" s="50"/>
-      <c r="I122" s="53" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="62"/>
-      <c r="B123" s="63"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="50"/>
-      <c r="E123" s="50"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
-      <c r="I123" s="53" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="55"/>
-      <c r="B124" s="57"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="I124" s="31" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="54" t="s">
-        <v>602</v>
-      </c>
-      <c r="B125" s="56" t="s">
-        <v>603</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="50"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
-      <c r="I125" s="53" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="55"/>
-      <c r="B126" s="57"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="I126" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="54" t="s">
-        <v>605</v>
-      </c>
-      <c r="B127" s="56" t="s">
-        <v>606</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="50"/>
-      <c r="E127" s="50"/>
-      <c r="F127" s="50"/>
-      <c r="G127" s="50"/>
-      <c r="I127" s="53" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="55"/>
-      <c r="B128" s="57"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="I128" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="54" t="s">
-        <v>607</v>
-      </c>
-      <c r="B129" s="56" t="s">
-        <v>608</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="50"/>
-      <c r="E129" s="50"/>
-      <c r="F129" s="50"/>
-      <c r="G129" s="50"/>
-      <c r="I129" s="53" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="55"/>
-      <c r="B130" s="57"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="I130" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="54" t="s">
-        <v>609</v>
-      </c>
-      <c r="B131" s="56" t="s">
-        <v>610</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="50"/>
-      <c r="E131" s="50"/>
-      <c r="F131" s="50"/>
-      <c r="G131" s="50"/>
-      <c r="I131" s="53" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="55"/>
-      <c r="B132" s="57"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="I132" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="54" t="s">
-        <v>611</v>
-      </c>
-      <c r="B133" s="56" t="s">
-        <v>612</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="50"/>
-      <c r="E133" s="50"/>
-      <c r="F133" s="50"/>
-      <c r="G133" s="50"/>
-      <c r="I133" s="53" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="55"/>
-      <c r="B134" s="57"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="I134" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="54" t="s">
-        <v>613</v>
-      </c>
-      <c r="B135" s="56" t="s">
-        <v>614</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="50"/>
-      <c r="F135" s="50"/>
-      <c r="G135" s="50"/>
-      <c r="I135" s="53" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="55"/>
-      <c r="B136" s="57"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
-      <c r="I136" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="54" t="s">
-        <v>616</v>
-      </c>
-      <c r="B137" s="56" t="s">
-        <v>615</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="50"/>
-      <c r="E137" s="50"/>
-      <c r="F137" s="50"/>
-      <c r="G137" s="50"/>
-      <c r="I137" s="53" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="55"/>
-      <c r="B138" s="57"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="I138" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="54" t="s">
-        <v>617</v>
-      </c>
-      <c r="B139" s="56" t="s">
-        <v>618</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="50"/>
-      <c r="E139" s="50"/>
-      <c r="F139" s="50"/>
-      <c r="G139" s="50"/>
-      <c r="I139" s="53" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="55"/>
-      <c r="B140" s="57"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="I140" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="54" t="s">
-        <v>619</v>
-      </c>
-      <c r="B141" s="56" t="s">
-        <v>620</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="50"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="50"/>
-      <c r="G141" s="50"/>
-      <c r="I141" s="53" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="55"/>
-      <c r="B142" s="57"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="I142" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B143" s="72" t="s">
-        <v>220</v>
-      </c>
-      <c r="C143" s="9" t="s">
+      <c r="H136" s="8"/>
+    </row>
+    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="55" t="s">
+        <v>398</v>
+      </c>
+      <c r="B137" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H137" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="I137" s="34" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="60"/>
+      <c r="B138" s="65"/>
+      <c r="C138" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H138" s="52"/>
+      <c r="I138" s="46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="60"/>
+      <c r="B139" s="65"/>
+      <c r="C139" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H139" s="52"/>
+      <c r="I139" s="7"/>
+    </row>
+    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="60"/>
+      <c r="B140" s="65"/>
+      <c r="C140" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H140" s="52"/>
+    </row>
+    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="60"/>
+      <c r="B141" s="65"/>
+      <c r="C141" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H141" s="52"/>
+    </row>
+    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="60"/>
+      <c r="B142" s="65"/>
+      <c r="C142" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H142" s="52"/>
+    </row>
+    <row r="143" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="56"/>
+      <c r="B143" s="66"/>
+      <c r="C143" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H143" s="48"/>
+    </row>
+    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C144" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D144" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E143" s="5" t="s">
+      <c r="E144" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F144" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G143" s="5"/>
-      <c r="I143" s="38" t="s">
+      <c r="G144" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H144" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="I144" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="55"/>
-      <c r="B144" s="73"/>
-      <c r="C144" s="2" t="s">
+    <row r="145" spans="1:9" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="60"/>
+      <c r="B145" s="59"/>
+      <c r="C145" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F145" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I144" s="34" t="s">
+      <c r="G145" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H145" s="50"/>
+      <c r="I145" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B145" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G145" s="5"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-    </row>
-    <row r="146" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="55"/>
-      <c r="B146" s="73"/>
-      <c r="C146" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B147" s="72" t="s">
-        <v>221</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G147" s="5"/>
-      <c r="H147" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="I147" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="J147" s="6"/>
-    </row>
-    <row r="148" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="55"/>
-      <c r="B148" s="73"/>
-      <c r="C148" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G148" s="7"/>
-      <c r="H148" s="65"/>
-      <c r="I148" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="J148" s="8"/>
-    </row>
-    <row r="149" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B149" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G149" s="5"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="J149" s="6"/>
-    </row>
-    <row r="150" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="55"/>
-      <c r="B150" s="73"/>
+    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="56"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="51"/>
+    </row>
+    <row r="147" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A147" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I147" s="25" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" s="60"/>
+      <c r="B149" s="59"/>
+      <c r="C149" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I149" s="40"/>
+    </row>
+    <row r="150" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A150" s="60"/>
+      <c r="B150" s="59"/>
       <c r="C150" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I150" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B151" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G151" s="5"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="55"/>
-      <c r="B152" s="73"/>
+        <v>279</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I150" s="41" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" s="60"/>
+      <c r="B151" s="59"/>
+      <c r="C151" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I151" s="40"/>
+    </row>
+    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" s="60"/>
+      <c r="B152" s="59"/>
       <c r="C152" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I152" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B153" s="72" t="s">
-        <v>225</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G153" s="5"/>
-      <c r="H153" s="70" t="s">
-        <v>494</v>
-      </c>
-      <c r="I153" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="55"/>
-      <c r="B154" s="73"/>
-      <c r="C154" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G154" s="7"/>
-      <c r="H154" s="71"/>
-      <c r="I154" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B155" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G155" s="5"/>
-      <c r="H155" s="66" t="s">
-        <v>445</v>
-      </c>
-      <c r="I155" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="55"/>
-      <c r="B156" s="73"/>
-      <c r="C156" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G156" s="7"/>
-      <c r="H156" s="68"/>
-      <c r="I156" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F157" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="G157" s="12"/>
-      <c r="I157" s="29" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A158" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C158" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I152" s="40"/>
+    </row>
+    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" s="60"/>
+      <c r="B153" s="59"/>
+      <c r="C153" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I153" s="40"/>
+    </row>
+    <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" s="60"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I154" s="40"/>
+    </row>
+    <row r="155" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A155" s="60"/>
+      <c r="B155" s="59"/>
+      <c r="C155" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" s="60"/>
+      <c r="B156" s="59"/>
+      <c r="C156" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A157" s="60"/>
+      <c r="B157" s="59"/>
+      <c r="C157" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="60"/>
+      <c r="B158" s="59"/>
+      <c r="C158" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A159" s="60"/>
+      <c r="B159" s="59"/>
+      <c r="D159" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" s="60"/>
+      <c r="B160" s="59"/>
+      <c r="E160" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" s="60"/>
+      <c r="B161" s="59"/>
+      <c r="E161" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="60"/>
+      <c r="B162" s="59"/>
+      <c r="F162" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="60"/>
+      <c r="B163" s="59"/>
+      <c r="F163" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="56"/>
+      <c r="B164" s="58"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="7"/>
+      <c r="F164" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="G164" s="7"/>
+    </row>
+    <row r="165" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B165" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H165" s="73"/>
+      <c r="I165" s="38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="60"/>
+      <c r="B166" s="65"/>
+      <c r="C166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H166" s="74"/>
+      <c r="I166" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="60"/>
+      <c r="B167" s="65"/>
+      <c r="C167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" s="74"/>
+      <c r="I167" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="60"/>
+      <c r="B168" s="65"/>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" s="74"/>
+      <c r="I168" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="60"/>
+      <c r="B169" s="65"/>
+      <c r="C169" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H169" s="74"/>
+      <c r="I169" s="34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D170" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E170" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="F170" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G158" s="5"/>
-      <c r="I158" s="30" t="s">
+      <c r="G170" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" s="15" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A159" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E159" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F159" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="G159" s="12"/>
-      <c r="I159" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A160" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G160" s="5"/>
-      <c r="I160" s="30" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B161" s="72" t="s">
-        <v>230</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D161" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G161" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H161" s="66"/>
-      <c r="I161" s="38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="62"/>
-      <c r="B162" s="74"/>
-      <c r="C162" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D162" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H162" s="67"/>
-      <c r="I162" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="55"/>
-      <c r="B163" s="73"/>
-      <c r="C163" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D163" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="H163" s="68"/>
-    </row>
-    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B164" s="72" t="s">
-        <v>231</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="H164" s="6"/>
-      <c r="I164" s="34" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="62"/>
-      <c r="B165" s="74"/>
-      <c r="C165" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="I165" s="34" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="62"/>
-      <c r="B166" s="74"/>
-      <c r="C166" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="62"/>
-      <c r="B167" s="74"/>
-      <c r="C167" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="62"/>
-      <c r="B168" s="74"/>
-      <c r="C168" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="62"/>
-      <c r="B169" s="74"/>
-      <c r="C169" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A170" s="62"/>
-      <c r="B170" s="74"/>
-      <c r="C170" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="62"/>
-      <c r="B171" s="74"/>
-      <c r="C171" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="62"/>
-      <c r="B172" s="74"/>
-      <c r="C172" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A173" s="62"/>
-      <c r="B173" s="74"/>
-      <c r="C173" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A174" s="62"/>
-      <c r="B174" s="74"/>
-      <c r="C174" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A175" s="62"/>
-      <c r="B175" s="74"/>
-      <c r="C175" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="62"/>
-      <c r="B176" s="74"/>
-      <c r="C176" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="62"/>
-      <c r="B177" s="74"/>
-      <c r="C177" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="62"/>
-      <c r="B178" s="74"/>
-      <c r="C178" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="55"/>
-      <c r="B179" s="73"/>
-      <c r="C179" s="16"/>
-      <c r="D179" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="8"/>
-    </row>
-    <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="54" t="s">
-        <v>398</v>
-      </c>
-      <c r="B180" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H180" s="64" t="s">
-        <v>555</v>
-      </c>
-      <c r="I180" s="34" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="62"/>
-      <c r="B181" s="63"/>
-      <c r="C181" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H181" s="69"/>
-      <c r="I181" s="46" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="62"/>
-      <c r="B182" s="63"/>
-      <c r="C182" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H182" s="69"/>
-      <c r="I182" s="7"/>
-    </row>
-    <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="62"/>
-      <c r="B183" s="63"/>
-      <c r="C183" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H183" s="69"/>
-    </row>
-    <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="62"/>
-      <c r="B184" s="63"/>
-      <c r="C184" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H184" s="69"/>
-    </row>
-    <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="62"/>
-      <c r="B185" s="63"/>
-      <c r="C185" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H185" s="69"/>
-    </row>
-    <row r="186" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="55"/>
-      <c r="B186" s="57"/>
-      <c r="C186" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H186" s="65"/>
-    </row>
-    <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B187" s="72" t="s">
-        <v>232</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F187" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H187" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="I187" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="62"/>
-      <c r="B188" s="74"/>
-      <c r="C188" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H188" s="67"/>
-      <c r="I188" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="55"/>
-      <c r="B189" s="73"/>
-      <c r="C189" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="68"/>
-    </row>
-    <row r="190" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A190" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B190" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C190" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E190" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F190" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G190" s="12"/>
-      <c r="H190" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I190" s="25" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B191" s="72" t="s">
-        <v>234</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="G191" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="62"/>
-      <c r="B192" s="74"/>
-      <c r="C192" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="I192" s="40"/>
-    </row>
-    <row r="193" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A193" s="62"/>
-      <c r="B193" s="74"/>
-      <c r="C193" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I193" s="41" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="62"/>
-      <c r="B194" s="74"/>
-      <c r="C194" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="I194" s="40"/>
-    </row>
-    <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="62"/>
-      <c r="B195" s="74"/>
-      <c r="C195" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="I195" s="40"/>
-    </row>
-    <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="62"/>
-      <c r="B196" s="74"/>
-      <c r="C196" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I196" s="40"/>
-    </row>
-    <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A197" s="62"/>
-      <c r="B197" s="74"/>
-      <c r="C197" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="I197" s="40"/>
-    </row>
-    <row r="198" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A198" s="62"/>
-      <c r="B198" s="74"/>
-      <c r="C198" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A199" s="62"/>
-      <c r="B199" s="74"/>
-      <c r="C199" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A200" s="62"/>
-      <c r="B200" s="74"/>
-      <c r="C200" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A201" s="62"/>
-      <c r="B201" s="74"/>
-      <c r="C201" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A202" s="62"/>
-      <c r="B202" s="74"/>
-      <c r="D202" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="62"/>
-      <c r="B203" s="74"/>
-      <c r="E203" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A204" s="62"/>
-      <c r="B204" s="74"/>
-      <c r="E204" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A205" s="62"/>
-      <c r="B205" s="74"/>
-      <c r="F205" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A206" s="62"/>
-      <c r="B206" s="74"/>
-      <c r="F206" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="55"/>
-      <c r="B207" s="73"/>
-      <c r="C207" s="16"/>
-      <c r="D207" s="7"/>
-      <c r="F207" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="G207" s="7"/>
-    </row>
-    <row r="208" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A208" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B208" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F208" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G208" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H208" s="78"/>
-      <c r="I208" s="38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A209" s="62"/>
-      <c r="B209" s="63"/>
-      <c r="C209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H209" s="79"/>
-      <c r="I209" s="34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A210" s="62"/>
-      <c r="B210" s="63"/>
-      <c r="C210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H210" s="79"/>
-      <c r="I210" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A211" s="62"/>
-      <c r="B211" s="63"/>
-      <c r="C211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H211" s="79"/>
-      <c r="I211" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A212" s="62"/>
-      <c r="B212" s="63"/>
-      <c r="C212" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H212" s="79"/>
-      <c r="I212" s="34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="I213" s="25"/>
+      <c r="H170" s="75" t="s">
+        <v>576</v>
+      </c>
+      <c r="I170" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="H208:H212"/>
+  <mergeCells count="57">
+    <mergeCell ref="H165:H169"/>
     <mergeCell ref="H41:H44"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
@@ -6729,30 +5971,24 @@
     <mergeCell ref="F46:F47"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="H46:H47"/>
-    <mergeCell ref="A208:A212"/>
-    <mergeCell ref="B208:B212"/>
-    <mergeCell ref="A191:A207"/>
-    <mergeCell ref="B191:B207"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="A164:A179"/>
-    <mergeCell ref="B164:B179"/>
-    <mergeCell ref="A180:A186"/>
-    <mergeCell ref="B180:B186"/>
-    <mergeCell ref="A101:A113"/>
-    <mergeCell ref="B101:B113"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="A148:A164"/>
+    <mergeCell ref="B148:B164"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="A121:A136"/>
+    <mergeCell ref="B121:B136"/>
+    <mergeCell ref="A137:A143"/>
+    <mergeCell ref="B137:B143"/>
+    <mergeCell ref="A87:A99"/>
+    <mergeCell ref="B87:B99"/>
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="A70:A86"/>
     <mergeCell ref="B70:B86"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="B92:B100"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B63"/>
@@ -6761,49 +5997,27 @@
     <mergeCell ref="B3:B38"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="H161:H163"/>
-    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="H112:H113"/>
     <mergeCell ref="H70:H86"/>
-    <mergeCell ref="H187:H189"/>
-    <mergeCell ref="H180:H186"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A116:A124"/>
-    <mergeCell ref="B116:B124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="H144:H146"/>
+    <mergeCell ref="H137:H143"/>
+    <mergeCell ref="H110:H111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7071,16 +6285,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA35EFD-202A-4224-80EE-635D00C9954C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="d391a701-1e72-4a9c-8e27-32ae852ac85b"/>
     <ds:schemaRef ds:uri="748de206-7911-403a-93a2-ff3feb5ad88e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/codebook_combined.xlsx
+++ b/codebook_combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill.sharepoint.com/sites/PROSPERED_Group/Shared Documents/General/CIHR RSBY India/data/Linking code and CSVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1557" documentId="8_{54C3D132-FD60-E343-8A70-19C775275FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A121BB37-D6F6-B44F-9F2B-5CC25D9FF23F}"/>
+  <xr:revisionPtr revIDLastSave="1740" documentId="8_{54C3D132-FD60-E343-8A70-19C775275FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A99FE2C-D21B-A149-99E3-28081AA24F20}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="500" windowWidth="35640" windowHeight="19380" xr2:uid="{73DF8F02-1432-4841-ABC8-0F245F1B77ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{73DF8F02-1432-4841-ABC8-0F245F1B77ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="631">
   <si>
     <t>Variable</t>
   </si>
@@ -1696,15 +1696,6 @@
     <t xml:space="preserve">           4   protected-dugwell</t>
   </si>
   <si>
-    <t xml:space="preserve">           5   unprotected-dug-well</t>
-  </si>
-  <si>
-    <t>6 tanker/truck/cart</t>
-  </si>
-  <si>
-    <t>7other source</t>
-  </si>
-  <si>
     <t>8 service latrine /dry toilet</t>
   </si>
   <si>
@@ -1766,6 +1757,177 @@
   </si>
   <si>
     <t>for values and labels see districts_harmonized.csv in district harmonization folder</t>
+  </si>
+  <si>
+    <t>water_treat</t>
+  </si>
+  <si>
+    <t>Do you treat your water in any way to make it safe to drink?</t>
+  </si>
+  <si>
+    <t>0 NO</t>
+  </si>
+  <si>
+    <t>1 YES</t>
+  </si>
+  <si>
+    <t>type_water_filter</t>
+  </si>
+  <si>
+    <t>What is usually done to make water safer to drink?</t>
+  </si>
+  <si>
+    <t>1 Boil water</t>
+  </si>
+  <si>
+    <t>2 Bleach the water</t>
+  </si>
+  <si>
+    <t>3 Use alum</t>
+  </si>
+  <si>
+    <t>4 Strain water through a cloth</t>
+  </si>
+  <si>
+    <t>5 Use water filter (ceramic, sand, composite)</t>
+  </si>
+  <si>
+    <t>6 Use an electronic water purifier</t>
+  </si>
+  <si>
+    <t>7 Let it stand and settle</t>
+  </si>
+  <si>
+    <t>8 Other method</t>
+  </si>
+  <si>
+    <t>toilet_share</t>
+  </si>
+  <si>
+    <t>Is the toilet shared with other households?</t>
+  </si>
+  <si>
+    <t>0 No</t>
+  </si>
+  <si>
+    <t>cooking_fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What type of fuel does your household mainly use for cooking? </t>
+  </si>
+  <si>
+    <t>1 Electricity</t>
+  </si>
+  <si>
+    <t>2 LPG/ Natural Gas</t>
+  </si>
+  <si>
+    <t>3 Biogas</t>
+  </si>
+  <si>
+    <t>4 Kerosene</t>
+  </si>
+  <si>
+    <t>5 Coal / Ignite / Charcoal</t>
+  </si>
+  <si>
+    <t>6 Wood</t>
+  </si>
+  <si>
+    <t>7 Straw / Shrubs / Grass / Agricultural Crop Waste</t>
+  </si>
+  <si>
+    <t>8 Dung Cakes</t>
+  </si>
+  <si>
+    <t>96 Other</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>Does the household own a radio?</t>
+  </si>
+  <si>
+    <t>1 Yes</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>Does the household own a computer?</t>
+  </si>
+  <si>
+    <t>fridge</t>
+  </si>
+  <si>
+    <t>Does the household own a refrigerator?</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>Does the household own a bicycle</t>
+  </si>
+  <si>
+    <t>motorcycle</t>
+  </si>
+  <si>
+    <t>Does the household own a motorcycle or scooter?</t>
+  </si>
+  <si>
+    <t>animal_cart</t>
+  </si>
+  <si>
+    <t>Does the household own a cart drawn by animals?</t>
+  </si>
+  <si>
+    <t>Does the household own a car?</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>own_agric_land</t>
+  </si>
+  <si>
+    <t>Does the household own land that can be used for agriculture or irrigation?</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>Does the household own a television?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92 community or plant </t>
+  </si>
+  <si>
+    <t>improved_water</t>
+  </si>
+  <si>
+    <t>Is water source an improved according to JMP WASH standards?</t>
+  </si>
+  <si>
+    <t>0 No facilities (surface water)</t>
+  </si>
+  <si>
+    <t>1 Unimproved Facilities (Unprotected wells and springs)</t>
+  </si>
+  <si>
+    <t>2 Improved Facilities (i.e. piped, protected well, delivered water)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5   tanker/truck/bard</t>
+  </si>
+  <si>
+    <t>6 unprotected-dug-well</t>
+  </si>
+  <si>
+    <t>7 surface water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 other </t>
   </si>
 </sst>
 </file>
@@ -1975,7 +2137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2095,6 +2257,53 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2119,12 +2328,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2132,9 +2335,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2146,14 +2346,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2169,18 +2366,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2500,13 +2685,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4750E3-F7BA-154D-B91A-8F67FE959370}">
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I170" sqref="I170"/>
+      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2575,10 +2760,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="72" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2600,8 +2785,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
@@ -2622,8 +2807,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="2" t="s">
         <v>66</v>
       </c>
@@ -2644,8 +2829,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
@@ -2666,8 +2851,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
@@ -2688,8 +2873,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
@@ -2710,8 +2895,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
@@ -2732,8 +2917,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="2" t="s">
         <v>71</v>
       </c>
@@ -2754,8 +2939,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="2" t="s">
         <v>72</v>
       </c>
@@ -2776,8 +2961,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2795,8 +2980,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
@@ -2814,8 +2999,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="2" t="s">
         <v>75</v>
       </c>
@@ -2833,8 +3018,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="2" t="s">
         <v>76</v>
       </c>
@@ -2852,8 +3037,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="2" t="s">
         <v>77</v>
       </c>
@@ -2871,8 +3056,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="2" t="s">
         <v>78</v>
       </c>
@@ -2890,8 +3075,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="2" t="s">
         <v>79</v>
       </c>
@@ -2909,8 +3094,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
@@ -2928,8 +3113,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="2" t="s">
         <v>81</v>
       </c>
@@ -2947,8 +3132,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="2" t="s">
         <v>82</v>
       </c>
@@ -2966,8 +3151,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="2" t="s">
         <v>83</v>
       </c>
@@ -2985,8 +3170,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="2" t="s">
         <v>84</v>
       </c>
@@ -3004,8 +3189,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="2" t="s">
         <v>85</v>
       </c>
@@ -3020,8 +3205,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="2" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3221,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="2" t="s">
         <v>87</v>
       </c>
@@ -3052,8 +3237,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="2" t="s">
         <v>88</v>
       </c>
@@ -3068,8 +3253,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="2" t="s">
         <v>89</v>
       </c>
@@ -3084,8 +3269,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
@@ -3100,8 +3285,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="2" t="s">
         <v>91</v>
       </c>
@@ -3116,8 +3301,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="2" t="s">
         <v>92</v>
       </c>
@@ -3132,8 +3317,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="2" t="s">
         <v>93</v>
       </c>
@@ -3148,8 +3333,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="2" t="s">
         <v>94</v>
       </c>
@@ -3164,8 +3349,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="74"/>
       <c r="C34" s="2" t="s">
         <v>95</v>
       </c>
@@ -3180,8 +3365,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="2" t="s">
         <v>96</v>
       </c>
@@ -3196,8 +3381,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="2" t="s">
         <v>97</v>
       </c>
@@ -3212,8 +3397,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="74"/>
       <c r="E37" s="1" t="s">
         <v>325</v>
       </c>
@@ -3225,8 +3410,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="16"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
@@ -3245,25 +3430,25 @@
         <v>16</v>
       </c>
       <c r="C39" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="E39" s="12" t="s">
+      <c r="H39" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="I39" s="12" t="s">
         <v>561</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>563</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -3296,10 +3481,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="54" t="s">
         <v>534</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="56" t="s">
         <v>535</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -3317,14 +3502,14 @@
       <c r="G41" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="H41" s="67"/>
+      <c r="H41" s="80"/>
       <c r="I41" s="38" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="60"/>
-      <c r="B42" s="65"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="1" t="s">
         <v>544</v>
       </c>
@@ -3340,14 +3525,14 @@
       <c r="G42" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H42" s="68"/>
+      <c r="H42" s="81"/>
       <c r="I42" s="34" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="60"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="1" t="s">
         <v>545</v>
       </c>
@@ -3363,14 +3548,14 @@
       <c r="G43" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="H43" s="68"/>
+      <c r="H43" s="81"/>
       <c r="I43" s="34" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="66"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="7" t="s">
         <v>546</v>
       </c>
@@ -3386,7 +3571,7 @@
       <c r="G44" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H44" s="69"/>
+      <c r="H44" s="82"/>
       <c r="I44" s="39" t="s">
         <v>546</v>
       </c>
@@ -3409,31 +3594,31 @@
       </c>
     </row>
     <row r="46" spans="1:9" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="54" t="s">
         <v>540</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="56" t="s">
         <v>541</v>
       </c>
-      <c r="C46" s="70"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
       <c r="I46" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
       <c r="I47" s="31" t="s">
         <v>60</v>
       </c>
@@ -3466,10 +3651,10 @@
     </row>
     <row r="49" spans="1:9" s="15" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>22</v>
@@ -3487,13 +3672,13 @@
         <v>22</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I49" s="31"/>
     </row>
     <row r="50" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>19</v>
@@ -3544,10 +3729,10 @@
       </c>
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3570,8 +3755,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
-      <c r="B53" s="58"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="16" t="s">
         <v>26</v>
       </c>
@@ -3592,10 +3777,10 @@
       </c>
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="72" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -3618,8 +3803,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
-      <c r="B55" s="59"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="74"/>
       <c r="C55" s="2" t="s">
         <v>98</v>
       </c>
@@ -3640,8 +3825,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="60"/>
-      <c r="B56" s="59"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="74"/>
       <c r="C56" s="2" t="s">
         <v>99</v>
       </c>
@@ -3662,8 +3847,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="60"/>
-      <c r="B57" s="59"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="2" t="s">
         <v>100</v>
       </c>
@@ -3684,8 +3869,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="60"/>
-      <c r="B58" s="59"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="74"/>
       <c r="C58" s="2" t="s">
         <v>101</v>
       </c>
@@ -3706,8 +3891,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="60"/>
-      <c r="B59" s="59"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="74"/>
       <c r="C59" s="2" t="s">
         <v>102</v>
       </c>
@@ -3728,8 +3913,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="60"/>
-      <c r="B60" s="59"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="74"/>
       <c r="C60" s="2" t="s">
         <v>103</v>
       </c>
@@ -3750,8 +3935,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="60"/>
-      <c r="B61" s="59"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="74"/>
       <c r="C61" s="2" t="s">
         <v>104</v>
       </c>
@@ -3772,8 +3957,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="60"/>
-      <c r="B62" s="59"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="74"/>
       <c r="C62" s="2" t="s">
         <v>105</v>
       </c>
@@ -3791,8 +3976,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="56"/>
-      <c r="B63" s="58"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="73"/>
       <c r="C63" s="16" t="s">
         <v>106</v>
       </c>
@@ -3808,10 +3993,10 @@
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="72" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="9" t="s">
@@ -3837,8 +4022,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="60"/>
-      <c r="B65" s="59"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="74"/>
       <c r="C65" s="2" t="s">
         <v>108</v>
       </c>
@@ -3859,8 +4044,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="60"/>
-      <c r="B66" s="59"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="74"/>
       <c r="C66" s="2" t="s">
         <v>107</v>
       </c>
@@ -3881,8 +4066,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="60"/>
-      <c r="B67" s="59"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="74"/>
       <c r="C67" s="2" t="s">
         <v>109</v>
       </c>
@@ -3897,8 +4082,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="56"/>
-      <c r="B68" s="58"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="73"/>
       <c r="C68" s="16"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
@@ -3911,38 +4096,38 @@
     </row>
     <row r="69" spans="1:9" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C69" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="D69" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="F69" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="G69" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="H69" s="15" t="s">
         <v>569</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="C69" s="72" t="s">
-        <v>571</v>
-      </c>
-      <c r="D69" s="72" t="s">
-        <v>571</v>
-      </c>
-      <c r="E69" s="72" t="s">
-        <v>571</v>
-      </c>
-      <c r="F69" s="72" t="s">
-        <v>571</v>
-      </c>
-      <c r="G69" s="72" t="s">
-        <v>571</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>572</v>
       </c>
       <c r="I69" s="45" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="72" t="s">
         <v>50</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -3960,7 +4145,7 @@
       <c r="G70" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H70" s="49" t="s">
+      <c r="H70" s="66" t="s">
         <v>236</v>
       </c>
       <c r="I70" s="36" t="s">
@@ -3968,8 +4153,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="60"/>
-      <c r="B71" s="59"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="74"/>
       <c r="C71" s="2" t="s">
         <v>157</v>
       </c>
@@ -3985,14 +4170,14 @@
       <c r="G71" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H71" s="50"/>
+      <c r="H71" s="67"/>
       <c r="I71" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="60"/>
-      <c r="B72" s="59"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="74"/>
       <c r="C72" s="2" t="s">
         <v>158</v>
       </c>
@@ -4008,14 +4193,14 @@
       <c r="G72" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H72" s="50"/>
+      <c r="H72" s="67"/>
       <c r="I72" s="37" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="60"/>
-      <c r="B73" s="59"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="74"/>
       <c r="C73" s="2" t="s">
         <v>159</v>
       </c>
@@ -4031,14 +4216,14 @@
       <c r="G73" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H73" s="50"/>
+      <c r="H73" s="67"/>
       <c r="I73" s="37" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="60"/>
-      <c r="B74" s="59"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="74"/>
       <c r="C74" s="2" t="s">
         <v>160</v>
       </c>
@@ -4054,14 +4239,14 @@
       <c r="G74" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H74" s="50"/>
+      <c r="H74" s="67"/>
       <c r="I74" s="37" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="60"/>
-      <c r="B75" s="59"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="74"/>
       <c r="C75" s="2" t="s">
         <v>161</v>
       </c>
@@ -4077,14 +4262,14 @@
       <c r="G75" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H75" s="50"/>
+      <c r="H75" s="67"/>
       <c r="I75" s="37" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="60"/>
-      <c r="B76" s="59"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="74"/>
       <c r="C76" s="2" t="s">
         <v>162</v>
       </c>
@@ -4100,14 +4285,14 @@
       <c r="G76" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="H76" s="50"/>
+      <c r="H76" s="67"/>
       <c r="I76" s="34" t="s">
-        <v>555</v>
+        <v>629</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="60"/>
-      <c r="B77" s="59"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="74"/>
       <c r="C77" s="2" t="s">
         <v>163</v>
       </c>
@@ -4123,11 +4308,14 @@
       <c r="G77" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="H77" s="50"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="37" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="60"/>
-      <c r="B78" s="59"/>
+      <c r="A78" s="62"/>
+      <c r="B78" s="74"/>
       <c r="C78" s="2" t="s">
         <v>164</v>
       </c>
@@ -4143,11 +4331,11 @@
       <c r="G78" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H78" s="50"/>
+      <c r="H78" s="67"/>
     </row>
     <row r="79" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="60"/>
-      <c r="B79" s="59"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="74"/>
       <c r="C79" s="2" t="s">
         <v>165</v>
       </c>
@@ -4160,12 +4348,12 @@
       <c r="F79" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H79" s="50"/>
+      <c r="H79" s="67"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="60"/>
-      <c r="B80" s="59"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="74"/>
       <c r="C80" s="2" t="s">
         <v>166</v>
       </c>
@@ -4178,12 +4366,12 @@
       <c r="F80" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H80" s="50"/>
+      <c r="H80" s="67"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="60"/>
-      <c r="B81" s="59"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="74"/>
       <c r="C81" s="2" t="s">
         <v>167</v>
       </c>
@@ -4196,11 +4384,11 @@
       <c r="F81" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H81" s="50"/>
+      <c r="H81" s="67"/>
     </row>
     <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="60"/>
-      <c r="B82" s="59"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="74"/>
       <c r="C82" s="2" t="s">
         <v>168</v>
       </c>
@@ -4213,11 +4401,11 @@
       <c r="F82" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H82" s="50"/>
+      <c r="H82" s="67"/>
     </row>
     <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="60"/>
-      <c r="B83" s="59"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="74"/>
       <c r="C83" s="2" t="s">
         <v>155</v>
       </c>
@@ -4230,1738 +4418,2308 @@
       <c r="F83" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H83" s="50"/>
+      <c r="H83" s="67"/>
     </row>
     <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="60"/>
-      <c r="B84" s="59"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="74"/>
       <c r="E84" s="3" t="s">
         <v>250</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="H84" s="50"/>
+        <v>621</v>
+      </c>
+      <c r="H84" s="67"/>
     </row>
     <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="60"/>
-      <c r="B85" s="59"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="74"/>
       <c r="E85" s="1" t="s">
         <v>251</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H85" s="50"/>
+      <c r="H85" s="67"/>
     </row>
     <row r="86" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="56"/>
-      <c r="B86" s="58"/>
+      <c r="A86" s="55"/>
+      <c r="B86" s="73"/>
       <c r="C86" s="16"/>
       <c r="D86" s="7"/>
       <c r="F86" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G86" s="7"/>
-      <c r="H86" s="51"/>
-    </row>
-    <row r="87" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="55" t="s">
-        <v>573</v>
-      </c>
-      <c r="B87" s="57" t="s">
+      <c r="H86" s="68"/>
+    </row>
+    <row r="87" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="54" t="s">
+        <v>622</v>
+      </c>
+      <c r="B87" s="56" t="s">
+        <v>623</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="50"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="53" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="62"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="50"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="53" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="55"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="31" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="B90" s="56" t="s">
+        <v>575</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="53" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="55"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="31" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="54" t="s">
+        <v>578</v>
+      </c>
+      <c r="B92" s="56" t="s">
+        <v>579</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="53" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="62"/>
+      <c r="B93" s="63"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="53" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="62"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="53" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="62"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="53" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="62"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="53" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="62"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="50"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="53" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="62"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="50"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="53" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="62"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="50"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="53" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="55"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="31"/>
+    </row>
+    <row r="101" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="B101" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C101" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F101" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G101" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="I87" s="38" t="s">
+      <c r="I101" s="38" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="60"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="2" t="s">
+    <row r="102" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="62"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I88" s="34" t="s">
+      <c r="I102" s="34" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="60"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="2" t="s">
+    <row r="103" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="62"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I89" s="34" t="s">
+      <c r="I103" s="34" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="60"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="2" t="s">
+    <row r="104" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="62"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I90" s="34" t="s">
+      <c r="I104" s="34" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="60"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="2" t="s">
+    <row r="105" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="62"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I91" s="34" t="s">
+      <c r="I105" s="34" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A92" s="60"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="2" t="s">
+    <row r="106" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="62"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I92" s="34" t="s">
+      <c r="I106" s="34" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="60"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="2" t="s">
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="62"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I93" s="34" t="s">
+      <c r="I107" s="34" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="60"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="2" t="s">
+    <row r="108" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="62"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I94" s="34" t="s">
+      <c r="I108" s="34" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="60"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="2" t="s">
+    <row r="109" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="62"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I95" s="34" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="60"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="2" t="s">
+      <c r="I109" s="34" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="62"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I96" s="34" t="s">
+      <c r="I110" s="34" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="60"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="2" t="s">
+    <row r="111" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="62"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="60"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="2" t="s">
+    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="62"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="56"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7" t="s">
+    <row r="113" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="55"/>
+      <c r="B113" s="73"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F113" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G99" s="7"/>
-    </row>
-    <row r="100" spans="1:11" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G100" s="5"/>
-      <c r="I100" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="56"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I101" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B102" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-    </row>
-    <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="56"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B104" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="I104" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="J104" s="6"/>
-    </row>
-    <row r="105" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="56"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G105" s="7"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="J105" s="8"/>
-    </row>
-    <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B106" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="J106" s="6"/>
-    </row>
-    <row r="107" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="56"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I107" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B108" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="56"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I109" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="B110" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="53" t="s">
-        <v>494</v>
-      </c>
-      <c r="I110" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="56"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B112" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G112" s="5"/>
-      <c r="H112" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="I112" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="56"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G113" s="7"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="G114" s="12"/>
-      <c r="I114" s="29" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="5"/>
-      <c r="I115" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="15" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A116" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="G116" s="12"/>
-      <c r="I116" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A117" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G117" s="5"/>
-      <c r="I117" s="30" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B118" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H118" s="49"/>
-      <c r="I118" s="38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="60"/>
-      <c r="B119" s="59"/>
-      <c r="C119" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D119" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H119" s="50"/>
-      <c r="I119" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="56"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D120" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="H120" s="51"/>
-    </row>
-    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B121" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="H121" s="6"/>
-      <c r="I121" s="34" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="60"/>
-      <c r="B122" s="59"/>
-      <c r="C122" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="I122" s="34" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="60"/>
-      <c r="B123" s="59"/>
-      <c r="C123" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="60"/>
-      <c r="B124" s="59"/>
-      <c r="C124" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="60"/>
-      <c r="B125" s="59"/>
-      <c r="C125" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="60"/>
-      <c r="B126" s="59"/>
-      <c r="C126" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="60"/>
-      <c r="B127" s="59"/>
-      <c r="C127" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="60"/>
-      <c r="B128" s="59"/>
-      <c r="C128" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="60"/>
-      <c r="B129" s="59"/>
-      <c r="C129" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="60"/>
-      <c r="B130" s="59"/>
-      <c r="C130" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A131" s="60"/>
-      <c r="B131" s="59"/>
-      <c r="C131" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="60"/>
-      <c r="B132" s="59"/>
-      <c r="C132" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="60"/>
-      <c r="B133" s="59"/>
-      <c r="C133" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="60"/>
-      <c r="B134" s="59"/>
-      <c r="C134" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="60"/>
-      <c r="B135" s="59"/>
-      <c r="C135" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="56"/>
-      <c r="B136" s="58"/>
+    </row>
+    <row r="114" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="B114" s="60" t="s">
+        <v>589</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="50"/>
+      <c r="I114" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="59"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="I115" s="31" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="54" t="s">
+        <v>591</v>
+      </c>
+      <c r="B116" s="56" t="s">
+        <v>592</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="50"/>
+      <c r="F116" s="50"/>
+      <c r="G116" s="50"/>
+      <c r="I116" s="53" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="62"/>
+      <c r="B117" s="63"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="50"/>
+      <c r="E117" s="50"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="50"/>
+      <c r="I117" s="53" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="62"/>
+      <c r="B118" s="63"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="50"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="50"/>
+      <c r="I118" s="53" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="62"/>
+      <c r="B119" s="63"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="50"/>
+      <c r="I119" s="53" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="62"/>
+      <c r="B120" s="63"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="50"/>
+      <c r="I120" s="53" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="62"/>
+      <c r="B121" s="63"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="50"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="I121" s="53" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="62"/>
+      <c r="B122" s="63"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
+      <c r="I122" s="53" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="62"/>
+      <c r="B123" s="63"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="I123" s="53" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="55"/>
+      <c r="B124" s="57"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="I124" s="31" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="54" t="s">
+        <v>602</v>
+      </c>
+      <c r="B125" s="56" t="s">
+        <v>603</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="I125" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="55"/>
+      <c r="B126" s="57"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="I126" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="B127" s="56" t="s">
+        <v>606</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
+      <c r="I127" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="55"/>
+      <c r="B128" s="57"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="I128" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="54" t="s">
+        <v>607</v>
+      </c>
+      <c r="B129" s="56" t="s">
+        <v>608</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="50"/>
+      <c r="I129" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="55"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="I130" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="54" t="s">
+        <v>609</v>
+      </c>
+      <c r="B131" s="56" t="s">
+        <v>610</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="50"/>
+      <c r="F131" s="50"/>
+      <c r="G131" s="50"/>
+      <c r="I131" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="55"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="I132" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="54" t="s">
+        <v>611</v>
+      </c>
+      <c r="B133" s="56" t="s">
+        <v>612</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
+      <c r="I133" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="55"/>
+      <c r="B134" s="57"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="I134" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="54" t="s">
+        <v>613</v>
+      </c>
+      <c r="B135" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="50"/>
+      <c r="G135" s="50"/>
+      <c r="I135" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="55"/>
+      <c r="B136" s="57"/>
       <c r="C136" s="16"/>
-      <c r="D136" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
-      <c r="H136" s="8"/>
-    </row>
-    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="55" t="s">
+      <c r="I136" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="54" t="s">
+        <v>616</v>
+      </c>
+      <c r="B137" s="56" t="s">
+        <v>615</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="50"/>
+      <c r="I137" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="55"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="I138" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="B139" s="56" t="s">
+        <v>618</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="50"/>
+      <c r="F139" s="50"/>
+      <c r="G139" s="50"/>
+      <c r="I139" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="55"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="I140" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="B141" s="56" t="s">
+        <v>620</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="50"/>
+      <c r="I141" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="55"/>
+      <c r="B142" s="57"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="I142" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G143" s="5"/>
+      <c r="I143" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="55"/>
+      <c r="B144" s="73"/>
+      <c r="C144" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I144" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B145" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G145" s="5"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+    </row>
+    <row r="146" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="55"/>
+      <c r="B146" s="73"/>
+      <c r="C146" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B147" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G147" s="5"/>
+      <c r="H147" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="I147" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J147" s="6"/>
+    </row>
+    <row r="148" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="55"/>
+      <c r="B148" s="73"/>
+      <c r="C148" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G148" s="7"/>
+      <c r="H148" s="65"/>
+      <c r="I148" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J148" s="8"/>
+    </row>
+    <row r="149" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B149" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G149" s="5"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J149" s="6"/>
+    </row>
+    <row r="150" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" s="55"/>
+      <c r="B150" s="73"/>
+      <c r="C150" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I150" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B151" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G151" s="5"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" s="55"/>
+      <c r="B152" s="73"/>
+      <c r="C152" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I152" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B153" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G153" s="5"/>
+      <c r="H153" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="I153" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" s="55"/>
+      <c r="B154" s="73"/>
+      <c r="C154" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G154" s="7"/>
+      <c r="H154" s="71"/>
+      <c r="I154" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B155" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G155" s="5"/>
+      <c r="H155" s="66" t="s">
+        <v>445</v>
+      </c>
+      <c r="I155" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="55"/>
+      <c r="B156" s="73"/>
+      <c r="C156" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G156" s="7"/>
+      <c r="H156" s="68"/>
+      <c r="I156" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G157" s="12"/>
+      <c r="I157" s="29" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A158" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158" s="5"/>
+      <c r="I158" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" s="15" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A159" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G159" s="12"/>
+      <c r="I159" s="35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A160" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G160" s="5"/>
+      <c r="I160" s="30" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B161" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H161" s="66"/>
+      <c r="I161" s="38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="62"/>
+      <c r="B162" s="74"/>
+      <c r="C162" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D162" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H162" s="67"/>
+      <c r="I162" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="55"/>
+      <c r="B163" s="73"/>
+      <c r="C163" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D163" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H163" s="68"/>
+    </row>
+    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="H164" s="6"/>
+      <c r="I164" s="34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" s="62"/>
+      <c r="B165" s="74"/>
+      <c r="C165" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I165" s="34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="62"/>
+      <c r="B166" s="74"/>
+      <c r="C166" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="62"/>
+      <c r="B167" s="74"/>
+      <c r="C167" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="62"/>
+      <c r="B168" s="74"/>
+      <c r="C168" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="62"/>
+      <c r="B169" s="74"/>
+      <c r="C169" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A170" s="62"/>
+      <c r="B170" s="74"/>
+      <c r="C170" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="62"/>
+      <c r="B171" s="74"/>
+      <c r="C171" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" s="62"/>
+      <c r="B172" s="74"/>
+      <c r="C172" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A173" s="62"/>
+      <c r="B173" s="74"/>
+      <c r="C173" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A174" s="62"/>
+      <c r="B174" s="74"/>
+      <c r="C174" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A175" s="62"/>
+      <c r="B175" s="74"/>
+      <c r="C175" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A176" s="62"/>
+      <c r="B176" s="74"/>
+      <c r="C176" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="62"/>
+      <c r="B177" s="74"/>
+      <c r="C177" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178" s="62"/>
+      <c r="B178" s="74"/>
+      <c r="C178" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" s="55"/>
+      <c r="B179" s="73"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="8"/>
+    </row>
+    <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="B137" s="64" t="s">
+      <c r="B180" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F180" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G180" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H137" s="47" t="s">
-        <v>558</v>
-      </c>
-      <c r="I137" s="34" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="60"/>
-      <c r="B138" s="65"/>
-      <c r="C138" s="2" t="s">
+      <c r="H180" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="I180" s="34" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="62"/>
+      <c r="B181" s="63"/>
+      <c r="C181" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G181" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H138" s="52"/>
-      <c r="I138" s="46" t="s">
+      <c r="H181" s="69"/>
+      <c r="I181" s="46" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="60"/>
-      <c r="B139" s="65"/>
-      <c r="C139" s="2" t="s">
+    <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A182" s="62"/>
+      <c r="B182" s="63"/>
+      <c r="C182" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F182" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H139" s="52"/>
-      <c r="I139" s="7"/>
-    </row>
-    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="60"/>
-      <c r="B140" s="65"/>
-      <c r="C140" s="2" t="s">
+      <c r="H182" s="69"/>
+      <c r="I182" s="7"/>
+    </row>
+    <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" s="62"/>
+      <c r="B183" s="63"/>
+      <c r="C183" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G183" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H140" s="52"/>
-    </row>
-    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="60"/>
-      <c r="B141" s="65"/>
-      <c r="C141" s="2" t="s">
+      <c r="H183" s="69"/>
+    </row>
+    <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A184" s="62"/>
+      <c r="B184" s="63"/>
+      <c r="C184" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G184" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H141" s="52"/>
-    </row>
-    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="60"/>
-      <c r="B142" s="65"/>
-      <c r="C142" s="2" t="s">
+      <c r="H184" s="69"/>
+    </row>
+    <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A185" s="62"/>
+      <c r="B185" s="63"/>
+      <c r="C185" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G185" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="H142" s="52"/>
-    </row>
-    <row r="143" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="56"/>
-      <c r="B143" s="66"/>
-      <c r="C143" s="2" t="s">
+      <c r="H185" s="69"/>
+    </row>
+    <row r="186" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="55"/>
+      <c r="B186" s="57"/>
+      <c r="C186" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H143" s="48"/>
-    </row>
-    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="55" t="s">
+      <c r="H186" s="65"/>
+    </row>
+    <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A187" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B144" s="57" t="s">
+      <c r="B187" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C187" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D187" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="E187" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F187" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G144" s="5" t="s">
+      <c r="G187" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H144" s="49" t="s">
+      <c r="H187" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="I144" s="38" t="s">
+      <c r="I187" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="60"/>
-      <c r="B145" s="59"/>
-      <c r="C145" s="2" t="s">
+    <row r="188" spans="1:9" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="62"/>
+      <c r="B188" s="74"/>
+      <c r="C188" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F188" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G188" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H145" s="50"/>
-      <c r="I145" s="34" t="s">
+      <c r="H188" s="67"/>
+      <c r="I188" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="56"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="16" t="s">
+    <row r="189" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A189" s="55"/>
+      <c r="B189" s="73"/>
+      <c r="C189" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="51"/>
-    </row>
-    <row r="147" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A147" s="10" t="s">
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="68"/>
+    </row>
+    <row r="190" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A190" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B190" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C190" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D190" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E147" s="12" t="s">
+      <c r="E190" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F147" s="12" t="s">
+      <c r="F190" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12" t="s">
+      <c r="G190" s="12"/>
+      <c r="H190" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I147" s="25" t="s">
+      <c r="I190" s="25" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="55" t="s">
+    <row r="191" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B148" s="57" t="s">
+      <c r="B191" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C191" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D191" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E191" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F191" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G148" s="5" t="s">
+      <c r="G191" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="60"/>
-      <c r="B149" s="59"/>
-      <c r="C149" s="2" t="s">
+    <row r="192" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192" s="62"/>
+      <c r="B192" s="74"/>
+      <c r="C192" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F192" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I149" s="40"/>
-    </row>
-    <row r="150" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A150" s="60"/>
-      <c r="B150" s="59"/>
-      <c r="C150" s="2" t="s">
+      <c r="I192" s="40"/>
+    </row>
+    <row r="193" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A193" s="62"/>
+      <c r="B193" s="74"/>
+      <c r="C193" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G193" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="I150" s="41" t="s">
+      <c r="I193" s="41" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="60"/>
-      <c r="B151" s="59"/>
-      <c r="C151" s="2" t="s">
+    <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="62"/>
+      <c r="B194" s="74"/>
+      <c r="C194" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F194" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G194" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I151" s="40"/>
-    </row>
-    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="60"/>
-      <c r="B152" s="59"/>
-      <c r="C152" s="2" t="s">
+      <c r="I194" s="40"/>
+    </row>
+    <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="62"/>
+      <c r="B195" s="74"/>
+      <c r="C195" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F195" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G195" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="I152" s="40"/>
-    </row>
-    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="60"/>
-      <c r="B153" s="59"/>
-      <c r="C153" s="2" t="s">
+      <c r="I195" s="40"/>
+    </row>
+    <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A196" s="62"/>
+      <c r="B196" s="74"/>
+      <c r="C196" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F196" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G196" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I153" s="40"/>
-    </row>
-    <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="60"/>
-      <c r="B154" s="59"/>
-      <c r="C154" s="2" t="s">
+      <c r="I196" s="40"/>
+    </row>
+    <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A197" s="62"/>
+      <c r="B197" s="74"/>
+      <c r="C197" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F197" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G197" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="I154" s="40"/>
-    </row>
-    <row r="155" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A155" s="60"/>
-      <c r="B155" s="59"/>
-      <c r="C155" s="2" t="s">
+      <c r="I197" s="40"/>
+    </row>
+    <row r="198" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A198" s="62"/>
+      <c r="B198" s="74"/>
+      <c r="C198" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F198" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G198" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="60"/>
-      <c r="B156" s="59"/>
-      <c r="C156" s="2" t="s">
+    <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A199" s="62"/>
+      <c r="B199" s="74"/>
+      <c r="C199" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F199" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G199" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A157" s="60"/>
-      <c r="B157" s="59"/>
-      <c r="C157" s="2" t="s">
+    <row r="200" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A200" s="62"/>
+      <c r="B200" s="74"/>
+      <c r="C200" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F200" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G200" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="60"/>
-      <c r="B158" s="59"/>
-      <c r="C158" s="2" t="s">
+    <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="62"/>
+      <c r="B201" s="74"/>
+      <c r="C201" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F201" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A159" s="60"/>
-      <c r="B159" s="59"/>
-      <c r="D159" s="1" t="s">
+    <row r="202" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A202" s="62"/>
+      <c r="B202" s="74"/>
+      <c r="D202" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F202" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G202" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="60"/>
-      <c r="B160" s="59"/>
-      <c r="E160" s="1" t="s">
+    <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A203" s="62"/>
+      <c r="B203" s="74"/>
+      <c r="E203" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F203" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G203" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="60"/>
-      <c r="B161" s="59"/>
-      <c r="E161" s="1" t="s">
+    <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204" s="62"/>
+      <c r="B204" s="74"/>
+      <c r="E204" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F204" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G204" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="60"/>
-      <c r="B162" s="59"/>
-      <c r="F162" s="1" t="s">
+    <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A205" s="62"/>
+      <c r="B205" s="74"/>
+      <c r="F205" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="60"/>
-      <c r="B163" s="59"/>
-      <c r="F163" s="1" t="s">
+    <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A206" s="62"/>
+      <c r="B206" s="74"/>
+      <c r="F206" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="56"/>
-      <c r="B164" s="58"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="7"/>
-      <c r="F164" s="8" t="s">
+    <row r="207" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="55"/>
+      <c r="B207" s="73"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="7"/>
+      <c r="F207" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="G164" s="7"/>
-    </row>
-    <row r="165" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="55" t="s">
+      <c r="G207" s="7"/>
+    </row>
+    <row r="208" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B165" s="64" t="s">
+      <c r="B208" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C208" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D208" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E208" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F208" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G165" s="5" t="s">
+      <c r="G208" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H165" s="73"/>
-      <c r="I165" s="38" t="s">
+      <c r="H208" s="78"/>
+      <c r="I208" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="60"/>
-      <c r="B166" s="65"/>
-      <c r="C166" s="2" t="s">
+    <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A209" s="62"/>
+      <c r="B209" s="63"/>
+      <c r="C209" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F209" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="G209" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H166" s="74"/>
-      <c r="I166" s="34" t="s">
+      <c r="H209" s="79"/>
+      <c r="I209" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="60"/>
-      <c r="B167" s="65"/>
-      <c r="C167" s="2" t="s">
+    <row r="210" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A210" s="62"/>
+      <c r="B210" s="63"/>
+      <c r="C210" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F210" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G210" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H167" s="74"/>
-      <c r="I167" s="34" t="s">
+      <c r="H210" s="79"/>
+      <c r="I210" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="60"/>
-      <c r="B168" s="65"/>
-      <c r="C168" s="2" t="s">
+    <row r="211" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A211" s="62"/>
+      <c r="B211" s="63"/>
+      <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F211" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G211" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H168" s="74"/>
-      <c r="I168" s="34" t="s">
+      <c r="H211" s="79"/>
+      <c r="I211" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="60"/>
-      <c r="B169" s="65"/>
-      <c r="C169" s="2" t="s">
+    <row r="212" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A212" s="62"/>
+      <c r="B212" s="63"/>
+      <c r="C212" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H169" s="74"/>
-      <c r="I169" s="34" t="s">
+      <c r="H212" s="79"/>
+      <c r="I212" s="34" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="C170" s="2" t="s">
+    <row r="213" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F213" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G213" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H170" s="75" t="s">
-        <v>576</v>
-      </c>
-      <c r="I170" s="25"/>
+      <c r="H213" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I213" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="H165:H169"/>
+  <mergeCells count="85">
+    <mergeCell ref="H208:H212"/>
     <mergeCell ref="H41:H44"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
@@ -5971,24 +6729,30 @@
     <mergeCell ref="F46:F47"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="H46:H47"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="A148:A164"/>
-    <mergeCell ref="B148:B164"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="A121:A136"/>
-    <mergeCell ref="B121:B136"/>
-    <mergeCell ref="A137:A143"/>
-    <mergeCell ref="B137:B143"/>
-    <mergeCell ref="A87:A99"/>
-    <mergeCell ref="B87:B99"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="B208:B212"/>
+    <mergeCell ref="A191:A207"/>
+    <mergeCell ref="B191:B207"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="A164:A179"/>
+    <mergeCell ref="B164:B179"/>
+    <mergeCell ref="A180:A186"/>
+    <mergeCell ref="B180:B186"/>
+    <mergeCell ref="A101:A113"/>
+    <mergeCell ref="B101:B113"/>
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="A70:A86"/>
     <mergeCell ref="B70:B86"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B63"/>
@@ -5997,27 +6761,49 @@
     <mergeCell ref="B3:B38"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="H161:H163"/>
+    <mergeCell ref="H155:H156"/>
     <mergeCell ref="H70:H86"/>
-    <mergeCell ref="H144:H146"/>
-    <mergeCell ref="H137:H143"/>
-    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="H187:H189"/>
+    <mergeCell ref="H180:H186"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A116:A124"/>
+    <mergeCell ref="B116:B124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6285,16 +7071,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA35EFD-202A-4224-80EE-635D00C9954C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="d391a701-1e72-4a9c-8e27-32ae852ac85b"/>
     <ds:schemaRef ds:uri="748de206-7911-403a-93a2-ff3feb5ad88e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/codebook_combined.xlsx
+++ b/codebook_combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill.sharepoint.com/sites/PROSPERED_Group/Shared Documents/General/CIHR RSBY India/data/Linking code and CSVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1740" documentId="8_{54C3D132-FD60-E343-8A70-19C775275FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A99FE2C-D21B-A149-99E3-28081AA24F20}"/>
+  <xr:revisionPtr revIDLastSave="1741" documentId="8_{54C3D132-FD60-E343-8A70-19C775275FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8351BA15-C6B0-494F-9260-5C04447325B6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{73DF8F02-1432-4841-ABC8-0F245F1B77ED}"/>
+    <workbookView xWindow="8820" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{73DF8F02-1432-4841-ABC8-0F245F1B77ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="630">
   <si>
     <t>Variable</t>
   </si>
@@ -1490,9 +1490,6 @@
   </si>
   <si>
     <t>should be matched from census. Will further investigate.</t>
-  </si>
-  <si>
-    <t>Have harmonized to a binary yes/no whether the individual lives in a scheduled caste or scheduled tribe.</t>
   </si>
   <si>
     <t>HARMONIZED</t>
@@ -2137,7 +2134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2263,17 +2260,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2286,17 +2290,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2304,11 +2302,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2327,45 +2343,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2688,10 +2665,10 @@
   <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
+      <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2733,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -2760,10 +2737,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2785,8 +2762,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
-      <c r="B4" s="74"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
@@ -2807,8 +2784,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="74"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="2" t="s">
         <v>66</v>
       </c>
@@ -2829,8 +2806,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
@@ -2851,8 +2828,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="76"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
@@ -2873,8 +2850,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="76"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
@@ -2895,8 +2872,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
@@ -2917,8 +2894,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="2" t="s">
         <v>71</v>
       </c>
@@ -2939,8 +2916,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="76"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="2" t="s">
         <v>72</v>
       </c>
@@ -2961,8 +2938,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="76"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2980,8 +2957,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="76"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
@@ -2999,8 +2976,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="76"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="2" t="s">
         <v>75</v>
       </c>
@@ -3018,8 +2995,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="76"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="2" t="s">
         <v>76</v>
       </c>
@@ -3037,8 +3014,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="76"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="2" t="s">
         <v>77</v>
       </c>
@@ -3056,8 +3033,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="76"/>
-      <c r="B17" s="74"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="2" t="s">
         <v>78</v>
       </c>
@@ -3075,8 +3052,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="76"/>
-      <c r="B18" s="74"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="2" t="s">
         <v>79</v>
       </c>
@@ -3094,8 +3071,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="76"/>
-      <c r="B19" s="74"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
@@ -3113,8 +3090,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="2" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3109,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="76"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="2" t="s">
         <v>82</v>
       </c>
@@ -3151,8 +3128,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="76"/>
-      <c r="B22" s="74"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="2" t="s">
         <v>83</v>
       </c>
@@ -3170,8 +3147,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="76"/>
-      <c r="B23" s="74"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="2" t="s">
         <v>84</v>
       </c>
@@ -3189,8 +3166,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="76"/>
-      <c r="B24" s="74"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="2" t="s">
         <v>85</v>
       </c>
@@ -3205,8 +3182,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="76"/>
-      <c r="B25" s="74"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="2" t="s">
         <v>86</v>
       </c>
@@ -3221,8 +3198,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="76"/>
-      <c r="B26" s="74"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="2" t="s">
         <v>87</v>
       </c>
@@ -3237,8 +3214,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="76"/>
-      <c r="B27" s="74"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="2" t="s">
         <v>88</v>
       </c>
@@ -3253,8 +3230,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="76"/>
-      <c r="B28" s="74"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="2" t="s">
         <v>89</v>
       </c>
@@ -3269,8 +3246,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="76"/>
-      <c r="B29" s="74"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
@@ -3285,8 +3262,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="76"/>
-      <c r="B30" s="74"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="2" t="s">
         <v>91</v>
       </c>
@@ -3301,8 +3278,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="76"/>
-      <c r="B31" s="74"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="2" t="s">
         <v>92</v>
       </c>
@@ -3317,8 +3294,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="76"/>
-      <c r="B32" s="74"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="2" t="s">
         <v>93</v>
       </c>
@@ -3333,8 +3310,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
-      <c r="B33" s="74"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="2" t="s">
         <v>94</v>
       </c>
@@ -3349,8 +3326,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="76"/>
-      <c r="B34" s="74"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="2" t="s">
         <v>95</v>
       </c>
@@ -3365,8 +3342,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="76"/>
-      <c r="B35" s="74"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="2" t="s">
         <v>96</v>
       </c>
@@ -3381,8 +3358,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="76"/>
-      <c r="B36" s="74"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="2" t="s">
         <v>97</v>
       </c>
@@ -3397,8 +3374,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="76"/>
-      <c r="B37" s="74"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="64"/>
       <c r="E37" s="1" t="s">
         <v>325</v>
       </c>
@@ -3410,8 +3387,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="77"/>
-      <c r="B38" s="73"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="16"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
@@ -3430,25 +3407,25 @@
         <v>16</v>
       </c>
       <c r="C39" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="E39" s="12" t="s">
+      <c r="F39" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="G39" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="H39" s="35" t="s">
         <v>559</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="I39" s="12" t="s">
         <v>560</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -3477,111 +3454,111 @@
         <v>484</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="55" t="s">
+        <v>533</v>
+      </c>
+      <c r="B41" s="57" t="s">
         <v>534</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="C41" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>536</v>
-      </c>
       <c r="D41" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="H41" s="80"/>
+        <v>535</v>
+      </c>
+      <c r="H41" s="52"/>
       <c r="I41" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H42" s="53"/>
+      <c r="I42" s="34" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H42" s="81"/>
-      <c r="I42" s="34" t="s">
+      <c r="H43" s="53"/>
+      <c r="I43" s="34" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="1" t="s">
+    <row r="44" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="56"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="H43" s="81"/>
-      <c r="I43" s="34" t="s">
+      <c r="H44" s="54"/>
+      <c r="I44" s="39" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="H44" s="82"/>
-      <c r="I44" s="39" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="B45" s="26" t="s">
         <v>537</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>538</v>
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="43"/>
@@ -3590,35 +3567,35 @@
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
       <c r="I45" s="31" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="55" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="s">
+      <c r="B46" s="57" t="s">
         <v>540</v>
       </c>
-      <c r="B46" s="56" t="s">
-        <v>541</v>
-      </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
       <c r="I46" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
       <c r="I47" s="31" t="s">
         <v>60</v>
       </c>
@@ -3637,24 +3614,24 @@
         <v>17</v>
       </c>
       <c r="E48" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>542</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>543</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>425</v>
       </c>
       <c r="I48" s="44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="15" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>562</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>563</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>22</v>
@@ -3672,13 +3649,13 @@
         <v>22</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I49" s="31"/>
     </row>
     <row r="50" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>19</v>
@@ -3699,7 +3676,7 @@
         <v>18</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3725,14 +3702,14 @@
         <v>22</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="63" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3751,12 +3728,12 @@
         <v>25</v>
       </c>
       <c r="I52" s="30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="65"/>
-      <c r="B53" s="73"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="16" t="s">
         <v>26</v>
       </c>
@@ -3773,14 +3750,14 @@
         <v>26</v>
       </c>
       <c r="I53" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="63" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -3803,8 +3780,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
-      <c r="B55" s="74"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="2" t="s">
         <v>98</v>
       </c>
@@ -3825,8 +3802,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
-      <c r="B56" s="74"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="64"/>
       <c r="C56" s="2" t="s">
         <v>99</v>
       </c>
@@ -3847,8 +3824,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
-      <c r="B57" s="74"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="2" t="s">
         <v>100</v>
       </c>
@@ -3869,8 +3846,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
-      <c r="B58" s="74"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="2" t="s">
         <v>101</v>
       </c>
@@ -3891,8 +3868,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
-      <c r="B59" s="74"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="2" t="s">
         <v>102</v>
       </c>
@@ -3913,8 +3890,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="62"/>
-      <c r="B60" s="74"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="2" t="s">
         <v>103</v>
       </c>
@@ -3935,8 +3912,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="62"/>
-      <c r="B61" s="74"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="2" t="s">
         <v>104</v>
       </c>
@@ -3957,8 +3934,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="62"/>
-      <c r="B62" s="74"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="64"/>
       <c r="C62" s="2" t="s">
         <v>105</v>
       </c>
@@ -3976,8 +3953,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="55"/>
-      <c r="B63" s="73"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="16" t="s">
         <v>106</v>
       </c>
@@ -3992,11 +3969,11 @@
       </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="54" t="s">
+    <row r="64" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="63" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="9" t="s">
@@ -4014,16 +3991,14 @@
       <c r="G64" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>485</v>
-      </c>
+      <c r="H64" s="5"/>
       <c r="I64" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="62"/>
-      <c r="B65" s="74"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="2" t="s">
         <v>108</v>
       </c>
@@ -4040,12 +4015,12 @@
         <v>430</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
-      <c r="B66" s="74"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="2" t="s">
         <v>107</v>
       </c>
@@ -4062,12 +4037,12 @@
         <v>431</v>
       </c>
       <c r="I66" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="62"/>
-      <c r="B67" s="74"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="2" t="s">
         <v>109</v>
       </c>
@@ -4082,8 +4057,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="55"/>
-      <c r="B68" s="73"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="16"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
@@ -4096,38 +4071,38 @@
     </row>
     <row r="69" spans="1:9" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="C69" s="48" t="s">
         <v>567</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="D69" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="F69" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="G69" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="H69" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="D69" s="48" t="s">
-        <v>568</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>568</v>
-      </c>
-      <c r="F69" s="48" t="s">
-        <v>568</v>
-      </c>
-      <c r="G69" s="48" t="s">
-        <v>568</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>569</v>
-      </c>
       <c r="I69" s="45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="63" t="s">
         <v>50</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -4145,7 +4120,7 @@
       <c r="G70" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H70" s="66" t="s">
+      <c r="H70" s="71" t="s">
         <v>236</v>
       </c>
       <c r="I70" s="36" t="s">
@@ -4153,8 +4128,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="62"/>
-      <c r="B71" s="74"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="64"/>
       <c r="C71" s="2" t="s">
         <v>157</v>
       </c>
@@ -4170,14 +4145,14 @@
       <c r="G71" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H71" s="67"/>
+      <c r="H71" s="72"/>
       <c r="I71" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="62"/>
-      <c r="B72" s="74"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="64"/>
       <c r="C72" s="2" t="s">
         <v>158</v>
       </c>
@@ -4193,14 +4168,14 @@
       <c r="G72" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H72" s="67"/>
+      <c r="H72" s="72"/>
       <c r="I72" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="62"/>
-      <c r="B73" s="74"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="2" t="s">
         <v>159</v>
       </c>
@@ -4211,19 +4186,19 @@
         <v>240</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H73" s="67"/>
+      <c r="H73" s="72"/>
       <c r="I73" s="37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="62"/>
-      <c r="B74" s="74"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="64"/>
       <c r="C74" s="2" t="s">
         <v>160</v>
       </c>
@@ -4239,14 +4214,14 @@
       <c r="G74" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H74" s="67"/>
+      <c r="H74" s="72"/>
       <c r="I74" s="37" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="62"/>
-      <c r="B75" s="74"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="2" t="s">
         <v>161</v>
       </c>
@@ -4262,14 +4237,14 @@
       <c r="G75" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H75" s="67"/>
+      <c r="H75" s="72"/>
       <c r="I75" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="62"/>
-      <c r="B76" s="74"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="2" t="s">
         <v>162</v>
       </c>
@@ -4285,14 +4260,14 @@
       <c r="G76" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="H76" s="67"/>
+      <c r="H76" s="72"/>
       <c r="I76" s="34" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="62"/>
-      <c r="B77" s="74"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="2" t="s">
         <v>163</v>
       </c>
@@ -4308,14 +4283,14 @@
       <c r="G77" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="H77" s="67"/>
+      <c r="H77" s="72"/>
       <c r="I77" s="37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="62"/>
-      <c r="B78" s="74"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="64"/>
       <c r="C78" s="2" t="s">
         <v>164</v>
       </c>
@@ -4331,11 +4306,11 @@
       <c r="G78" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H78" s="67"/>
+      <c r="H78" s="72"/>
     </row>
     <row r="79" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="62"/>
-      <c r="B79" s="74"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="64"/>
       <c r="C79" s="2" t="s">
         <v>165</v>
       </c>
@@ -4348,12 +4323,12 @@
       <c r="F79" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H79" s="67"/>
+      <c r="H79" s="72"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="62"/>
-      <c r="B80" s="74"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="64"/>
       <c r="C80" s="2" t="s">
         <v>166</v>
       </c>
@@ -4366,12 +4341,12 @@
       <c r="F80" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H80" s="67"/>
+      <c r="H80" s="72"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="62"/>
-      <c r="B81" s="74"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="2" t="s">
         <v>167</v>
       </c>
@@ -4384,11 +4359,11 @@
       <c r="F81" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H81" s="67"/>
+      <c r="H81" s="72"/>
     </row>
     <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="62"/>
-      <c r="B82" s="74"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="2" t="s">
         <v>168</v>
       </c>
@@ -4401,11 +4376,11 @@
       <c r="F82" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H82" s="67"/>
+      <c r="H82" s="72"/>
     </row>
     <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="62"/>
-      <c r="B83" s="74"/>
+      <c r="A83" s="61"/>
+      <c r="B83" s="64"/>
       <c r="C83" s="2" t="s">
         <v>155</v>
       </c>
@@ -4418,212 +4393,179 @@
       <c r="F83" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H83" s="67"/>
+      <c r="H83" s="72"/>
     </row>
     <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="62"/>
-      <c r="B84" s="74"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="64"/>
       <c r="E84" s="3" t="s">
         <v>250</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="H84" s="67"/>
+        <v>620</v>
+      </c>
+      <c r="H84" s="72"/>
     </row>
     <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="62"/>
-      <c r="B85" s="74"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="64"/>
       <c r="E85" s="1" t="s">
         <v>251</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H85" s="67"/>
+      <c r="H85" s="72"/>
     </row>
     <row r="86" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
-      <c r="B86" s="73"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="65"/>
       <c r="C86" s="16"/>
       <c r="D86" s="7"/>
       <c r="F86" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G86" s="7"/>
-      <c r="H86" s="68"/>
-    </row>
-    <row r="87" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="54" t="s">
+      <c r="H86" s="73"/>
+    </row>
+    <row r="87" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="55" t="s">
+        <v>621</v>
+      </c>
+      <c r="B87" s="57" t="s">
         <v>622</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="E87"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="25" t="s">
         <v>623</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="50"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="53" t="s">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="61"/>
+      <c r="B88" s="62"/>
+      <c r="E88"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="25" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="62"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="50"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="53" t="s">
-        <v>625</v>
-      </c>
-    </row>
     <row r="89" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="55"/>
-      <c r="B89" s="57"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="58"/>
       <c r="C89" s="16"/>
       <c r="D89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="49"/>
+      <c r="H89" s="47"/>
       <c r="I89" s="31" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="54" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="55" t="s">
+        <v>573</v>
+      </c>
+      <c r="B90" s="57" t="s">
         <v>574</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="E90"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="25" t="s">
         <v>575</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="53" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="91" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="55"/>
-      <c r="B91" s="57"/>
+      <c r="A91" s="56"/>
+      <c r="B91" s="58"/>
       <c r="C91" s="16"/>
       <c r="D91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="47"/>
       <c r="I91" s="31" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="55" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="54" t="s">
+      <c r="B92" s="57" t="s">
         <v>578</v>
       </c>
-      <c r="B92" s="56" t="s">
+      <c r="E92"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="53" t="s">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="61"/>
+      <c r="B93" s="62"/>
+      <c r="E93"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="25" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="62"/>
-      <c r="B93" s="63"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="53" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="61"/>
+      <c r="B94" s="62"/>
+      <c r="E94"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="25" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="62"/>
-      <c r="B94" s="63"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="53" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="61"/>
+      <c r="B95" s="62"/>
+      <c r="E95"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="25" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="62"/>
-      <c r="B95" s="63"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="50"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="53" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="61"/>
+      <c r="B96" s="62"/>
+      <c r="E96"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="25" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="62"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="50"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="53" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="61"/>
+      <c r="B97" s="62"/>
+      <c r="E97"/>
+      <c r="H97" s="49"/>
+      <c r="I97" s="25" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="62"/>
-      <c r="B97" s="63"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="50"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="53" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="61"/>
+      <c r="B98" s="62"/>
+      <c r="E98"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="25" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="62"/>
-      <c r="B98" s="63"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="50"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="53" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="61"/>
+      <c r="B99" s="62"/>
+      <c r="E99"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="25" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="62"/>
-      <c r="B99" s="63"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="50"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="53" t="s">
-        <v>587</v>
-      </c>
-    </row>
     <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="55"/>
-      <c r="B100" s="57"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="16"/>
       <c r="D100" s="7"/>
       <c r="F100" s="7"/>
@@ -4632,10 +4574,10 @@
       <c r="I100" s="31"/>
     </row>
     <row r="101" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="54" t="s">
-        <v>570</v>
-      </c>
-      <c r="B101" s="72" t="s">
+      <c r="A101" s="55" t="s">
+        <v>569</v>
+      </c>
+      <c r="B101" s="63" t="s">
         <v>219</v>
       </c>
       <c r="C101" s="9" t="s">
@@ -4654,12 +4596,12 @@
         <v>435</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="62"/>
-      <c r="B102" s="74"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="64"/>
       <c r="C102" s="2" t="s">
         <v>110</v>
       </c>
@@ -4680,8 +4622,8 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="62"/>
-      <c r="B103" s="74"/>
+      <c r="A103" s="61"/>
+      <c r="B103" s="64"/>
       <c r="C103" s="2" t="s">
         <v>111</v>
       </c>
@@ -4702,8 +4644,8 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="62"/>
-      <c r="B104" s="74"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="64"/>
       <c r="C104" s="2" t="s">
         <v>112</v>
       </c>
@@ -4724,8 +4666,8 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="62"/>
-      <c r="B105" s="74"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="64"/>
       <c r="C105" s="2" t="s">
         <v>113</v>
       </c>
@@ -4746,8 +4688,8 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="62"/>
-      <c r="B106" s="74"/>
+      <c r="A106" s="61"/>
+      <c r="B106" s="64"/>
       <c r="C106" s="2" t="s">
         <v>114</v>
       </c>
@@ -4768,8 +4710,8 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="62"/>
-      <c r="B107" s="74"/>
+      <c r="A107" s="61"/>
+      <c r="B107" s="64"/>
       <c r="C107" s="2" t="s">
         <v>115</v>
       </c>
@@ -4790,8 +4732,8 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="62"/>
-      <c r="B108" s="74"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="64"/>
       <c r="C108" s="2" t="s">
         <v>116</v>
       </c>
@@ -4812,8 +4754,8 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="62"/>
-      <c r="B109" s="74"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="64"/>
       <c r="C109" s="2" t="s">
         <v>117</v>
       </c>
@@ -4830,12 +4772,12 @@
         <v>443</v>
       </c>
       <c r="I109" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="62"/>
-      <c r="B110" s="74"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="64"/>
       <c r="C110" s="2" t="s">
         <v>118</v>
       </c>
@@ -4852,12 +4794,12 @@
         <v>444</v>
       </c>
       <c r="I110" s="34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="62"/>
-      <c r="B111" s="74"/>
+      <c r="A111" s="61"/>
+      <c r="B111" s="64"/>
       <c r="C111" s="2" t="s">
         <v>119</v>
       </c>
@@ -4872,8 +4814,8 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="62"/>
-      <c r="B112" s="74"/>
+      <c r="A112" s="61"/>
+      <c r="B112" s="64"/>
       <c r="C112" s="2" t="s">
         <v>106</v>
       </c>
@@ -4888,8 +4830,8 @@
       </c>
     </row>
     <row r="113" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="55"/>
-      <c r="B113" s="73"/>
+      <c r="A113" s="56"/>
+      <c r="B113" s="65"/>
       <c r="C113" s="16"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7" t="s">
@@ -4900,403 +4842,313 @@
       </c>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="58" t="s">
+    <row r="114" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="B114" s="57" t="s">
         <v>588</v>
       </c>
-      <c r="B114" s="60" t="s">
+      <c r="I114" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="50"/>
-      <c r="G114" s="50"/>
-      <c r="I114" s="53" t="s">
-        <v>590</v>
-      </c>
     </row>
     <row r="115" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="59"/>
-      <c r="B115" s="61"/>
+      <c r="A115" s="56"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="16"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="I115" s="31" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="54" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="55" t="s">
+        <v>590</v>
+      </c>
+      <c r="B116" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="B116" s="56" t="s">
+      <c r="I116" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="50"/>
-      <c r="F116" s="50"/>
-      <c r="G116" s="50"/>
-      <c r="I116" s="53" t="s">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="61"/>
+      <c r="B117" s="62"/>
+      <c r="I117" s="25" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="62"/>
-      <c r="B117" s="63"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="50"/>
-      <c r="E117" s="50"/>
-      <c r="F117" s="50"/>
-      <c r="G117" s="50"/>
-      <c r="I117" s="53" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="61"/>
+      <c r="B118" s="62"/>
+      <c r="I118" s="25" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="62"/>
-      <c r="B118" s="63"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
-      <c r="I118" s="53" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="61"/>
+      <c r="B119" s="62"/>
+      <c r="I119" s="25" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="62"/>
-      <c r="B119" s="63"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="50"/>
-      <c r="I119" s="53" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="61"/>
+      <c r="B120" s="62"/>
+      <c r="I120" s="25" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="62"/>
-      <c r="B120" s="63"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="50"/>
-      <c r="E120" s="50"/>
-      <c r="F120" s="50"/>
-      <c r="G120" s="50"/>
-      <c r="I120" s="53" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="61"/>
+      <c r="B121" s="62"/>
+      <c r="I121" s="25" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="62"/>
-      <c r="B121" s="63"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="50"/>
-      <c r="E121" s="50"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
-      <c r="I121" s="53" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="61"/>
+      <c r="B122" s="62"/>
+      <c r="I122" s="25" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="62"/>
-      <c r="B122" s="63"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="50"/>
-      <c r="E122" s="50"/>
-      <c r="F122" s="50"/>
-      <c r="G122" s="50"/>
-      <c r="I122" s="53" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="61"/>
+      <c r="B123" s="62"/>
+      <c r="I123" s="25" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="62"/>
-      <c r="B123" s="63"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="50"/>
-      <c r="E123" s="50"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
-      <c r="I123" s="53" t="s">
-        <v>600</v>
-      </c>
-    </row>
     <row r="124" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="55"/>
-      <c r="B124" s="57"/>
+      <c r="A124" s="56"/>
+      <c r="B124" s="58"/>
       <c r="C124" s="16"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="I124" s="31" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="55" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="54" t="s">
+      <c r="B125" s="57" t="s">
         <v>602</v>
       </c>
-      <c r="B125" s="56" t="s">
-        <v>603</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="50"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
-      <c r="I125" s="53" t="s">
-        <v>590</v>
+      <c r="I125" s="25" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="55"/>
-      <c r="B126" s="57"/>
+      <c r="A126" s="56"/>
+      <c r="B126" s="58"/>
       <c r="C126" s="16"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="I126" s="31" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="55" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="54" t="s">
+      <c r="B127" s="57" t="s">
         <v>605</v>
       </c>
-      <c r="B127" s="56" t="s">
-        <v>606</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="50"/>
-      <c r="E127" s="50"/>
-      <c r="F127" s="50"/>
-      <c r="G127" s="50"/>
-      <c r="I127" s="53" t="s">
-        <v>590</v>
+      <c r="I127" s="25" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="55"/>
-      <c r="B128" s="57"/>
+      <c r="A128" s="56"/>
+      <c r="B128" s="58"/>
       <c r="C128" s="16"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="I128" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="54" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="55" t="s">
+        <v>606</v>
+      </c>
+      <c r="B129" s="57" t="s">
         <v>607</v>
       </c>
-      <c r="B129" s="56" t="s">
-        <v>608</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="50"/>
-      <c r="E129" s="50"/>
-      <c r="F129" s="50"/>
-      <c r="G129" s="50"/>
-      <c r="I129" s="53" t="s">
-        <v>590</v>
+      <c r="I129" s="25" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="55"/>
-      <c r="B130" s="57"/>
+      <c r="A130" s="56"/>
+      <c r="B130" s="58"/>
       <c r="C130" s="16"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="I130" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="54" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="55" t="s">
+        <v>608</v>
+      </c>
+      <c r="B131" s="57" t="s">
         <v>609</v>
       </c>
-      <c r="B131" s="56" t="s">
-        <v>610</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="50"/>
-      <c r="E131" s="50"/>
-      <c r="F131" s="50"/>
-      <c r="G131" s="50"/>
-      <c r="I131" s="53" t="s">
-        <v>590</v>
+      <c r="I131" s="25" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="55"/>
-      <c r="B132" s="57"/>
+      <c r="A132" s="56"/>
+      <c r="B132" s="58"/>
       <c r="C132" s="16"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="I132" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="54" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="55" t="s">
+        <v>610</v>
+      </c>
+      <c r="B133" s="57" t="s">
         <v>611</v>
       </c>
-      <c r="B133" s="56" t="s">
-        <v>612</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="50"/>
-      <c r="E133" s="50"/>
-      <c r="F133" s="50"/>
-      <c r="G133" s="50"/>
-      <c r="I133" s="53" t="s">
-        <v>590</v>
+      <c r="I133" s="25" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="55"/>
-      <c r="B134" s="57"/>
+      <c r="A134" s="56"/>
+      <c r="B134" s="58"/>
       <c r="C134" s="16"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="I134" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="54" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="B135" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="B135" s="56" t="s">
-        <v>614</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="50"/>
-      <c r="F135" s="50"/>
-      <c r="G135" s="50"/>
-      <c r="I135" s="53" t="s">
-        <v>590</v>
+      <c r="I135" s="25" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="55"/>
-      <c r="B136" s="57"/>
+      <c r="A136" s="56"/>
+      <c r="B136" s="58"/>
       <c r="C136" s="16"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="I136" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="54" t="s">
-        <v>616</v>
-      </c>
-      <c r="B137" s="56" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="55" t="s">
         <v>615</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="50"/>
-      <c r="E137" s="50"/>
-      <c r="F137" s="50"/>
-      <c r="G137" s="50"/>
-      <c r="I137" s="53" t="s">
-        <v>590</v>
+      <c r="B137" s="57" t="s">
+        <v>614</v>
+      </c>
+      <c r="I137" s="25" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="55"/>
-      <c r="B138" s="57"/>
+      <c r="A138" s="56"/>
+      <c r="B138" s="58"/>
       <c r="C138" s="16"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="I138" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="54" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="55" t="s">
+        <v>616</v>
+      </c>
+      <c r="B139" s="57" t="s">
         <v>617</v>
       </c>
-      <c r="B139" s="56" t="s">
-        <v>618</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="50"/>
-      <c r="E139" s="50"/>
-      <c r="F139" s="50"/>
-      <c r="G139" s="50"/>
-      <c r="I139" s="53" t="s">
-        <v>590</v>
+      <c r="I139" s="25" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="55"/>
-      <c r="B140" s="57"/>
+      <c r="A140" s="56"/>
+      <c r="B140" s="58"/>
       <c r="C140" s="16"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="I140" s="31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="54" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="55" t="s">
+        <v>618</v>
+      </c>
+      <c r="B141" s="57" t="s">
         <v>619</v>
       </c>
-      <c r="B141" s="56" t="s">
-        <v>620</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="50"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="50"/>
-      <c r="G141" s="50"/>
-      <c r="I141" s="53" t="s">
-        <v>590</v>
+      <c r="I141" s="25" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="55"/>
-      <c r="B142" s="57"/>
+      <c r="A142" s="56"/>
+      <c r="B142" s="58"/>
       <c r="C142" s="16"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="I142" s="31" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="54" t="s">
+      <c r="A143" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B143" s="72" t="s">
+      <c r="B143" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C143" s="9" t="s">
@@ -5317,8 +5169,8 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="55"/>
-      <c r="B144" s="73"/>
+      <c r="A144" s="56"/>
+      <c r="B144" s="65"/>
       <c r="C144" s="2" t="s">
         <v>120</v>
       </c>
@@ -5336,10 +5188,10 @@
       </c>
     </row>
     <row r="145" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="54" t="s">
+      <c r="A145" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B145" s="72" t="s">
+      <c r="B145" s="63" t="s">
         <v>33</v>
       </c>
       <c r="C145" s="9" t="s">
@@ -5361,8 +5213,8 @@
       <c r="K145" s="6"/>
     </row>
     <row r="146" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="55"/>
-      <c r="B146" s="73"/>
+      <c r="A146" s="56"/>
+      <c r="B146" s="65"/>
       <c r="C146" s="2" t="s">
         <v>120</v>
       </c>
@@ -5377,10 +5229,10 @@
       </c>
     </row>
     <row r="147" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="54" t="s">
+      <c r="A147" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B147" s="72" t="s">
+      <c r="B147" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C147" s="9" t="s">
@@ -5396,7 +5248,7 @@
         <v>59</v>
       </c>
       <c r="G147" s="5"/>
-      <c r="H147" s="64" t="s">
+      <c r="H147" s="66" t="s">
         <v>222</v>
       </c>
       <c r="I147" s="38" t="s">
@@ -5405,8 +5257,8 @@
       <c r="J147" s="6"/>
     </row>
     <row r="148" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="55"/>
-      <c r="B148" s="73"/>
+      <c r="A148" s="56"/>
+      <c r="B148" s="65"/>
       <c r="C148" s="16" t="s">
         <v>120</v>
       </c>
@@ -5420,17 +5272,17 @@
         <v>60</v>
       </c>
       <c r="G148" s="7"/>
-      <c r="H148" s="65"/>
+      <c r="H148" s="67"/>
       <c r="I148" s="34" t="s">
         <v>60</v>
       </c>
       <c r="J148" s="8"/>
     </row>
     <row r="149" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="54" t="s">
+      <c r="A149" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B149" s="72" t="s">
+      <c r="B149" s="63" t="s">
         <v>223</v>
       </c>
       <c r="C149" s="9" t="s">
@@ -5453,8 +5305,8 @@
       <c r="J149" s="6"/>
     </row>
     <row r="150" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="55"/>
-      <c r="B150" s="73"/>
+      <c r="A150" s="56"/>
+      <c r="B150" s="65"/>
       <c r="C150" s="2" t="s">
         <v>120</v>
       </c>
@@ -5472,10 +5324,10 @@
       </c>
     </row>
     <row r="151" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="54" t="s">
+      <c r="A151" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B151" s="72" t="s">
+      <c r="B151" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C151" s="9" t="s">
@@ -5497,8 +5349,8 @@
       </c>
     </row>
     <row r="152" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="55"/>
-      <c r="B152" s="73"/>
+      <c r="A152" s="56"/>
+      <c r="B152" s="65"/>
       <c r="C152" s="2" t="s">
         <v>120</v>
       </c>
@@ -5516,10 +5368,10 @@
       </c>
     </row>
     <row r="153" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="54" t="s">
+      <c r="A153" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B153" s="72" t="s">
+      <c r="B153" s="63" t="s">
         <v>225</v>
       </c>
       <c r="C153" s="9" t="s">
@@ -5535,16 +5387,16 @@
         <v>59</v>
       </c>
       <c r="G153" s="5"/>
-      <c r="H153" s="70" t="s">
-        <v>494</v>
+      <c r="H153" s="75" t="s">
+        <v>493</v>
       </c>
       <c r="I153" s="38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="55"/>
-      <c r="B154" s="73"/>
+      <c r="A154" s="56"/>
+      <c r="B154" s="65"/>
       <c r="C154" s="16" t="s">
         <v>120</v>
       </c>
@@ -5558,16 +5410,16 @@
         <v>60</v>
       </c>
       <c r="G154" s="7"/>
-      <c r="H154" s="71"/>
+      <c r="H154" s="76"/>
       <c r="I154" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="54" t="s">
+      <c r="A155" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B155" s="72" t="s">
+      <c r="B155" s="63" t="s">
         <v>226</v>
       </c>
       <c r="C155" s="9" t="s">
@@ -5583,7 +5435,7 @@
         <v>59</v>
       </c>
       <c r="G155" s="5"/>
-      <c r="H155" s="66" t="s">
+      <c r="H155" s="71" t="s">
         <v>445</v>
       </c>
       <c r="I155" s="38" t="s">
@@ -5591,8 +5443,8 @@
       </c>
     </row>
     <row r="156" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="55"/>
-      <c r="B156" s="73"/>
+      <c r="A156" s="56"/>
+      <c r="B156" s="65"/>
       <c r="C156" s="16" t="s">
         <v>120</v>
       </c>
@@ -5606,7 +5458,7 @@
         <v>60</v>
       </c>
       <c r="G156" s="7"/>
-      <c r="H156" s="68"/>
+      <c r="H156" s="73"/>
       <c r="I156" s="34" t="s">
         <v>60</v>
       </c>
@@ -5632,7 +5484,7 @@
       </c>
       <c r="G157" s="12"/>
       <c r="I157" s="29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="158" spans="1:11" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -5704,14 +5556,14 @@
       </c>
       <c r="G160" s="5"/>
       <c r="I160" s="30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="54" t="s">
+      <c r="A161" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B161" s="72" t="s">
+      <c r="B161" s="63" t="s">
         <v>230</v>
       </c>
       <c r="C161" s="9" t="s">
@@ -5729,14 +5581,14 @@
       <c r="G161" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H161" s="66"/>
+      <c r="H161" s="71"/>
       <c r="I161" s="38" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="62"/>
-      <c r="B162" s="74"/>
+      <c r="A162" s="61"/>
+      <c r="B162" s="64"/>
       <c r="C162" s="2" t="s">
         <v>122</v>
       </c>
@@ -5750,16 +5602,16 @@
         <v>216</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H162" s="67"/>
+        <v>496</v>
+      </c>
+      <c r="H162" s="72"/>
       <c r="I162" s="34" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="55"/>
-      <c r="B163" s="73"/>
+      <c r="A163" s="56"/>
+      <c r="B163" s="65"/>
       <c r="C163" s="16" t="s">
         <v>123</v>
       </c>
@@ -5769,15 +5621,15 @@
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="H163" s="68"/>
+        <v>497</v>
+      </c>
+      <c r="H163" s="73"/>
     </row>
     <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="54" t="s">
+      <c r="A164" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B164" s="72" t="s">
+      <c r="B164" s="63" t="s">
         <v>231</v>
       </c>
       <c r="C164" s="9" t="s">
@@ -5793,7 +5645,7 @@
         <v>266</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H164" s="6"/>
       <c r="I164" s="34" t="s">
@@ -5801,8 +5653,8 @@
       </c>
     </row>
     <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="62"/>
-      <c r="B165" s="74"/>
+      <c r="A165" s="61"/>
+      <c r="B165" s="64"/>
       <c r="C165" s="2" t="s">
         <v>124</v>
       </c>
@@ -5816,15 +5668,15 @@
         <v>267</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I165" s="34" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="62"/>
-      <c r="B166" s="74"/>
+      <c r="A166" s="61"/>
+      <c r="B166" s="64"/>
       <c r="C166" s="2" t="s">
         <v>125</v>
       </c>
@@ -5838,13 +5690,13 @@
         <v>264</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I166" s="1"/>
     </row>
     <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="62"/>
-      <c r="B167" s="74"/>
+      <c r="A167" s="61"/>
+      <c r="B167" s="64"/>
       <c r="C167" s="2" t="s">
         <v>126</v>
       </c>
@@ -5858,12 +5710,12 @@
         <v>265</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="62"/>
-      <c r="B168" s="74"/>
+      <c r="A168" s="61"/>
+      <c r="B168" s="64"/>
       <c r="C168" s="2" t="s">
         <v>127</v>
       </c>
@@ -5877,12 +5729,12 @@
         <v>268</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="62"/>
-      <c r="B169" s="74"/>
+      <c r="A169" s="61"/>
+      <c r="B169" s="64"/>
       <c r="C169" s="2" t="s">
         <v>128</v>
       </c>
@@ -5896,12 +5748,12 @@
         <v>269</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A170" s="62"/>
-      <c r="B170" s="74"/>
+      <c r="A170" s="61"/>
+      <c r="B170" s="64"/>
       <c r="C170" s="2" t="s">
         <v>129</v>
       </c>
@@ -5915,12 +5767,12 @@
         <v>270</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="62"/>
-      <c r="B171" s="74"/>
+      <c r="A171" s="61"/>
+      <c r="B171" s="64"/>
       <c r="C171" s="2" t="s">
         <v>130</v>
       </c>
@@ -5934,12 +5786,12 @@
         <v>271</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="62"/>
-      <c r="B172" s="74"/>
+      <c r="A172" s="61"/>
+      <c r="B172" s="64"/>
       <c r="C172" s="2" t="s">
         <v>131</v>
       </c>
@@ -5953,12 +5805,12 @@
         <v>272</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A173" s="62"/>
-      <c r="B173" s="74"/>
+      <c r="A173" s="61"/>
+      <c r="B173" s="64"/>
       <c r="C173" s="2" t="s">
         <v>132</v>
       </c>
@@ -5972,12 +5824,12 @@
         <v>273</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A174" s="62"/>
-      <c r="B174" s="74"/>
+      <c r="A174" s="61"/>
+      <c r="B174" s="64"/>
       <c r="C174" s="2" t="s">
         <v>133</v>
       </c>
@@ -5991,12 +5843,12 @@
         <v>274</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A175" s="62"/>
-      <c r="B175" s="74"/>
+      <c r="A175" s="61"/>
+      <c r="B175" s="64"/>
       <c r="C175" s="2" t="s">
         <v>134</v>
       </c>
@@ -6010,12 +5862,12 @@
         <v>275</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="62"/>
-      <c r="B176" s="74"/>
+      <c r="A176" s="61"/>
+      <c r="B176" s="64"/>
       <c r="C176" s="2" t="s">
         <v>135</v>
       </c>
@@ -6029,12 +5881,12 @@
         <v>276</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="62"/>
-      <c r="B177" s="74"/>
+      <c r="A177" s="61"/>
+      <c r="B177" s="64"/>
       <c r="C177" s="2" t="s">
         <v>136</v>
       </c>
@@ -6049,8 +5901,8 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="62"/>
-      <c r="B178" s="74"/>
+      <c r="A178" s="61"/>
+      <c r="B178" s="64"/>
       <c r="C178" s="2" t="s">
         <v>106</v>
       </c>
@@ -6059,8 +5911,8 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="55"/>
-      <c r="B179" s="73"/>
+      <c r="A179" s="56"/>
+      <c r="B179" s="65"/>
       <c r="C179" s="16"/>
       <c r="D179" s="7" t="s">
         <v>106</v>
@@ -6071,10 +5923,10 @@
       <c r="H179" s="8"/>
     </row>
     <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="54" t="s">
+      <c r="A180" s="55" t="s">
         <v>398</v>
       </c>
-      <c r="B180" s="56" t="s">
+      <c r="B180" s="57" t="s">
         <v>399</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -6090,18 +5942,18 @@
         <v>412</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H180" s="64" t="s">
-        <v>555</v>
+        <v>511</v>
+      </c>
+      <c r="H180" s="66" t="s">
+        <v>554</v>
       </c>
       <c r="I180" s="34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="62"/>
-      <c r="B181" s="63"/>
+      <c r="A181" s="61"/>
+      <c r="B181" s="62"/>
       <c r="C181" s="2" t="s">
         <v>406</v>
       </c>
@@ -6115,16 +5967,16 @@
         <v>413</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H181" s="69"/>
+        <v>512</v>
+      </c>
+      <c r="H181" s="74"/>
       <c r="I181" s="46" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="62"/>
-      <c r="B182" s="63"/>
+      <c r="A182" s="61"/>
+      <c r="B182" s="62"/>
       <c r="C182" s="2" t="s">
         <v>407</v>
       </c>
@@ -6138,14 +5990,14 @@
         <v>414</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H182" s="69"/>
+        <v>513</v>
+      </c>
+      <c r="H182" s="74"/>
       <c r="I182" s="7"/>
     </row>
     <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="62"/>
-      <c r="B183" s="63"/>
+      <c r="A183" s="61"/>
+      <c r="B183" s="62"/>
       <c r="C183" s="2" t="s">
         <v>408</v>
       </c>
@@ -6153,13 +6005,13 @@
         <v>403</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H183" s="69"/>
+        <v>514</v>
+      </c>
+      <c r="H183" s="74"/>
     </row>
     <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="62"/>
-      <c r="B184" s="63"/>
+      <c r="A184" s="61"/>
+      <c r="B184" s="62"/>
       <c r="C184" s="2" t="s">
         <v>409</v>
       </c>
@@ -6167,13 +6019,13 @@
         <v>404</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H184" s="69"/>
+        <v>515</v>
+      </c>
+      <c r="H184" s="74"/>
     </row>
     <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="62"/>
-      <c r="B185" s="63"/>
+      <c r="A185" s="61"/>
+      <c r="B185" s="62"/>
       <c r="C185" s="2" t="s">
         <v>410</v>
       </c>
@@ -6181,23 +6033,23 @@
         <v>405</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H185" s="69"/>
+        <v>516</v>
+      </c>
+      <c r="H185" s="74"/>
     </row>
     <row r="186" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="55"/>
-      <c r="B186" s="57"/>
+      <c r="A186" s="56"/>
+      <c r="B186" s="58"/>
       <c r="C186" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H186" s="65"/>
+      <c r="H186" s="67"/>
     </row>
     <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="54" t="s">
+      <c r="A187" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B187" s="72" t="s">
+      <c r="B187" s="63" t="s">
         <v>232</v>
       </c>
       <c r="C187" s="9" t="s">
@@ -6215,7 +6067,7 @@
       <c r="G187" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H187" s="66" t="s">
+      <c r="H187" s="71" t="s">
         <v>218</v>
       </c>
       <c r="I187" s="38" t="s">
@@ -6223,8 +6075,8 @@
       </c>
     </row>
     <row r="188" spans="1:9" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="62"/>
-      <c r="B188" s="74"/>
+      <c r="A188" s="61"/>
+      <c r="B188" s="64"/>
       <c r="C188" s="2" t="s">
         <v>120</v>
       </c>
@@ -6240,14 +6092,14 @@
       <c r="G188" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H188" s="67"/>
+      <c r="H188" s="72"/>
       <c r="I188" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="55"/>
-      <c r="B189" s="73"/>
+      <c r="A189" s="56"/>
+      <c r="B189" s="65"/>
       <c r="C189" s="16" t="s">
         <v>58</v>
       </c>
@@ -6255,7 +6107,7 @@
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
-      <c r="H189" s="68"/>
+      <c r="H189" s="73"/>
     </row>
     <row r="190" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
@@ -6281,14 +6133,14 @@
         <v>4</v>
       </c>
       <c r="I190" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="191" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="54" t="s">
+      <c r="A191" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B191" s="72" t="s">
+      <c r="B191" s="63" t="s">
         <v>234</v>
       </c>
       <c r="C191" s="9" t="s">
@@ -6304,12 +6156,12 @@
         <v>277</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="62"/>
-      <c r="B192" s="74"/>
+      <c r="A192" s="61"/>
+      <c r="B192" s="64"/>
       <c r="C192" s="2" t="s">
         <v>137</v>
       </c>
@@ -6323,13 +6175,13 @@
         <v>278</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I192" s="40"/>
     </row>
     <row r="193" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A193" s="62"/>
-      <c r="B193" s="74"/>
+      <c r="A193" s="61"/>
+      <c r="B193" s="64"/>
       <c r="C193" s="2" t="s">
         <v>138</v>
       </c>
@@ -6343,15 +6195,15 @@
         <v>279</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I193" s="41" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="62"/>
-      <c r="B194" s="74"/>
+      <c r="A194" s="61"/>
+      <c r="B194" s="64"/>
       <c r="C194" s="2" t="s">
         <v>139</v>
       </c>
@@ -6365,13 +6217,13 @@
         <v>280</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I194" s="40"/>
     </row>
     <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="62"/>
-      <c r="B195" s="74"/>
+      <c r="A195" s="61"/>
+      <c r="B195" s="64"/>
       <c r="C195" s="2" t="s">
         <v>140</v>
       </c>
@@ -6385,13 +6237,13 @@
         <v>281</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I195" s="40"/>
     </row>
     <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="62"/>
-      <c r="B196" s="74"/>
+      <c r="A196" s="61"/>
+      <c r="B196" s="64"/>
       <c r="C196" s="2" t="s">
         <v>141</v>
       </c>
@@ -6405,13 +6257,13 @@
         <v>282</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I196" s="40"/>
     </row>
     <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A197" s="62"/>
-      <c r="B197" s="74"/>
+      <c r="A197" s="61"/>
+      <c r="B197" s="64"/>
       <c r="C197" s="2" t="s">
         <v>142</v>
       </c>
@@ -6425,13 +6277,13 @@
         <v>283</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I197" s="40"/>
     </row>
     <row r="198" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A198" s="62"/>
-      <c r="B198" s="74"/>
+      <c r="A198" s="61"/>
+      <c r="B198" s="64"/>
       <c r="C198" s="2" t="s">
         <v>143</v>
       </c>
@@ -6445,12 +6297,12 @@
         <v>284</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A199" s="62"/>
-      <c r="B199" s="74"/>
+      <c r="A199" s="61"/>
+      <c r="B199" s="64"/>
       <c r="C199" s="2" t="s">
         <v>144</v>
       </c>
@@ -6464,12 +6316,12 @@
         <v>395</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A200" s="62"/>
-      <c r="B200" s="74"/>
+      <c r="A200" s="61"/>
+      <c r="B200" s="64"/>
       <c r="C200" s="2" t="s">
         <v>145</v>
       </c>
@@ -6483,12 +6335,12 @@
         <v>286</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A201" s="62"/>
-      <c r="B201" s="74"/>
+      <c r="A201" s="61"/>
+      <c r="B201" s="64"/>
       <c r="C201" s="2" t="s">
         <v>106</v>
       </c>
@@ -6502,12 +6354,12 @@
         <v>392</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A202" s="62"/>
-      <c r="B202" s="74"/>
+      <c r="A202" s="61"/>
+      <c r="B202" s="64"/>
       <c r="D202" s="1" t="s">
         <v>155</v>
       </c>
@@ -6518,12 +6370,12 @@
         <v>287</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="62"/>
-      <c r="B203" s="74"/>
+      <c r="A203" s="61"/>
+      <c r="B203" s="64"/>
       <c r="E203" s="1" t="s">
         <v>289</v>
       </c>
@@ -6531,12 +6383,12 @@
         <v>288</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A204" s="62"/>
-      <c r="B204" s="74"/>
+      <c r="A204" s="61"/>
+      <c r="B204" s="64"/>
       <c r="E204" s="1" t="s">
         <v>290</v>
       </c>
@@ -6544,26 +6396,26 @@
         <v>289</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A205" s="62"/>
-      <c r="B205" s="74"/>
+      <c r="A205" s="61"/>
+      <c r="B205" s="64"/>
       <c r="F205" s="1" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A206" s="62"/>
-      <c r="B206" s="74"/>
+      <c r="A206" s="61"/>
+      <c r="B206" s="64"/>
       <c r="F206" s="1" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="207" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="55"/>
-      <c r="B207" s="73"/>
+      <c r="A207" s="56"/>
+      <c r="B207" s="65"/>
       <c r="C207" s="16"/>
       <c r="D207" s="7"/>
       <c r="F207" s="8" t="s">
@@ -6572,10 +6424,10 @@
       <c r="G207" s="7"/>
     </row>
     <row r="208" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A208" s="54" t="s">
+      <c r="A208" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B208" s="56" t="s">
+      <c r="B208" s="57" t="s">
         <v>235</v>
       </c>
       <c r="C208" s="9" t="s">
@@ -6593,14 +6445,14 @@
       <c r="G208" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H208" s="78"/>
+      <c r="H208" s="50"/>
       <c r="I208" s="38" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A209" s="62"/>
-      <c r="B209" s="63"/>
+      <c r="A209" s="61"/>
+      <c r="B209" s="62"/>
       <c r="C209" s="2" t="s">
         <v>10</v>
       </c>
@@ -6616,14 +6468,14 @@
       <c r="G209" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H209" s="79"/>
+      <c r="H209" s="51"/>
       <c r="I209" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A210" s="62"/>
-      <c r="B210" s="63"/>
+      <c r="A210" s="61"/>
+      <c r="B210" s="62"/>
       <c r="C210" s="2" t="s">
         <v>11</v>
       </c>
@@ -6639,14 +6491,14 @@
       <c r="G210" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H210" s="79"/>
+      <c r="H210" s="51"/>
       <c r="I210" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A211" s="62"/>
-      <c r="B211" s="63"/>
+      <c r="A211" s="61"/>
+      <c r="B211" s="62"/>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
@@ -6662,14 +6514,14 @@
       <c r="G211" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H211" s="79"/>
+      <c r="H211" s="51"/>
       <c r="I211" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A212" s="62"/>
-      <c r="B212" s="63"/>
+      <c r="A212" s="61"/>
+      <c r="B212" s="62"/>
       <c r="C212" s="2" t="s">
         <v>210</v>
       </c>
@@ -6685,17 +6537,17 @@
       <c r="G212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H212" s="79"/>
+      <c r="H212" s="51"/>
       <c r="I212" s="34" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>572</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>22</v>
@@ -6713,12 +6565,81 @@
         <v>22</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I213" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A116:A124"/>
+    <mergeCell ref="B116:B124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="H161:H163"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="H70:H86"/>
+    <mergeCell ref="H187:H189"/>
+    <mergeCell ref="H180:H186"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A3:A38"/>
+    <mergeCell ref="B3:B38"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A101:A113"/>
+    <mergeCell ref="B101:B113"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="A70:A86"/>
+    <mergeCell ref="B70:B86"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="A164:A179"/>
+    <mergeCell ref="B164:B179"/>
+    <mergeCell ref="A180:A186"/>
+    <mergeCell ref="B180:B186"/>
     <mergeCell ref="H208:H212"/>
     <mergeCell ref="H41:H44"/>
     <mergeCell ref="A46:A47"/>
@@ -6735,75 +6656,6 @@
     <mergeCell ref="B191:B207"/>
     <mergeCell ref="A161:A163"/>
     <mergeCell ref="B161:B163"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="A164:A179"/>
-    <mergeCell ref="B164:B179"/>
-    <mergeCell ref="A180:A186"/>
-    <mergeCell ref="B180:B186"/>
-    <mergeCell ref="A101:A113"/>
-    <mergeCell ref="B101:B113"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="A70:A86"/>
-    <mergeCell ref="B70:B86"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="B92:B100"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A3:A38"/>
-    <mergeCell ref="B3:B38"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="H161:H163"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="H70:H86"/>
-    <mergeCell ref="H187:H189"/>
-    <mergeCell ref="H180:H186"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A116:A124"/>
-    <mergeCell ref="B116:B124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6819,17 +6671,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="748de206-7911-403a-93a2-ff3feb5ad88e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d391a701-1e72-4a9c-8e27-32ae852ac85b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009FE99232C2A610489C05CA2A95C6B0DC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99e3d855f4612a477f80c26c84225e60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="748de206-7911-403a-93a2-ff3feb5ad88e" xmlns:ns3="d391a701-1e72-4a9c-8e27-32ae852ac85b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d24ec2972380c9becf470258562e41c" ns2:_="" ns3:_="">
     <xsd:import namespace="748de206-7911-403a-93a2-ff3feb5ad88e"/>
@@ -7060,6 +6901,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="748de206-7911-403a-93a2-ff3feb5ad88e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d391a701-1e72-4a9c-8e27-32ae852ac85b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FAB6AC5-36AE-4659-85FA-27D5EA53B47B}">
   <ds:schemaRefs>
@@ -7069,23 +6921,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA35EFD-202A-4224-80EE-635D00C9954C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d391a701-1e72-4a9c-8e27-32ae852ac85b"/>
-    <ds:schemaRef ds:uri="748de206-7911-403a-93a2-ff3feb5ad88e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A67D5D-5C1C-4AF7-B65F-5AC0C1DDFB02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7102,4 +6937,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA35EFD-202A-4224-80EE-635D00C9954C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d391a701-1e72-4a9c-8e27-32ae852ac85b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="748de206-7911-403a-93a2-ff3feb5ad88e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/codebook_combined.xlsx
+++ b/codebook_combined.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1741" documentId="8_{54C3D132-FD60-E343-8A70-19C775275FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8351BA15-C6B0-494F-9260-5C04447325B6}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{73DF8F02-1432-4841-ABC8-0F245F1B77ED}"/>
+    <workbookView xWindow="13040" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{73DF8F02-1432-4841-ABC8-0F245F1B77ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2263,21 +2263,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2290,25 +2275,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2316,15 +2286,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2344,6 +2305,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2359,10 +2359,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2665,10 +2661,10 @@
   <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2737,10 +2733,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2762,8 +2758,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
@@ -2784,8 +2780,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="2" t="s">
         <v>66</v>
       </c>
@@ -2806,8 +2802,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
@@ -2828,8 +2824,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
@@ -2850,8 +2846,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
@@ -2872,8 +2868,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
@@ -2894,8 +2890,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="2" t="s">
         <v>71</v>
       </c>
@@ -2916,8 +2912,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="2" t="s">
         <v>72</v>
       </c>
@@ -2938,8 +2934,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2957,8 +2953,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
@@ -2976,8 +2972,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="2" t="s">
         <v>75</v>
       </c>
@@ -2995,8 +2991,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="2" t="s">
         <v>76</v>
       </c>
@@ -3014,8 +3010,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="2" t="s">
         <v>77</v>
       </c>
@@ -3033,8 +3029,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="2" t="s">
         <v>78</v>
       </c>
@@ -3052,8 +3048,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="2" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3067,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
@@ -3090,8 +3086,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="69"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="2" t="s">
         <v>81</v>
       </c>
@@ -3109,8 +3105,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="69"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="2" t="s">
         <v>82</v>
       </c>
@@ -3128,8 +3124,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="69"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="2" t="s">
         <v>83</v>
       </c>
@@ -3147,8 +3143,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="69"/>
-      <c r="B23" s="64"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="2" t="s">
         <v>84</v>
       </c>
@@ -3166,8 +3162,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="69"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="2" t="s">
         <v>85</v>
       </c>
@@ -3182,8 +3178,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="69"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="2" t="s">
         <v>86</v>
       </c>
@@ -3198,8 +3194,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="2" t="s">
         <v>87</v>
       </c>
@@ -3214,8 +3210,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="69"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="2" t="s">
         <v>88</v>
       </c>
@@ -3230,8 +3226,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="69"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="2" t="s">
         <v>89</v>
       </c>
@@ -3246,8 +3242,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="69"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
@@ -3262,8 +3258,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="69"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="2" t="s">
         <v>91</v>
       </c>
@@ -3278,8 +3274,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="69"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="2" t="s">
         <v>92</v>
       </c>
@@ -3294,8 +3290,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="69"/>
-      <c r="B32" s="64"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="2" t="s">
         <v>93</v>
       </c>
@@ -3310,8 +3306,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="2" t="s">
         <v>94</v>
       </c>
@@ -3326,8 +3322,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="69"/>
-      <c r="B34" s="64"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="2" t="s">
         <v>95</v>
       </c>
@@ -3342,8 +3338,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="69"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="2" t="s">
         <v>96</v>
       </c>
@@ -3358,8 +3354,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
-      <c r="B36" s="64"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="2" t="s">
         <v>97</v>
       </c>
@@ -3374,8 +3370,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="69"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="66"/>
       <c r="E37" s="1" t="s">
         <v>325</v>
       </c>
@@ -3387,7 +3383,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="70"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="65"/>
       <c r="C38" s="16"/>
       <c r="D38" s="7"/>
@@ -3458,10 +3454,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="52" t="s">
         <v>534</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -3479,14 +3475,14 @@
       <c r="G41" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="H41" s="52"/>
+      <c r="H41" s="72"/>
       <c r="I41" s="38" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
-      <c r="B42" s="62"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="1" t="s">
         <v>543</v>
       </c>
@@ -3502,14 +3498,14 @@
       <c r="G42" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="H42" s="53"/>
+      <c r="H42" s="73"/>
       <c r="I42" s="34" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="1" t="s">
         <v>544</v>
       </c>
@@ -3525,14 +3521,14 @@
       <c r="G43" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H43" s="53"/>
+      <c r="H43" s="73"/>
       <c r="I43" s="34" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="7" t="s">
         <v>545</v>
       </c>
@@ -3548,7 +3544,7 @@
       <c r="G44" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="H44" s="54"/>
+      <c r="H44" s="74"/>
       <c r="I44" s="39" t="s">
         <v>545</v>
       </c>
@@ -3571,31 +3567,31 @@
       </c>
     </row>
     <row r="46" spans="1:9" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="50" t="s">
         <v>539</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="52" t="s">
         <v>540</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
       <c r="I46" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
       <c r="I47" s="31" t="s">
         <v>60</v>
       </c>
@@ -3706,10 +3702,10 @@
       </c>
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="64" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3732,7 +3728,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="67"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="65"/>
       <c r="C53" s="16" t="s">
         <v>26</v>
@@ -3754,10 +3750,10 @@
       </c>
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="64" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -3780,8 +3776,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="61"/>
-      <c r="B55" s="64"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="2" t="s">
         <v>98</v>
       </c>
@@ -3802,8 +3798,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
-      <c r="B56" s="64"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="2" t="s">
         <v>99</v>
       </c>
@@ -3824,8 +3820,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="61"/>
-      <c r="B57" s="64"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="2" t="s">
         <v>100</v>
       </c>
@@ -3846,8 +3842,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="61"/>
-      <c r="B58" s="64"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="2" t="s">
         <v>101</v>
       </c>
@@ -3868,8 +3864,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="61"/>
-      <c r="B59" s="64"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="2" t="s">
         <v>102</v>
       </c>
@@ -3890,8 +3886,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="61"/>
-      <c r="B60" s="64"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="2" t="s">
         <v>103</v>
       </c>
@@ -3912,8 +3908,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="61"/>
-      <c r="B61" s="64"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="2" t="s">
         <v>104</v>
       </c>
@@ -3934,8 +3930,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="61"/>
-      <c r="B62" s="64"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="66"/>
       <c r="C62" s="2" t="s">
         <v>105</v>
       </c>
@@ -3953,7 +3949,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="56"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="65"/>
       <c r="C63" s="16" t="s">
         <v>106</v>
@@ -3970,10 +3966,10 @@
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="63" t="s">
+      <c r="B64" s="64" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="9" t="s">
@@ -3997,8 +3993,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="61"/>
-      <c r="B65" s="64"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="66"/>
       <c r="C65" s="2" t="s">
         <v>108</v>
       </c>
@@ -4019,8 +4015,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="61"/>
-      <c r="B66" s="64"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="2" t="s">
         <v>107</v>
       </c>
@@ -4041,8 +4037,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="61"/>
-      <c r="B67" s="64"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="66"/>
       <c r="C67" s="2" t="s">
         <v>109</v>
       </c>
@@ -4057,7 +4053,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="56"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="65"/>
       <c r="C68" s="16"/>
       <c r="D68" s="7"/>
@@ -4099,10 +4095,10 @@
       </c>
     </row>
     <row r="70" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="63" t="s">
+      <c r="B70" s="64" t="s">
         <v>50</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -4120,7 +4116,7 @@
       <c r="G70" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H70" s="71" t="s">
+      <c r="H70" s="58" t="s">
         <v>236</v>
       </c>
       <c r="I70" s="36" t="s">
@@ -4128,8 +4124,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="61"/>
-      <c r="B71" s="64"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="2" t="s">
         <v>157</v>
       </c>
@@ -4145,14 +4141,14 @@
       <c r="G71" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H71" s="72"/>
+      <c r="H71" s="59"/>
       <c r="I71" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="61"/>
-      <c r="B72" s="64"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="66"/>
       <c r="C72" s="2" t="s">
         <v>158</v>
       </c>
@@ -4168,14 +4164,14 @@
       <c r="G72" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H72" s="72"/>
+      <c r="H72" s="59"/>
       <c r="I72" s="37" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="61"/>
-      <c r="B73" s="64"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="66"/>
       <c r="C73" s="2" t="s">
         <v>159</v>
       </c>
@@ -4191,14 +4187,14 @@
       <c r="G73" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H73" s="72"/>
+      <c r="H73" s="59"/>
       <c r="I73" s="37" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="61"/>
-      <c r="B74" s="64"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="2" t="s">
         <v>160</v>
       </c>
@@ -4214,14 +4210,14 @@
       <c r="G74" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H74" s="72"/>
+      <c r="H74" s="59"/>
       <c r="I74" s="37" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="61"/>
-      <c r="B75" s="64"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="66"/>
       <c r="C75" s="2" t="s">
         <v>161</v>
       </c>
@@ -4237,14 +4233,14 @@
       <c r="G75" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H75" s="72"/>
+      <c r="H75" s="59"/>
       <c r="I75" s="37" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="61"/>
-      <c r="B76" s="64"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="2" t="s">
         <v>162</v>
       </c>
@@ -4260,14 +4256,14 @@
       <c r="G76" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="H76" s="72"/>
+      <c r="H76" s="59"/>
       <c r="I76" s="34" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="61"/>
-      <c r="B77" s="64"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="2" t="s">
         <v>163</v>
       </c>
@@ -4283,14 +4279,14 @@
       <c r="G77" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="H77" s="72"/>
+      <c r="H77" s="59"/>
       <c r="I77" s="37" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="61"/>
-      <c r="B78" s="64"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="66"/>
       <c r="C78" s="2" t="s">
         <v>164</v>
       </c>
@@ -4306,11 +4302,11 @@
       <c r="G78" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H78" s="72"/>
+      <c r="H78" s="59"/>
     </row>
     <row r="79" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="61"/>
-      <c r="B79" s="64"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="66"/>
       <c r="C79" s="2" t="s">
         <v>165</v>
       </c>
@@ -4323,12 +4319,12 @@
       <c r="F79" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H79" s="72"/>
+      <c r="H79" s="59"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="61"/>
-      <c r="B80" s="64"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="2" t="s">
         <v>166</v>
       </c>
@@ -4341,12 +4337,12 @@
       <c r="F80" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H80" s="72"/>
+      <c r="H80" s="59"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="61"/>
-      <c r="B81" s="64"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="66"/>
       <c r="C81" s="2" t="s">
         <v>167</v>
       </c>
@@ -4359,11 +4355,11 @@
       <c r="F81" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H81" s="72"/>
+      <c r="H81" s="59"/>
     </row>
     <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="61"/>
-      <c r="B82" s="64"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="66"/>
       <c r="C82" s="2" t="s">
         <v>168</v>
       </c>
@@ -4376,11 +4372,11 @@
       <c r="F82" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H82" s="72"/>
+      <c r="H82" s="59"/>
     </row>
     <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="61"/>
-      <c r="B83" s="64"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="66"/>
       <c r="C83" s="2" t="s">
         <v>155</v>
       </c>
@@ -4393,32 +4389,32 @@
       <c r="F83" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H83" s="72"/>
+      <c r="H83" s="59"/>
     </row>
     <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="61"/>
-      <c r="B84" s="64"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="66"/>
       <c r="E84" s="3" t="s">
         <v>250</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="H84" s="72"/>
+      <c r="H84" s="59"/>
     </row>
     <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="61"/>
-      <c r="B85" s="64"/>
+      <c r="A85" s="54"/>
+      <c r="B85" s="66"/>
       <c r="E85" s="1" t="s">
         <v>251</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H85" s="72"/>
+      <c r="H85" s="59"/>
     </row>
     <row r="86" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="56"/>
+      <c r="A86" s="51"/>
       <c r="B86" s="65"/>
       <c r="C86" s="16"/>
       <c r="D86" s="7"/>
@@ -4426,13 +4422,13 @@
         <v>251</v>
       </c>
       <c r="G86" s="7"/>
-      <c r="H86" s="73"/>
+      <c r="H86" s="60"/>
     </row>
     <row r="87" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="52" t="s">
         <v>622</v>
       </c>
       <c r="E87"/>
@@ -4442,8 +4438,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="61"/>
-      <c r="B88" s="62"/>
+      <c r="A88" s="54"/>
+      <c r="B88" s="55"/>
       <c r="E88"/>
       <c r="H88" s="49"/>
       <c r="I88" s="25" t="s">
@@ -4451,8 +4447,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="56"/>
-      <c r="B89" s="58"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="16"/>
       <c r="D89" s="7"/>
       <c r="F89" s="7"/>
@@ -4463,10 +4459,10 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="55" t="s">
+      <c r="A90" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="52" t="s">
         <v>574</v>
       </c>
       <c r="E90"/>
@@ -4476,8 +4472,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="56"/>
-      <c r="B91" s="58"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="53"/>
       <c r="C91" s="16"/>
       <c r="D91" s="7"/>
       <c r="F91" s="7"/>
@@ -4488,10 +4484,10 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="55" t="s">
+      <c r="A92" s="50" t="s">
         <v>577</v>
       </c>
-      <c r="B92" s="57" t="s">
+      <c r="B92" s="52" t="s">
         <v>578</v>
       </c>
       <c r="E92"/>
@@ -4501,8 +4497,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="61"/>
-      <c r="B93" s="62"/>
+      <c r="A93" s="54"/>
+      <c r="B93" s="55"/>
       <c r="E93"/>
       <c r="H93" s="49"/>
       <c r="I93" s="25" t="s">
@@ -4510,8 +4506,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="61"/>
-      <c r="B94" s="62"/>
+      <c r="A94" s="54"/>
+      <c r="B94" s="55"/>
       <c r="E94"/>
       <c r="H94" s="49"/>
       <c r="I94" s="25" t="s">
@@ -4519,8 +4515,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="61"/>
-      <c r="B95" s="62"/>
+      <c r="A95" s="54"/>
+      <c r="B95" s="55"/>
       <c r="E95"/>
       <c r="H95" s="49"/>
       <c r="I95" s="25" t="s">
@@ -4528,8 +4524,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="61"/>
-      <c r="B96" s="62"/>
+      <c r="A96" s="54"/>
+      <c r="B96" s="55"/>
       <c r="E96"/>
       <c r="H96" s="49"/>
       <c r="I96" s="25" t="s">
@@ -4537,8 +4533,8 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="61"/>
-      <c r="B97" s="62"/>
+      <c r="A97" s="54"/>
+      <c r="B97" s="55"/>
       <c r="E97"/>
       <c r="H97" s="49"/>
       <c r="I97" s="25" t="s">
@@ -4546,8 +4542,8 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="61"/>
-      <c r="B98" s="62"/>
+      <c r="A98" s="54"/>
+      <c r="B98" s="55"/>
       <c r="E98"/>
       <c r="H98" s="49"/>
       <c r="I98" s="25" t="s">
@@ -4555,8 +4551,8 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="61"/>
-      <c r="B99" s="62"/>
+      <c r="A99" s="54"/>
+      <c r="B99" s="55"/>
       <c r="E99"/>
       <c r="H99" s="49"/>
       <c r="I99" s="25" t="s">
@@ -4564,8 +4560,8 @@
       </c>
     </row>
     <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="56"/>
-      <c r="B100" s="58"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="16"/>
       <c r="D100" s="7"/>
       <c r="F100" s="7"/>
@@ -4574,10 +4570,10 @@
       <c r="I100" s="31"/>
     </row>
     <row r="101" spans="1:9" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="55" t="s">
+      <c r="A101" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="64" t="s">
         <v>219</v>
       </c>
       <c r="C101" s="9" t="s">
@@ -4600,8 +4596,8 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="61"/>
-      <c r="B102" s="64"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="66"/>
       <c r="C102" s="2" t="s">
         <v>110</v>
       </c>
@@ -4622,8 +4618,8 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="61"/>
-      <c r="B103" s="64"/>
+      <c r="A103" s="54"/>
+      <c r="B103" s="66"/>
       <c r="C103" s="2" t="s">
         <v>111</v>
       </c>
@@ -4644,8 +4640,8 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="61"/>
-      <c r="B104" s="64"/>
+      <c r="A104" s="54"/>
+      <c r="B104" s="66"/>
       <c r="C104" s="2" t="s">
         <v>112</v>
       </c>
@@ -4666,8 +4662,8 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="61"/>
-      <c r="B105" s="64"/>
+      <c r="A105" s="54"/>
+      <c r="B105" s="66"/>
       <c r="C105" s="2" t="s">
         <v>113</v>
       </c>
@@ -4688,8 +4684,8 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="61"/>
-      <c r="B106" s="64"/>
+      <c r="A106" s="54"/>
+      <c r="B106" s="66"/>
       <c r="C106" s="2" t="s">
         <v>114</v>
       </c>
@@ -4710,8 +4706,8 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="61"/>
-      <c r="B107" s="64"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="66"/>
       <c r="C107" s="2" t="s">
         <v>115</v>
       </c>
@@ -4732,8 +4728,8 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="61"/>
-      <c r="B108" s="64"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="66"/>
       <c r="C108" s="2" t="s">
         <v>116</v>
       </c>
@@ -4754,8 +4750,8 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="61"/>
-      <c r="B109" s="64"/>
+      <c r="A109" s="54"/>
+      <c r="B109" s="66"/>
       <c r="C109" s="2" t="s">
         <v>117</v>
       </c>
@@ -4776,8 +4772,8 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="61"/>
-      <c r="B110" s="64"/>
+      <c r="A110" s="54"/>
+      <c r="B110" s="66"/>
       <c r="C110" s="2" t="s">
         <v>118</v>
       </c>
@@ -4798,8 +4794,8 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="61"/>
-      <c r="B111" s="64"/>
+      <c r="A111" s="54"/>
+      <c r="B111" s="66"/>
       <c r="C111" s="2" t="s">
         <v>119</v>
       </c>
@@ -4814,8 +4810,8 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="61"/>
-      <c r="B112" s="64"/>
+      <c r="A112" s="54"/>
+      <c r="B112" s="66"/>
       <c r="C112" s="2" t="s">
         <v>106</v>
       </c>
@@ -4830,7 +4826,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="56"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="65"/>
       <c r="C113" s="16"/>
       <c r="D113" s="7"/>
@@ -4843,10 +4839,10 @@
       <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="55" t="s">
+      <c r="A114" s="50" t="s">
         <v>587</v>
       </c>
-      <c r="B114" s="57" t="s">
+      <c r="B114" s="52" t="s">
         <v>588</v>
       </c>
       <c r="I114" s="25" t="s">
@@ -4854,8 +4850,8 @@
       </c>
     </row>
     <row r="115" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="56"/>
-      <c r="B115" s="58"/>
+      <c r="A115" s="51"/>
+      <c r="B115" s="53"/>
       <c r="C115" s="16"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -4866,10 +4862,10 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="55" t="s">
+      <c r="A116" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="B116" s="57" t="s">
+      <c r="B116" s="52" t="s">
         <v>591</v>
       </c>
       <c r="I116" s="25" t="s">
@@ -4877,57 +4873,57 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="61"/>
-      <c r="B117" s="62"/>
+      <c r="A117" s="54"/>
+      <c r="B117" s="55"/>
       <c r="I117" s="25" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="61"/>
-      <c r="B118" s="62"/>
+      <c r="A118" s="54"/>
+      <c r="B118" s="55"/>
       <c r="I118" s="25" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="61"/>
-      <c r="B119" s="62"/>
+      <c r="A119" s="54"/>
+      <c r="B119" s="55"/>
       <c r="I119" s="25" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="61"/>
-      <c r="B120" s="62"/>
+      <c r="A120" s="54"/>
+      <c r="B120" s="55"/>
       <c r="I120" s="25" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="61"/>
-      <c r="B121" s="62"/>
+      <c r="A121" s="54"/>
+      <c r="B121" s="55"/>
       <c r="I121" s="25" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="61"/>
-      <c r="B122" s="62"/>
+      <c r="A122" s="54"/>
+      <c r="B122" s="55"/>
       <c r="I122" s="25" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="61"/>
-      <c r="B123" s="62"/>
+      <c r="A123" s="54"/>
+      <c r="B123" s="55"/>
       <c r="I123" s="25" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="56"/>
-      <c r="B124" s="58"/>
+      <c r="A124" s="51"/>
+      <c r="B124" s="53"/>
       <c r="C124" s="16"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -4938,10 +4934,10 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="55" t="s">
+      <c r="A125" s="50" t="s">
         <v>601</v>
       </c>
-      <c r="B125" s="57" t="s">
+      <c r="B125" s="52" t="s">
         <v>602</v>
       </c>
       <c r="I125" s="25" t="s">
@@ -4949,8 +4945,8 @@
       </c>
     </row>
     <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="56"/>
-      <c r="B126" s="58"/>
+      <c r="A126" s="51"/>
+      <c r="B126" s="53"/>
       <c r="C126" s="16"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -4961,10 +4957,10 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="55" t="s">
+      <c r="A127" s="50" t="s">
         <v>604</v>
       </c>
-      <c r="B127" s="57" t="s">
+      <c r="B127" s="52" t="s">
         <v>605</v>
       </c>
       <c r="I127" s="25" t="s">
@@ -4972,8 +4968,8 @@
       </c>
     </row>
     <row r="128" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="56"/>
-      <c r="B128" s="58"/>
+      <c r="A128" s="51"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="16"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -4984,10 +4980,10 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="55" t="s">
+      <c r="A129" s="50" t="s">
         <v>606</v>
       </c>
-      <c r="B129" s="57" t="s">
+      <c r="B129" s="52" t="s">
         <v>607</v>
       </c>
       <c r="I129" s="25" t="s">
@@ -4995,8 +4991,8 @@
       </c>
     </row>
     <row r="130" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="56"/>
-      <c r="B130" s="58"/>
+      <c r="A130" s="51"/>
+      <c r="B130" s="53"/>
       <c r="C130" s="16"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -5007,10 +5003,10 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="55" t="s">
+      <c r="A131" s="50" t="s">
         <v>608</v>
       </c>
-      <c r="B131" s="57" t="s">
+      <c r="B131" s="52" t="s">
         <v>609</v>
       </c>
       <c r="I131" s="25" t="s">
@@ -5018,8 +5014,8 @@
       </c>
     </row>
     <row r="132" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="56"/>
-      <c r="B132" s="58"/>
+      <c r="A132" s="51"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="16"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -5030,10 +5026,10 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="55" t="s">
+      <c r="A133" s="50" t="s">
         <v>610</v>
       </c>
-      <c r="B133" s="57" t="s">
+      <c r="B133" s="52" t="s">
         <v>611</v>
       </c>
       <c r="I133" s="25" t="s">
@@ -5041,8 +5037,8 @@
       </c>
     </row>
     <row r="134" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="56"/>
-      <c r="B134" s="58"/>
+      <c r="A134" s="51"/>
+      <c r="B134" s="53"/>
       <c r="C134" s="16"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -5053,10 +5049,10 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="55" t="s">
+      <c r="A135" s="50" t="s">
         <v>612</v>
       </c>
-      <c r="B135" s="57" t="s">
+      <c r="B135" s="52" t="s">
         <v>613</v>
       </c>
       <c r="I135" s="25" t="s">
@@ -5064,8 +5060,8 @@
       </c>
     </row>
     <row r="136" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="56"/>
-      <c r="B136" s="58"/>
+      <c r="A136" s="51"/>
+      <c r="B136" s="53"/>
       <c r="C136" s="16"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -5076,10 +5072,10 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="55" t="s">
+      <c r="A137" s="50" t="s">
         <v>615</v>
       </c>
-      <c r="B137" s="57" t="s">
+      <c r="B137" s="52" t="s">
         <v>614</v>
       </c>
       <c r="I137" s="25" t="s">
@@ -5087,8 +5083,8 @@
       </c>
     </row>
     <row r="138" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="56"/>
-      <c r="B138" s="58"/>
+      <c r="A138" s="51"/>
+      <c r="B138" s="53"/>
       <c r="C138" s="16"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
@@ -5099,10 +5095,10 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="55" t="s">
+      <c r="A139" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="B139" s="57" t="s">
+      <c r="B139" s="52" t="s">
         <v>617</v>
       </c>
       <c r="I139" s="25" t="s">
@@ -5110,8 +5106,8 @@
       </c>
     </row>
     <row r="140" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="56"/>
-      <c r="B140" s="58"/>
+      <c r="A140" s="51"/>
+      <c r="B140" s="53"/>
       <c r="C140" s="16"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
@@ -5122,10 +5118,10 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="55" t="s">
+      <c r="A141" s="50" t="s">
         <v>618</v>
       </c>
-      <c r="B141" s="57" t="s">
+      <c r="B141" s="52" t="s">
         <v>619</v>
       </c>
       <c r="I141" s="25" t="s">
@@ -5133,8 +5129,8 @@
       </c>
     </row>
     <row r="142" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="56"/>
-      <c r="B142" s="58"/>
+      <c r="A142" s="51"/>
+      <c r="B142" s="53"/>
       <c r="C142" s="16"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -5145,10 +5141,10 @@
       </c>
     </row>
     <row r="143" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="55" t="s">
+      <c r="A143" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B143" s="63" t="s">
+      <c r="B143" s="64" t="s">
         <v>220</v>
       </c>
       <c r="C143" s="9" t="s">
@@ -5169,7 +5165,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="56"/>
+      <c r="A144" s="51"/>
       <c r="B144" s="65"/>
       <c r="C144" s="2" t="s">
         <v>120</v>
@@ -5188,10 +5184,10 @@
       </c>
     </row>
     <row r="145" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="55" t="s">
+      <c r="A145" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B145" s="63" t="s">
+      <c r="B145" s="64" t="s">
         <v>33</v>
       </c>
       <c r="C145" s="9" t="s">
@@ -5213,7 +5209,7 @@
       <c r="K145" s="6"/>
     </row>
     <row r="146" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="56"/>
+      <c r="A146" s="51"/>
       <c r="B146" s="65"/>
       <c r="C146" s="2" t="s">
         <v>120</v>
@@ -5229,10 +5225,10 @@
       </c>
     </row>
     <row r="147" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="55" t="s">
+      <c r="A147" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B147" s="63" t="s">
+      <c r="B147" s="64" t="s">
         <v>221</v>
       </c>
       <c r="C147" s="9" t="s">
@@ -5248,7 +5244,7 @@
         <v>59</v>
       </c>
       <c r="G147" s="5"/>
-      <c r="H147" s="66" t="s">
+      <c r="H147" s="56" t="s">
         <v>222</v>
       </c>
       <c r="I147" s="38" t="s">
@@ -5257,7 +5253,7 @@
       <c r="J147" s="6"/>
     </row>
     <row r="148" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="56"/>
+      <c r="A148" s="51"/>
       <c r="B148" s="65"/>
       <c r="C148" s="16" t="s">
         <v>120</v>
@@ -5272,17 +5268,17 @@
         <v>60</v>
       </c>
       <c r="G148" s="7"/>
-      <c r="H148" s="67"/>
+      <c r="H148" s="57"/>
       <c r="I148" s="34" t="s">
         <v>60</v>
       </c>
       <c r="J148" s="8"/>
     </row>
     <row r="149" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="55" t="s">
+      <c r="A149" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B149" s="63" t="s">
+      <c r="B149" s="64" t="s">
         <v>223</v>
       </c>
       <c r="C149" s="9" t="s">
@@ -5305,7 +5301,7 @@
       <c r="J149" s="6"/>
     </row>
     <row r="150" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="56"/>
+      <c r="A150" s="51"/>
       <c r="B150" s="65"/>
       <c r="C150" s="2" t="s">
         <v>120</v>
@@ -5324,10 +5320,10 @@
       </c>
     </row>
     <row r="151" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="55" t="s">
+      <c r="A151" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B151" s="63" t="s">
+      <c r="B151" s="64" t="s">
         <v>224</v>
       </c>
       <c r="C151" s="9" t="s">
@@ -5349,7 +5345,7 @@
       </c>
     </row>
     <row r="152" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="56"/>
+      <c r="A152" s="51"/>
       <c r="B152" s="65"/>
       <c r="C152" s="2" t="s">
         <v>120</v>
@@ -5368,10 +5364,10 @@
       </c>
     </row>
     <row r="153" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="55" t="s">
+      <c r="A153" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B153" s="63" t="s">
+      <c r="B153" s="64" t="s">
         <v>225</v>
       </c>
       <c r="C153" s="9" t="s">
@@ -5387,7 +5383,7 @@
         <v>59</v>
       </c>
       <c r="G153" s="5"/>
-      <c r="H153" s="75" t="s">
+      <c r="H153" s="62" t="s">
         <v>493</v>
       </c>
       <c r="I153" s="38" t="s">
@@ -5395,7 +5391,7 @@
       </c>
     </row>
     <row r="154" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="56"/>
+      <c r="A154" s="51"/>
       <c r="B154" s="65"/>
       <c r="C154" s="16" t="s">
         <v>120</v>
@@ -5410,16 +5406,16 @@
         <v>60</v>
       </c>
       <c r="G154" s="7"/>
-      <c r="H154" s="76"/>
+      <c r="H154" s="63"/>
       <c r="I154" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="55" t="s">
+      <c r="A155" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B155" s="63" t="s">
+      <c r="B155" s="64" t="s">
         <v>226</v>
       </c>
       <c r="C155" s="9" t="s">
@@ -5435,7 +5431,7 @@
         <v>59</v>
       </c>
       <c r="G155" s="5"/>
-      <c r="H155" s="71" t="s">
+      <c r="H155" s="58" t="s">
         <v>445</v>
       </c>
       <c r="I155" s="38" t="s">
@@ -5443,7 +5439,7 @@
       </c>
     </row>
     <row r="156" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="56"/>
+      <c r="A156" s="51"/>
       <c r="B156" s="65"/>
       <c r="C156" s="16" t="s">
         <v>120</v>
@@ -5458,7 +5454,7 @@
         <v>60</v>
       </c>
       <c r="G156" s="7"/>
-      <c r="H156" s="73"/>
+      <c r="H156" s="60"/>
       <c r="I156" s="34" t="s">
         <v>60</v>
       </c>
@@ -5560,10 +5556,10 @@
       </c>
     </row>
     <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="55" t="s">
+      <c r="A161" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B161" s="63" t="s">
+      <c r="B161" s="64" t="s">
         <v>230</v>
       </c>
       <c r="C161" s="9" t="s">
@@ -5581,14 +5577,14 @@
       <c r="G161" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H161" s="71"/>
+      <c r="H161" s="58"/>
       <c r="I161" s="38" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="61"/>
-      <c r="B162" s="64"/>
+      <c r="A162" s="54"/>
+      <c r="B162" s="66"/>
       <c r="C162" s="2" t="s">
         <v>122</v>
       </c>
@@ -5604,13 +5600,13 @@
       <c r="G162" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="H162" s="72"/>
+      <c r="H162" s="59"/>
       <c r="I162" s="34" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="56"/>
+      <c r="A163" s="51"/>
       <c r="B163" s="65"/>
       <c r="C163" s="16" t="s">
         <v>123</v>
@@ -5623,13 +5619,13 @@
       <c r="G163" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="H163" s="73"/>
+      <c r="H163" s="60"/>
     </row>
     <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="55" t="s">
+      <c r="A164" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B164" s="63" t="s">
+      <c r="B164" s="64" t="s">
         <v>231</v>
       </c>
       <c r="C164" s="9" t="s">
@@ -5653,8 +5649,8 @@
       </c>
     </row>
     <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="61"/>
-      <c r="B165" s="64"/>
+      <c r="A165" s="54"/>
+      <c r="B165" s="66"/>
       <c r="C165" s="2" t="s">
         <v>124</v>
       </c>
@@ -5675,8 +5671,8 @@
       </c>
     </row>
     <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="61"/>
-      <c r="B166" s="64"/>
+      <c r="A166" s="54"/>
+      <c r="B166" s="66"/>
       <c r="C166" s="2" t="s">
         <v>125</v>
       </c>
@@ -5695,8 +5691,8 @@
       <c r="I166" s="1"/>
     </row>
     <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="61"/>
-      <c r="B167" s="64"/>
+      <c r="A167" s="54"/>
+      <c r="B167" s="66"/>
       <c r="C167" s="2" t="s">
         <v>126</v>
       </c>
@@ -5714,8 +5710,8 @@
       </c>
     </row>
     <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="61"/>
-      <c r="B168" s="64"/>
+      <c r="A168" s="54"/>
+      <c r="B168" s="66"/>
       <c r="C168" s="2" t="s">
         <v>127</v>
       </c>
@@ -5733,8 +5729,8 @@
       </c>
     </row>
     <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="61"/>
-      <c r="B169" s="64"/>
+      <c r="A169" s="54"/>
+      <c r="B169" s="66"/>
       <c r="C169" s="2" t="s">
         <v>128</v>
       </c>
@@ -5752,8 +5748,8 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A170" s="61"/>
-      <c r="B170" s="64"/>
+      <c r="A170" s="54"/>
+      <c r="B170" s="66"/>
       <c r="C170" s="2" t="s">
         <v>129</v>
       </c>
@@ -5771,8 +5767,8 @@
       </c>
     </row>
     <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="61"/>
-      <c r="B171" s="64"/>
+      <c r="A171" s="54"/>
+      <c r="B171" s="66"/>
       <c r="C171" s="2" t="s">
         <v>130</v>
       </c>
@@ -5790,8 +5786,8 @@
       </c>
     </row>
     <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="61"/>
-      <c r="B172" s="64"/>
+      <c r="A172" s="54"/>
+      <c r="B172" s="66"/>
       <c r="C172" s="2" t="s">
         <v>131</v>
       </c>
@@ -5809,8 +5805,8 @@
       </c>
     </row>
     <row r="173" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A173" s="61"/>
-      <c r="B173" s="64"/>
+      <c r="A173" s="54"/>
+      <c r="B173" s="66"/>
       <c r="C173" s="2" t="s">
         <v>132</v>
       </c>
@@ -5828,8 +5824,8 @@
       </c>
     </row>
     <row r="174" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A174" s="61"/>
-      <c r="B174" s="64"/>
+      <c r="A174" s="54"/>
+      <c r="B174" s="66"/>
       <c r="C174" s="2" t="s">
         <v>133</v>
       </c>
@@ -5847,8 +5843,8 @@
       </c>
     </row>
     <row r="175" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A175" s="61"/>
-      <c r="B175" s="64"/>
+      <c r="A175" s="54"/>
+      <c r="B175" s="66"/>
       <c r="C175" s="2" t="s">
         <v>134</v>
       </c>
@@ -5866,8 +5862,8 @@
       </c>
     </row>
     <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="61"/>
-      <c r="B176" s="64"/>
+      <c r="A176" s="54"/>
+      <c r="B176" s="66"/>
       <c r="C176" s="2" t="s">
         <v>135</v>
       </c>
@@ -5885,8 +5881,8 @@
       </c>
     </row>
     <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="61"/>
-      <c r="B177" s="64"/>
+      <c r="A177" s="54"/>
+      <c r="B177" s="66"/>
       <c r="C177" s="2" t="s">
         <v>136</v>
       </c>
@@ -5901,8 +5897,8 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="61"/>
-      <c r="B178" s="64"/>
+      <c r="A178" s="54"/>
+      <c r="B178" s="66"/>
       <c r="C178" s="2" t="s">
         <v>106</v>
       </c>
@@ -5911,7 +5907,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="56"/>
+      <c r="A179" s="51"/>
       <c r="B179" s="65"/>
       <c r="C179" s="16"/>
       <c r="D179" s="7" t="s">
@@ -5923,10 +5919,10 @@
       <c r="H179" s="8"/>
     </row>
     <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="55" t="s">
+      <c r="A180" s="50" t="s">
         <v>398</v>
       </c>
-      <c r="B180" s="57" t="s">
+      <c r="B180" s="52" t="s">
         <v>399</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -5944,7 +5940,7 @@
       <c r="G180" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="H180" s="66" t="s">
+      <c r="H180" s="56" t="s">
         <v>554</v>
       </c>
       <c r="I180" s="34" t="s">
@@ -5952,8 +5948,8 @@
       </c>
     </row>
     <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="61"/>
-      <c r="B181" s="62"/>
+      <c r="A181" s="54"/>
+      <c r="B181" s="55"/>
       <c r="C181" s="2" t="s">
         <v>406</v>
       </c>
@@ -5969,14 +5965,14 @@
       <c r="G181" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H181" s="74"/>
+      <c r="H181" s="61"/>
       <c r="I181" s="46" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="61"/>
-      <c r="B182" s="62"/>
+      <c r="A182" s="54"/>
+      <c r="B182" s="55"/>
       <c r="C182" s="2" t="s">
         <v>407</v>
       </c>
@@ -5992,12 +5988,12 @@
       <c r="G182" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H182" s="74"/>
+      <c r="H182" s="61"/>
       <c r="I182" s="7"/>
     </row>
     <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="61"/>
-      <c r="B183" s="62"/>
+      <c r="A183" s="54"/>
+      <c r="B183" s="55"/>
       <c r="C183" s="2" t="s">
         <v>408</v>
       </c>
@@ -6007,11 +6003,11 @@
       <c r="G183" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H183" s="74"/>
+      <c r="H183" s="61"/>
     </row>
     <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="61"/>
-      <c r="B184" s="62"/>
+      <c r="A184" s="54"/>
+      <c r="B184" s="55"/>
       <c r="C184" s="2" t="s">
         <v>409</v>
       </c>
@@ -6021,11 +6017,11 @@
       <c r="G184" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H184" s="74"/>
+      <c r="H184" s="61"/>
     </row>
     <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="61"/>
-      <c r="B185" s="62"/>
+      <c r="A185" s="54"/>
+      <c r="B185" s="55"/>
       <c r="C185" s="2" t="s">
         <v>410</v>
       </c>
@@ -6035,21 +6031,21 @@
       <c r="G185" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H185" s="74"/>
+      <c r="H185" s="61"/>
     </row>
     <row r="186" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="56"/>
-      <c r="B186" s="58"/>
+      <c r="A186" s="51"/>
+      <c r="B186" s="53"/>
       <c r="C186" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H186" s="67"/>
+      <c r="H186" s="57"/>
     </row>
     <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="55" t="s">
+      <c r="A187" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B187" s="63" t="s">
+      <c r="B187" s="64" t="s">
         <v>232</v>
       </c>
       <c r="C187" s="9" t="s">
@@ -6067,7 +6063,7 @@
       <c r="G187" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H187" s="71" t="s">
+      <c r="H187" s="58" t="s">
         <v>218</v>
       </c>
       <c r="I187" s="38" t="s">
@@ -6075,8 +6071,8 @@
       </c>
     </row>
     <row r="188" spans="1:9" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="61"/>
-      <c r="B188" s="64"/>
+      <c r="A188" s="54"/>
+      <c r="B188" s="66"/>
       <c r="C188" s="2" t="s">
         <v>120</v>
       </c>
@@ -6092,13 +6088,13 @@
       <c r="G188" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H188" s="72"/>
+      <c r="H188" s="59"/>
       <c r="I188" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="56"/>
+      <c r="A189" s="51"/>
       <c r="B189" s="65"/>
       <c r="C189" s="16" t="s">
         <v>58</v>
@@ -6107,7 +6103,7 @@
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
-      <c r="H189" s="73"/>
+      <c r="H189" s="60"/>
     </row>
     <row r="190" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
@@ -6137,10 +6133,10 @@
       </c>
     </row>
     <row r="191" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="55" t="s">
+      <c r="A191" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B191" s="63" t="s">
+      <c r="B191" s="64" t="s">
         <v>234</v>
       </c>
       <c r="C191" s="9" t="s">
@@ -6160,8 +6156,8 @@
       </c>
     </row>
     <row r="192" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="61"/>
-      <c r="B192" s="64"/>
+      <c r="A192" s="54"/>
+      <c r="B192" s="66"/>
       <c r="C192" s="2" t="s">
         <v>137</v>
       </c>
@@ -6180,8 +6176,8 @@
       <c r="I192" s="40"/>
     </row>
     <row r="193" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A193" s="61"/>
-      <c r="B193" s="64"/>
+      <c r="A193" s="54"/>
+      <c r="B193" s="66"/>
       <c r="C193" s="2" t="s">
         <v>138</v>
       </c>
@@ -6202,8 +6198,8 @@
       </c>
     </row>
     <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="61"/>
-      <c r="B194" s="64"/>
+      <c r="A194" s="54"/>
+      <c r="B194" s="66"/>
       <c r="C194" s="2" t="s">
         <v>139</v>
       </c>
@@ -6222,8 +6218,8 @@
       <c r="I194" s="40"/>
     </row>
     <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="61"/>
-      <c r="B195" s="64"/>
+      <c r="A195" s="54"/>
+      <c r="B195" s="66"/>
       <c r="C195" s="2" t="s">
         <v>140</v>
       </c>
@@ -6242,8 +6238,8 @@
       <c r="I195" s="40"/>
     </row>
     <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="61"/>
-      <c r="B196" s="64"/>
+      <c r="A196" s="54"/>
+      <c r="B196" s="66"/>
       <c r="C196" s="2" t="s">
         <v>141</v>
       </c>
@@ -6262,8 +6258,8 @@
       <c r="I196" s="40"/>
     </row>
     <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A197" s="61"/>
-      <c r="B197" s="64"/>
+      <c r="A197" s="54"/>
+      <c r="B197" s="66"/>
       <c r="C197" s="2" t="s">
         <v>142</v>
       </c>
@@ -6282,8 +6278,8 @@
       <c r="I197" s="40"/>
     </row>
     <row r="198" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A198" s="61"/>
-      <c r="B198" s="64"/>
+      <c r="A198" s="54"/>
+      <c r="B198" s="66"/>
       <c r="C198" s="2" t="s">
         <v>143</v>
       </c>
@@ -6301,8 +6297,8 @@
       </c>
     </row>
     <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A199" s="61"/>
-      <c r="B199" s="64"/>
+      <c r="A199" s="54"/>
+      <c r="B199" s="66"/>
       <c r="C199" s="2" t="s">
         <v>144</v>
       </c>
@@ -6320,8 +6316,8 @@
       </c>
     </row>
     <row r="200" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A200" s="61"/>
-      <c r="B200" s="64"/>
+      <c r="A200" s="54"/>
+      <c r="B200" s="66"/>
       <c r="C200" s="2" t="s">
         <v>145</v>
       </c>
@@ -6339,8 +6335,8 @@
       </c>
     </row>
     <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A201" s="61"/>
-      <c r="B201" s="64"/>
+      <c r="A201" s="54"/>
+      <c r="B201" s="66"/>
       <c r="C201" s="2" t="s">
         <v>106</v>
       </c>
@@ -6358,8 +6354,8 @@
       </c>
     </row>
     <row r="202" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A202" s="61"/>
-      <c r="B202" s="64"/>
+      <c r="A202" s="54"/>
+      <c r="B202" s="66"/>
       <c r="D202" s="1" t="s">
         <v>155</v>
       </c>
@@ -6374,8 +6370,8 @@
       </c>
     </row>
     <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="61"/>
-      <c r="B203" s="64"/>
+      <c r="A203" s="54"/>
+      <c r="B203" s="66"/>
       <c r="E203" s="1" t="s">
         <v>289</v>
       </c>
@@ -6387,8 +6383,8 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A204" s="61"/>
-      <c r="B204" s="64"/>
+      <c r="A204" s="54"/>
+      <c r="B204" s="66"/>
       <c r="E204" s="1" t="s">
         <v>290</v>
       </c>
@@ -6400,21 +6396,21 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A205" s="61"/>
-      <c r="B205" s="64"/>
+      <c r="A205" s="54"/>
+      <c r="B205" s="66"/>
       <c r="F205" s="1" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A206" s="61"/>
-      <c r="B206" s="64"/>
+      <c r="A206" s="54"/>
+      <c r="B206" s="66"/>
       <c r="F206" s="1" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="207" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="56"/>
+      <c r="A207" s="51"/>
       <c r="B207" s="65"/>
       <c r="C207" s="16"/>
       <c r="D207" s="7"/>
@@ -6424,10 +6420,10 @@
       <c r="G207" s="7"/>
     </row>
     <row r="208" spans="1:9" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A208" s="55" t="s">
+      <c r="A208" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B208" s="57" t="s">
+      <c r="B208" s="52" t="s">
         <v>235</v>
       </c>
       <c r="C208" s="9" t="s">
@@ -6445,14 +6441,14 @@
       <c r="G208" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H208" s="50"/>
+      <c r="H208" s="70"/>
       <c r="I208" s="38" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A209" s="61"/>
-      <c r="B209" s="62"/>
+      <c r="A209" s="54"/>
+      <c r="B209" s="55"/>
       <c r="C209" s="2" t="s">
         <v>10</v>
       </c>
@@ -6468,14 +6464,14 @@
       <c r="G209" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H209" s="51"/>
+      <c r="H209" s="71"/>
       <c r="I209" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A210" s="61"/>
-      <c r="B210" s="62"/>
+      <c r="A210" s="54"/>
+      <c r="B210" s="55"/>
       <c r="C210" s="2" t="s">
         <v>11</v>
       </c>
@@ -6491,14 +6487,14 @@
       <c r="G210" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H210" s="51"/>
+      <c r="H210" s="71"/>
       <c r="I210" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A211" s="61"/>
-      <c r="B211" s="62"/>
+      <c r="A211" s="54"/>
+      <c r="B211" s="55"/>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
@@ -6514,14 +6510,14 @@
       <c r="G211" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H211" s="51"/>
+      <c r="H211" s="71"/>
       <c r="I211" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A212" s="61"/>
-      <c r="B212" s="62"/>
+      <c r="A212" s="54"/>
+      <c r="B212" s="55"/>
       <c r="C212" s="2" t="s">
         <v>210</v>
       </c>
@@ -6537,7 +6533,7 @@
       <c r="G212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H212" s="51"/>
+      <c r="H212" s="71"/>
       <c r="I212" s="34" t="s">
         <v>210</v>
       </c>
@@ -6571,75 +6567,6 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A116:A124"/>
-    <mergeCell ref="B116:B124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="H161:H163"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="H70:H86"/>
-    <mergeCell ref="H187:H189"/>
-    <mergeCell ref="H180:H186"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A3:A38"/>
-    <mergeCell ref="B3:B38"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A101:A113"/>
-    <mergeCell ref="B101:B113"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="A70:A86"/>
-    <mergeCell ref="B70:B86"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="B92:B100"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="A164:A179"/>
-    <mergeCell ref="B164:B179"/>
-    <mergeCell ref="A180:A186"/>
-    <mergeCell ref="B180:B186"/>
     <mergeCell ref="H208:H212"/>
     <mergeCell ref="H41:H44"/>
     <mergeCell ref="A46:A47"/>
@@ -6656,21 +6583,81 @@
     <mergeCell ref="B191:B207"/>
     <mergeCell ref="A161:A163"/>
     <mergeCell ref="B161:B163"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="A164:A179"/>
+    <mergeCell ref="B164:B179"/>
+    <mergeCell ref="A180:A186"/>
+    <mergeCell ref="B180:B186"/>
+    <mergeCell ref="A101:A113"/>
+    <mergeCell ref="B101:B113"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="A70:A86"/>
+    <mergeCell ref="B70:B86"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A3:A38"/>
+    <mergeCell ref="B3:B38"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="H161:H163"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="H70:H86"/>
+    <mergeCell ref="H187:H189"/>
+    <mergeCell ref="H180:H186"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A116:A124"/>
+    <mergeCell ref="B116:B124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009FE99232C2A610489C05CA2A95C6B0DC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99e3d855f4612a477f80c26c84225e60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="748de206-7911-403a-93a2-ff3feb5ad88e" xmlns:ns3="d391a701-1e72-4a9c-8e27-32ae852ac85b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d24ec2972380c9becf470258562e41c" ns2:_="" ns3:_="">
     <xsd:import namespace="748de206-7911-403a-93a2-ff3feb5ad88e"/>
@@ -6901,6 +6888,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6913,14 +6909,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FAB6AC5-36AE-4659-85FA-27D5EA53B47B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A67D5D-5C1C-4AF7-B65F-5AC0C1DDFB02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6939,19 +6927,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FAB6AC5-36AE-4659-85FA-27D5EA53B47B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA35EFD-202A-4224-80EE-635D00C9954C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="d391a701-1e72-4a9c-8e27-32ae852ac85b"/>
+    <ds:schemaRef ds:uri="748de206-7911-403a-93a2-ff3feb5ad88e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d391a701-1e72-4a9c-8e27-32ae852ac85b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="748de206-7911-403a-93a2-ff3feb5ad88e"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>